--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\OneDrive\デスクトップ\WebAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F0DA8-BA28-4A96-984C-C8A9BD4722FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F562A9-5854-4BD8-9A08-FF56FD92D61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
   <si>
     <t>参加</t>
   </si>
@@ -218,6 +218,33 @@
   </si>
   <si>
     <t>わかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今枝</t>
+    <rPh sb="0" eb="2">
+      <t>イマエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひろみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいたろう</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,10 +487,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,13 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -499,10 +520,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,13 +532,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1519,7 +1540,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
@@ -1533,7 +1556,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
@@ -1547,7 +1572,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -1561,40 +1588,40 @@
         <v>4</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1604,45 +1631,47 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -1652,11 +1681,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1670,11 +1697,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1683,20 +1708,22 @@
         <v>3.5</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -1708,107 +1735,113 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1816,25 +1849,25 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1842,7 +1875,9 @@
       <c r="D22" s="3">
         <v>3.5</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1852,29 +1887,29 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
         <v>2.5</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3.5</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1882,27 +1917,25 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1911,63 +1944,107 @@
         <v>3.5</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="3"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30" s="3"/>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="3"/>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" s="3"/>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
@@ -2147,7 +2224,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
@@ -2294,19 +2371,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="6" t="str">
         <f>IF(($D2&gt;=3.5),"〇","")</f>
         <v/>
@@ -2319,26 +2396,26 @@
         <f>IF(AND((1.5&lt;=$D2),($D2&lt;=2.5)),"〇","")</f>
         <v/>
       </c>
-      <c r="L2" s="15" t="str">
+      <c r="L2" s="13" t="str">
         <f>IF(($D2&lt;=1.5),"〇","")</f>
         <v>〇</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I26" si="0">IF(($D3&gt;=3.5),"〇","")</f>
         <v/>
@@ -2351,26 +2428,26 @@
         <f t="shared" ref="K3:K26" si="2">IF(AND((1.5&lt;=$D3),($D3&lt;=2.5)),"〇","")</f>
         <v>〇</v>
       </c>
-      <c r="L3" s="15" t="str">
+      <c r="L3" s="13" t="str">
         <f t="shared" ref="L3:L26" si="3">IF(($D3&lt;=1.5),"〇","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2383,39 +2460,39 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="L4" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="str">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K5" s="19" t="str">
+      <c r="K5" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2424,19 +2501,19 @@
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2449,7 +2526,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L6" s="25" t="str">
+      <c r="L6" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2458,23 +2535,23 @@
       <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2487,7 +2564,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2496,19 +2573,19 @@
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="3">
         <v>3.5</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2521,7 +2598,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L8" s="15" t="str">
+      <c r="L8" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2530,19 +2607,19 @@
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="3">
         <v>3.5</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2555,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="15" t="str">
+      <c r="L9" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2564,23 +2641,23 @@
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="3">
         <v>3.5</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2593,7 +2670,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="L10" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2602,21 +2679,21 @@
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="3">
         <v>3.5</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2629,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="L11" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2638,19 +2715,19 @@
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="3">
         <v>3.5</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2663,96 +2740,96 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L12" s="15" t="str">
+      <c r="L12" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>3.5</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19" t="str">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>〇</v>
       </c>
-      <c r="K13" s="19" t="str">
+      <c r="K13" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23" t="str">
+      <c r="C14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="J14" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="23" t="str">
+      <c r="K14" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="24" t="str">
+      <c r="L14" s="22" t="str">
         <f t="shared" si="3"/>
         <v>〇</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2765,26 +2842,26 @@
         <f t="shared" si="2"/>
         <v>〇</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="L15" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2797,39 +2874,39 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L16" s="15" t="str">
+      <c r="L16" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19" t="str">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
       </c>
-      <c r="J17" s="19" t="str">
+      <c r="J17" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K17" s="19" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2838,23 +2915,23 @@
       <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
         <v>3.5</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -2867,7 +2944,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L18" s="25" t="str">
+      <c r="L18" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2876,19 +2953,19 @@
       <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2901,7 +2978,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="L19" s="13" t="str">
         <f t="shared" si="3"/>
         <v>〇</v>
       </c>
@@ -2910,21 +2987,21 @@
       <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
         <v>2.5</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2937,7 +3014,7 @@
         <f t="shared" si="2"/>
         <v>〇</v>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="L20" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2946,19 +3023,19 @@
       <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
         <v>2.5</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2971,28 +3048,28 @@
         <f t="shared" si="2"/>
         <v>〇</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
         <v>3.5</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -3005,7 +3082,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3014,19 +3091,19 @@
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
         <v>2.5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3039,7 +3116,7 @@
         <f t="shared" si="2"/>
         <v>〇</v>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="L23" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3048,21 +3125,21 @@
       <c r="A24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
         <v>3.5</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
@@ -3075,7 +3152,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="L24" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3084,19 +3161,19 @@
       <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3109,41 +3186,41 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="L25" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="16">
         <v>3.5</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19" t="str">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>〇</v>
       </c>
-      <c r="J26" s="19" t="str">
+      <c r="J26" s="17" t="str">
         <f t="shared" si="1"/>
         <v>〇</v>
       </c>
-      <c r="K26" s="19" t="str">
+      <c r="K26" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" s="18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F562A9-5854-4BD8-9A08-FF56FD92D61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272F892-E4D1-4F44-8581-FDA4C2E82F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
   <si>
     <t>参加</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>せいたろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ともみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1500,7 +1508,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1801,15 +1809,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -1819,13 +1829,13 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -1835,13 +1845,13 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -1851,13 +1861,13 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1867,49 +1877,49 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
         <v>3.5</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1919,7 +1929,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1935,13 +1945,13 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1951,13 +1961,13 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -1969,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1985,13 +1995,13 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -1999,15 +2009,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -2017,7 +2029,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2033,13 +2045,13 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2048,19 +2060,35 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33" s="3"/>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="3"/>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
@@ -2224,7 +2252,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272F892-E4D1-4F44-8581-FDA4C2E82F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551444E-9669-44AE-8DD6-CE8DE4B594C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="swap" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
   <si>
     <t>参加</t>
   </si>
@@ -204,10 +204,6 @@
   </si>
   <si>
     <t>みく</t>
-  </si>
-  <si>
-    <t>みく</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>shunpon</t>
@@ -253,6 +249,81 @@
   </si>
   <si>
     <t>ともみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安田たかひろ</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こばやし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チンシケツ</t>
+  </si>
+  <si>
+    <t>ななこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そーま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桐下</t>
+    <rPh sb="0" eb="2">
+      <t>キリシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未来</t>
+    <rPh sb="0" eb="2">
+      <t>ミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうじ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1505,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1601,14 +1672,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
       <c r="D6" s="3">
         <v>2.5</v>
@@ -1621,7 +1690,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1639,10 +1708,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -1653,14 +1722,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -1671,51 +1738,57 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3">
         <v>3.5</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11"/>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1725,25 +1798,23 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1751,9 +1822,7 @@
       <c r="D14" s="3">
         <v>3.5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1830,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1779,15 +1848,15 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E16"/>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1795,13 +1864,13 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1813,61 +1882,69 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
       <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1875,15 +1952,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -1891,19 +1970,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>3.5</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E23"/>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1913,13 +1992,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -1927,17 +2006,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1945,13 +2026,13 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -1959,33 +2040,33 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1995,13 +2076,13 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2009,17 +2090,15 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -2029,13 +2108,13 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
@@ -2043,15 +2122,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2061,13 +2142,13 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -2075,108 +2156,210 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E34"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.5</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="3"/>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.5</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37" s="3"/>
-      <c r="E37"/>
-      <c r="F37" s="3"/>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E38"/>
-      <c r="F38"/>
+      <c r="F38" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39" s="3"/>
-      <c r="E39"/>
-      <c r="F39" s="3"/>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41" s="3"/>
-      <c r="E41"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
       <c r="E42"/>
-      <c r="F42"/>
+      <c r="F42" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43" s="3"/>
-      <c r="E43"/>
-      <c r="F43"/>
+      <c r="A43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44" s="3"/>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45" s="3"/>
-      <c r="E45"/>
-      <c r="F45"/>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
@@ -2218,42 +2401,10 @@
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51" s="3"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52" s="3"/>
-      <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53" s="3"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54" s="3"/>
-      <c r="E54"/>
-      <c r="F54"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-      <sortCondition descending="1" ref="C1"/>
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
+      <sortCondition descending="1" ref="C1:C45"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -2530,7 +2681,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551444E-9669-44AE-8DD6-CE8DE4B594C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597DBA4-C429-4C62-BAE5-52EC504DE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="swap" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="90">
   <si>
     <t>参加</t>
   </si>
@@ -324,6 +324,58 @@
   </si>
   <si>
     <t>こうじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朋子</t>
+    <rPh sb="0" eb="2">
+      <t>トモコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐっぴー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下田</t>
+    <rPh sb="0" eb="2">
+      <t>シモダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てぃの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綾香</t>
+    <rPh sb="0" eb="2">
+      <t>アヤカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りょうすけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さとみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,6 +671,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1608,15 +1667,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1624,81 +1685,97 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>28</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>32</v>
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>54</v>
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1707,14 +1784,14 @@
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1722,15 +1799,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>58</v>
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -1739,18 +1818,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1759,8 +1837,8 @@
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>76</v>
+      <c r="B11" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -1777,63 +1855,64 @@
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>79</v>
+      <c r="B12" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13"/>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>3.5</v>
@@ -1845,32 +1924,33 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16"/>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>61</v>
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1879,16 +1959,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E18"/>
       <c r="F18" s="3" t="s">
@@ -1899,49 +1979,47 @@
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
+      <c r="B19" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E19"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>3.5</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E20"/>
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>3.5</v>
@@ -1953,52 +2031,50 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>81</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3">
         <v>3.5</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -2006,33 +2082,31 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E25"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>62</v>
+      <c r="B26" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -2040,33 +2114,31 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="A27" s="3"/>
+      <c r="B27" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>9</v>
+      <c r="B28" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -2075,14 +2147,14 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>29</v>
+      <c r="B29" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2091,11 +2163,11 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>31</v>
+      <c r="B30" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
@@ -2107,48 +2179,46 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>33</v>
+      <c r="B31" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
+      <c r="A32" s="3"/>
+      <c r="B32" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>19</v>
+      <c r="B33" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -2156,51 +2226,47 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
+      <c r="A34" s="3"/>
+      <c r="B34" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
+      <c r="A35" s="3"/>
+      <c r="B35" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E35"/>
       <c r="F35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>23</v>
+      <c r="B36" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -2209,32 +2275,30 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>63</v>
+      <c r="B37" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37"/>
       <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="3" t="s">
@@ -2243,47 +2307,45 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>22</v>
+      <c r="B39" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
+      <c r="A40" s="3"/>
+      <c r="B40" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3">
         <v>3.5</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40"/>
       <c r="F40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3">
         <v>3.5</v>
@@ -2294,35 +2356,31 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="E42"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2331,14 +2389,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" t="s">
-        <v>18</v>
+      <c r="B44" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
@@ -2347,14 +2405,14 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" t="s">
-        <v>55</v>
+      <c r="B45" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
@@ -2363,48 +2421,136 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46" s="3"/>
-      <c r="E46"/>
-      <c r="F46"/>
+      <c r="B46" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47" s="3"/>
-      <c r="E47"/>
-      <c r="F47"/>
+      <c r="B47" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3.5</v>
+      </c>
       <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49" s="3"/>
-      <c r="E49"/>
-      <c r="F49"/>
+      <c r="B49" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50" s="3"/>
-      <c r="E50"/>
-      <c r="F50"/>
+      <c r="B50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F45">
-      <sortCondition descending="1" ref="C1:C45"/>
+  <autoFilter ref="A1:F53" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+      <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7597DBA4-C429-4C62-BAE5-52EC504DE504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443798E-07C2-44A9-99E6-363A552A46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="97">
   <si>
     <t>参加</t>
   </si>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ぐっぴー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,6 +372,41 @@
   </si>
   <si>
     <t>さとみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加地</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にっしー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せーな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しんげん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まひろ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,13 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,7 +1020,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1635,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1668,16 +1692,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1686,95 +1710,86 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>59</v>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E4"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6"/>
+        <v>4</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
@@ -1782,9 +1797,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1800,98 +1815,99 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3">
         <v>3.5</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>3.5</v>
       </c>
-      <c r="E11"/>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12"/>
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1906,34 +1922,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
@@ -1941,16 +1956,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1959,70 +1974,65 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18"/>
+        <v>2.5</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>23</v>
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>74</v>
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E20"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>60</v>
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2030,17 +2040,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D22" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="3" t="s">
@@ -2048,14 +2056,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>18</v>
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
         <v>3.5</v>
@@ -2068,15 +2074,15 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2084,29 +2090,29 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="24" t="s">
-        <v>30</v>
+      <c r="B26" t="s">
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -2115,14 +2121,14 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="24" t="s">
-        <v>32</v>
+      <c r="B27" t="s">
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -2131,30 +2137,30 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="24" t="s">
-        <v>54</v>
+      <c r="B28" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="24" t="s">
-        <v>58</v>
+      <c r="B29" t="s">
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2163,75 +2169,75 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="24" t="s">
-        <v>68</v>
+      <c r="B30" t="s">
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="24" t="s">
-        <v>76</v>
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
         <v>3.5</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="24" t="s">
-        <v>69</v>
+      <c r="B32" t="s">
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32"/>
+        <v>3.5</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="24" t="s">
-        <v>24</v>
+      <c r="B33" t="s">
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>3.5</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33"/>
       <c r="F33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="24" t="s">
-        <v>47</v>
+      <c r="B34" t="s">
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
@@ -2243,62 +2249,61 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="24" t="s">
-        <v>70</v>
+      <c r="B35" t="s">
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="24" t="s">
-        <v>61</v>
+      <c r="B36" t="s">
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="24" t="s">
-        <v>75</v>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E37"/>
+        <v>3</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="24" t="s">
-        <v>73</v>
+      <c r="B38" t="s">
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E38"/>
       <c r="F38" s="3" t="s">
@@ -2307,17 +2312,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="24" t="s">
-        <v>12</v>
+      <c r="B39" t="s">
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D39" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>27</v>
@@ -2325,30 +2327,30 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="24" t="s">
-        <v>49</v>
+      <c r="B40" t="s">
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E40"/>
+        <v>3</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
-      <c r="B41" s="24" t="s">
-        <v>64</v>
+      <c r="B41" t="s">
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2357,14 +2359,14 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="24" t="s">
-        <v>62</v>
+      <c r="B42" t="s">
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2373,14 +2375,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="24" t="s">
-        <v>9</v>
+      <c r="B43" t="s">
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2389,110 +2391,109 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="24" t="s">
-        <v>29</v>
+      <c r="B44" t="s">
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="24" t="s">
-        <v>31</v>
+      <c r="B45" t="s">
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45"/>
       <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" s="24" t="s">
-        <v>33</v>
+      <c r="B46" t="s">
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="3">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="24" t="s">
-        <v>19</v>
+      <c r="B47" t="s">
+        <v>88</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
-      <c r="B48" s="24" t="s">
-        <v>78</v>
+      <c r="B48" t="s">
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E48"/>
+        <v>3</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" s="24" t="s">
-        <v>63</v>
+      <c r="B49" t="s">
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E49"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" s="24" t="s">
-        <v>22</v>
+      <c r="B50" t="s">
+        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
@@ -2501,14 +2502,14 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="24" t="s">
-        <v>51</v>
+      <c r="B51" t="s">
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -2517,39 +2518,151 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="24" t="s">
-        <v>65</v>
+      <c r="B52" t="s">
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3">
         <v>2.5</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52"/>
       <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
-      <c r="B53" s="24" t="s">
-        <v>55</v>
+      <c r="B53" t="s">
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F53" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F53">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
       <sortCondition ref="A1:A53"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443798E-07C2-44A9-99E6-363A552A46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AB66F-3F80-463B-8ADF-A446BB2091DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="swap" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="103">
   <si>
     <t>参加</t>
   </si>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そーま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>桐下</t>
     <rPh sb="0" eb="2">
       <t>キリシタ</t>
@@ -407,6 +403,43 @@
   </si>
   <si>
     <t>まひろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そーま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落合</t>
+    <rPh sb="0" eb="2">
+      <t>オチアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もーちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えりな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1659,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="D4" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1692,7 +1725,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -1701,7 +1734,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1710,16 +1743,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1728,16 +1761,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1746,64 +1779,67 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>3.5</v>
       </c>
+      <c r="E7"/>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>3.5</v>
@@ -1815,13 +1851,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>3.5</v>
@@ -1833,28 +1869,28 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>3.5</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1862,16 +1898,17 @@
       <c r="D11" s="3">
         <v>3.5</v>
       </c>
+      <c r="E11"/>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1879,20 +1916,20 @@
       <c r="D12" s="3">
         <v>3.5</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3">
         <v>3.5</v>
@@ -1904,68 +1941,70 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14"/>
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -1973,52 +2012,47 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
+      <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>32</v>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2026,10 +2060,10 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
@@ -2042,31 +2076,30 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E22"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="3">
         <v>3.5</v>
       </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2074,15 +2107,15 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
         <v>3.5</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2090,7 +2123,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2105,16 +2138,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
         <v>3.5</v>
       </c>
-      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
@@ -2122,10 +2154,10 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
         <v>3.5</v>
@@ -2138,10 +2170,10 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D28" s="3">
         <v>3.5</v>
@@ -2154,10 +2186,10 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3">
         <v>3.5</v>
@@ -2170,10 +2202,10 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3">
         <v>3.5</v>
@@ -2186,15 +2218,15 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3">
         <v>3.5</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31"/>
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
@@ -2202,10 +2234,10 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3">
         <v>3.5</v>
@@ -2218,15 +2250,15 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3">
         <v>3.5</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2234,10 +2266,10 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
@@ -2250,15 +2282,15 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E35"/>
       <c r="F35" s="3" t="s">
         <v>27</v>
       </c>
@@ -2266,15 +2298,15 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
-        <v>3</v>
-      </c>
-      <c r="E36"/>
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2282,10 +2314,10 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
@@ -2297,15 +2329,15 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2313,30 +2345,30 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
       </c>
+      <c r="E39"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>30</v>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
         <v>27</v>
       </c>
@@ -2344,15 +2376,15 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41"/>
       <c r="F41" s="3" t="s">
         <v>27</v>
       </c>
@@ -2360,15 +2392,14 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>27</v>
       </c>
@@ -2376,10 +2407,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3">
         <v>3</v>
@@ -2392,15 +2423,15 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
@@ -2408,15 +2439,15 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
@@ -2424,15 +2455,15 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>27</v>
       </c>
@@ -2440,14 +2471,15 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
       </c>
+      <c r="E47"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
       </c>
@@ -2455,15 +2487,15 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48"/>
       <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
@@ -2471,7 +2503,7 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2487,7 +2519,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2495,7 +2527,6 @@
       <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2534,7 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2519,13 +2550,13 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E52"/>
       <c r="F52" s="3" t="s">
@@ -2535,13 +2566,13 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -2551,13 +2582,13 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
@@ -2566,16 +2597,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>27</v>
       </c>
@@ -2583,13 +2613,13 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
@@ -2598,16 +2628,15 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" t="s">
-        <v>55</v>
+      <c r="B57" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2615,15 +2644,15 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E58"/>
       <c r="F58" s="3" t="s">
         <v>27</v>
       </c>
@@ -2631,13 +2660,13 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
@@ -2647,23 +2676,119 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
-      <sortCondition ref="A1:A53"/>
+  <autoFilter ref="A1:F59" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+      <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AB66F-3F80-463B-8ADF-A446BB2091DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A280E-9D23-4A95-AA0D-FEA1515A405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="113">
   <si>
     <t>参加</t>
   </si>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>加地</t>
     <rPh sb="0" eb="2">
       <t>カジ</t>
@@ -440,6 +436,74 @@
   </si>
   <si>
     <t>えりな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またがわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臼井</t>
+    <rPh sb="0" eb="2">
+      <t>ウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平山</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天野</t>
+    <rPh sb="0" eb="2">
+      <t>アマノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根津</t>
+    <rPh sb="0" eb="2">
+      <t>ネヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小熊</t>
+    <rPh sb="0" eb="2">
+      <t>オグマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すわめん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -665,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +799,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1692,19 +1762,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="13.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="25" customWidth="1"/>
+    <col min="2" max="6" width="13.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1725,16 +1796,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1743,13 +1814,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>3.5</v>
@@ -1761,13 +1832,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>3.5</v>
@@ -1779,28 +1850,28 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>3.5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5"/>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1815,16 +1886,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="3" t="s">
@@ -1833,13 +1904,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3">
         <v>3.5</v>
@@ -1851,189 +1922,185 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E9"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E10"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E11"/>
+        <v>4</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="25" t="s">
         <v>102</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>3.5</v>
       </c>
-      <c r="E12"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
+      <c r="A13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>3.5</v>
       </c>
-      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
+      <c r="A14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>3.5</v>
       </c>
-      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
+      <c r="A15" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
+      <c r="A16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
+      <c r="A17" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="A18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
+      <c r="A19" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -2043,12 +2110,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
+      <c r="A20" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
@@ -2058,17 +2127,18 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>32</v>
+      <c r="A21" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2076,13 +2146,13 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -2091,15 +2161,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
       </c>
       <c r="D23" s="3">
         <v>3.5</v>
       </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2107,15 +2178,15 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
         <v>3.5</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24"/>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2123,10 +2194,10 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
@@ -2138,8 +2209,8 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
+      <c r="B26" t="s">
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -2147,6 +2218,7 @@
       <c r="D26" s="3">
         <v>3.5</v>
       </c>
+      <c r="E26"/>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
@@ -2154,10 +2226,10 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3">
         <v>3.5</v>
@@ -2170,15 +2242,15 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
         <v>3.5</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2186,13 +2258,13 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2201,16 +2273,15 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E30"/>
+        <v>4</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
@@ -2218,15 +2289,15 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E31"/>
+        <v>4</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
@@ -2234,13 +2305,13 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2249,16 +2320,15 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>3.5</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2266,10 +2336,10 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
@@ -2282,10 +2352,10 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
@@ -2297,8 +2367,8 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>63</v>
+      <c r="B36" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2306,22 +2376,22 @@
       <c r="D36" s="3">
         <v>3.5</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
+      <c r="B37" t="s">
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
@@ -2329,15 +2399,15 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E38"/>
       <c r="F38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2345,30 +2415,31 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3">
-        <v>3</v>
-      </c>
-      <c r="E39"/>
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
+      <c r="B40" t="s">
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" s="3" t="s">
         <v>27</v>
       </c>
@@ -2376,13 +2447,13 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E41"/>
       <c r="F41" s="3" t="s">
@@ -2392,14 +2463,15 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
         <v>27</v>
       </c>
@@ -2407,13 +2479,13 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2423,13 +2495,13 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D44" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
@@ -2439,15 +2511,15 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E45"/>
       <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
@@ -2455,13 +2527,13 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -2470,16 +2542,15 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>69</v>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E47"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
       </c>
@@ -2487,15 +2558,15 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
@@ -2503,10 +2574,10 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3">
         <v>3</v>
@@ -2518,11 +2589,11 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>87</v>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
@@ -2534,15 +2605,15 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51"/>
       <c r="F51" s="3" t="s">
         <v>27</v>
       </c>
@@ -2550,15 +2621,14 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52"/>
       <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2566,10 +2636,10 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3">
         <v>3</v>
@@ -2582,10 +2652,10 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
@@ -2597,15 +2667,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>27</v>
       </c>
@@ -2613,13 +2684,13 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
@@ -2628,15 +2699,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
-        <v>90</v>
+      <c r="B57" t="s">
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D57" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E57"/>
       <c r="F57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2644,13 +2716,13 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="3" t="s">
@@ -2660,15 +2732,15 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E59"/>
       <c r="F59" s="3" t="s">
         <v>27</v>
       </c>
@@ -2676,15 +2748,14 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>27</v>
       </c>
@@ -2692,13 +2763,13 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
@@ -2708,15 +2779,15 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="3">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E62"/>
       <c r="F62" s="3" t="s">
         <v>27</v>
       </c>
@@ -2724,13 +2795,13 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -2740,13 +2811,13 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -2755,16 +2826,15 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
+      <c r="B65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>27</v>
       </c>
@@ -2772,22 +2842,181 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F59" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
       <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A280E-9D23-4A95-AA0D-FEA1515A405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63772977-A899-46C3-BAAC-BCD1D319A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="swap" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1823,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1841,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="3" t="s">
@@ -1877,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="3" t="s">
@@ -1913,7 +1913,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1931,7 +1931,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -1949,7 +1949,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1967,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>27</v>
@@ -1984,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>27</v>
@@ -2001,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>27</v>
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
@@ -2052,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>27</v>
@@ -2069,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
@@ -2086,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>27</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
@@ -2120,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>27</v>
@@ -2137,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
@@ -3015,7 +3015,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
       <sortCondition ref="A1:A59"/>
     </sortState>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63772977-A899-46C3-BAAC-BCD1D319A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFBC02-CAF7-4A6E-920F-B1FB72C4468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="115">
   <si>
     <t>参加</t>
   </si>
@@ -504,6 +504,20 @@
   </si>
   <si>
     <t>すわめん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷村</t>
+    <rPh sb="0" eb="2">
+      <t>タニムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落合</t>
+    <rPh sb="0" eb="2">
+      <t>オチアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1762,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1816,16 +1830,15 @@
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1835,15 +1848,15 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1853,15 +1866,15 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3">
         <v>3.9</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1889,15 +1902,15 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E7"/>
+        <v>3.7</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1907,13 +1920,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -1925,7 +1938,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -1943,15 +1956,15 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1960,32 +1973,34 @@
       <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
+      <c r="B11" t="s">
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>4.3</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E11"/>
       <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>103</v>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>3.8</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1995,13 +2010,13 @@
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>27</v>
@@ -2012,10 +2027,10 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="3">
         <v>3.5</v>
@@ -2025,60 +2040,54 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>106</v>
+      <c r="B15" t="s">
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="E15"/>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>107</v>
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3">
-        <v>4.2</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="B18" s="2" t="s">
         <v>109</v>
       </c>
@@ -2093,100 +2102,86 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="25" t="s">
-        <v>102</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
         <v>4.2</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>76</v>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E24"/>
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2194,15 +2189,15 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E25"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>27</v>
       </c>
@@ -2210,15 +2205,15 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E26"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
@@ -2226,13 +2221,13 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -2240,17 +2235,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>18</v>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>3.8</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2258,13 +2251,13 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2272,15 +2265,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>27</v>
@@ -2289,13 +2281,13 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
@@ -2305,30 +2297,31 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>3.5</v>
       </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2336,10 +2329,10 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
@@ -2351,31 +2344,31 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
+      <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
       </c>
-      <c r="E35"/>
       <c r="F35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="2" t="s">
-        <v>92</v>
+      <c r="B36" t="s">
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3">
         <v>3.5</v>
       </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2383,31 +2376,30 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37"/>
       <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" t="s">
-        <v>80</v>
+      <c r="B38" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
         <v>3.5</v>
       </c>
-      <c r="E38"/>
       <c r="F38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2415,10 +2407,10 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
         <v>3.5</v>
@@ -2431,10 +2423,10 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3">
         <v>3.5</v>
@@ -2447,15 +2439,15 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3">
         <v>3.5</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
         <v>27</v>
       </c>
@@ -2463,15 +2455,15 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42"/>
       <c r="F42" s="3" t="s">
         <v>27</v>
       </c>
@@ -2479,15 +2471,15 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D43" s="3">
         <v>3.5</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43"/>
       <c r="F43" s="3" t="s">
         <v>27</v>
       </c>
@@ -2495,10 +2487,10 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3">
         <v>3.5</v>
@@ -2511,15 +2503,15 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
@@ -2527,10 +2519,10 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
@@ -2542,62 +2534,61 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
-      <c r="B47" s="2" t="s">
-        <v>91</v>
+      <c r="B47" t="s">
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>56</v>
+      <c r="B48" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>3.4</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>81</v>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
+      <c r="B50" t="s">
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
       </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
         <v>27</v>
       </c>
@@ -2605,10 +2596,10 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3">
         <v>3</v>
@@ -2620,8 +2611,8 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>86</v>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>82</v>
@@ -2636,15 +2627,15 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53"/>
       <c r="F53" s="3" t="s">
         <v>27</v>
       </c>
@@ -2652,15 +2643,14 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>27</v>
       </c>
@@ -2668,10 +2658,10 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3">
         <v>3</v>
@@ -2684,10 +2674,10 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -2700,15 +2690,15 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="E57"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2716,7 +2706,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -2724,7 +2714,7 @@
       <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
         <v>27</v>
       </c>
@@ -2732,10 +2722,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D59" s="3">
         <v>3</v>
@@ -2748,14 +2738,15 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
       </c>
+      <c r="E60"/>
       <c r="F60" s="3" t="s">
         <v>27</v>
       </c>
@@ -2763,7 +2754,7 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2771,7 +2762,7 @@
       <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61"/>
       <c r="F61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2779,7 +2770,7 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2787,7 +2778,6 @@
       <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62"/>
       <c r="F62" s="3" t="s">
         <v>27</v>
       </c>
@@ -2795,7 +2785,7 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -2811,7 +2801,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2819,22 +2809,23 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64"/>
       <c r="F64" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>57</v>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
       </c>
       <c r="D65" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
         <v>27</v>
       </c>
@@ -2842,13 +2833,13 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -2858,10 +2849,10 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D67" s="3">
         <v>2.5</v>
@@ -2873,23 +2864,23 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D68" s="3">
         <v>2.5</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" t="s">
-        <v>22</v>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -2897,7 +2888,6 @@
       <c r="D69" s="3">
         <v>2.5</v>
       </c>
-      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>27</v>
       </c>
@@ -2905,15 +2895,15 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E70"/>
       <c r="F70" s="3" t="s">
         <v>27</v>
       </c>
@@ -2921,13 +2911,13 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D71" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -2937,10 +2927,10 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D72" s="3">
         <v>2</v>
@@ -2953,10 +2943,10 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
@@ -2969,13 +2959,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -2985,13 +2975,13 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -3001,10 +2991,10 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -3014,10 +3004,42 @@
         <v>27</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
-      <sortCondition ref="A1:A59"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFBC02-CAF7-4A6E-920F-B1FB72C4468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6A4D14-D4C4-463D-8656-56CD27E37E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="118">
   <si>
     <t>参加</t>
   </si>
@@ -439,10 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>またがわ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,6 +514,22 @@
     <rPh sb="0" eb="2">
       <t>オチアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ななみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あすみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -743,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +830,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1776,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1809,287 +1831,294 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
         <v>3.8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="26">
         <v>3.7</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26">
         <v>3.7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="A9" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26">
+        <v>2.8</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="26">
         <v>4.5</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -2103,7 +2132,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2116,12 +2145,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3">
         <v>4.3</v>
@@ -2132,13 +2160,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
@@ -2146,10 +2174,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
         <v>4.2</v>
@@ -2160,27 +2188,28 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="3">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>27</v>
@@ -2235,15 +2264,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>103</v>
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
-        <v>3.8</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2251,13 +2282,13 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -2265,15 +2296,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>105</v>
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
@@ -2281,31 +2314,29 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="E31"/>
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" t="s">
-        <v>76</v>
+      <c r="B32" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E32"/>
+        <v>3.8</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2313,13 +2344,13 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -2329,7 +2360,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2337,15 +2368,14 @@
       <c r="D34" s="3">
         <v>3.5</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34"/>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>57</v>
@@ -2358,48 +2388,45 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D36" s="3">
         <v>3.5</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>49</v>
+      <c r="B37" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
       </c>
-      <c r="E37"/>
       <c r="F37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
-        <v>92</v>
+      <c r="B38" t="s">
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3">
         <v>3.5</v>
       </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2434,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2415,7 +2442,7 @@
       <c r="D39" s="3">
         <v>3.5</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39"/>
       <c r="F39" s="3" t="s">
         <v>27</v>
       </c>
@@ -2423,15 +2450,15 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3">
         <v>3.5</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
         <v>27</v>
       </c>
@@ -2439,10 +2466,10 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
         <v>3.5</v>
@@ -2454,16 +2481,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
       </c>
-      <c r="E42"/>
       <c r="F42" s="3" t="s">
         <v>27</v>
       </c>
@@ -2471,7 +2497,7 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
@@ -2486,16 +2512,15 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" t="s">
-        <v>24</v>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3">
         <v>3.5</v>
       </c>
-      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
@@ -2503,10 +2528,10 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
@@ -2519,15 +2544,15 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46"/>
       <c r="F46" s="3" t="s">
         <v>27</v>
       </c>
@@ -2535,10 +2560,10 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3">
         <v>3.5</v>
@@ -2549,30 +2574,33 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="2" t="s">
-        <v>104</v>
+      <c r="A48" s="3"/>
+      <c r="B48" t="s">
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D48" s="3">
-        <v>3.4</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E48"/>
       <c r="F48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
-        <v>91</v>
+      <c r="B49" t="s">
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D49" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E49"/>
       <c r="F49" s="3" t="s">
         <v>27</v>
       </c>
@@ -2580,13 +2608,13 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
@@ -2596,30 +2624,31 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3">
-        <v>3</v>
-      </c>
-      <c r="E51"/>
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
-      <c r="B52" s="2" t="s">
-        <v>85</v>
+      <c r="B52" t="s">
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2627,13 +2656,13 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E53"/>
       <c r="F53" s="3" t="s">
@@ -2641,15 +2670,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
-        <v>86</v>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>27</v>
@@ -2657,16 +2685,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" t="s">
-        <v>30</v>
+      <c r="B55" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3">
         <v>3</v>
       </c>
-      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>27</v>
       </c>
@@ -2674,10 +2701,10 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -2690,31 +2717,30 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57"/>
       <c r="F57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
-      <c r="B58" t="s">
-        <v>68</v>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
         <v>27</v>
       </c>
@@ -2722,7 +2748,7 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -2738,15 +2764,14 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
       </c>
-      <c r="E60"/>
       <c r="F60" s="3" t="s">
         <v>27</v>
       </c>
@@ -2754,15 +2779,15 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E61"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2770,14 +2795,15 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
         <v>27</v>
       </c>
@@ -2785,10 +2811,10 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
@@ -2801,10 +2827,10 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
@@ -2817,15 +2843,15 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65"/>
       <c r="F65" s="3" t="s">
         <v>27</v>
       </c>
@@ -2833,7 +2859,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -2841,21 +2867,21 @@
       <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66"/>
       <c r="F66" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>57</v>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
       </c>
       <c r="D67" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>27</v>
@@ -2864,30 +2890,31 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E68"/>
       <c r="F68" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" s="2" t="s">
-        <v>89</v>
+      <c r="B69" t="s">
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>27</v>
       </c>
@@ -2895,47 +2922,45 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E70"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D71" s="3">
         <v>2.5</v>
       </c>
-      <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" t="s">
-        <v>28</v>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F72" s="3" t="s">
         <v>27</v>
       </c>
@@ -2943,15 +2968,15 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E73"/>
       <c r="F73" s="3" t="s">
         <v>27</v>
       </c>
@@ -2959,13 +2984,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -2975,10 +3000,10 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
@@ -2991,13 +3016,13 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
@@ -3007,13 +3032,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -3023,22 +3048,70 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F78">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F81">
       <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3659AFF-5189-4D20-8A0A-41A7B5CB5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38EFE2-C651-44C3-8021-33EA802E5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
   <si>
     <t>参加</t>
   </si>
@@ -493,6 +493,18 @@
     <rPh sb="0" eb="2">
       <t>シバタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はしば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんば</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -907,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A15" sqref="A2:I15"/>
     </sheetView>
   </sheetViews>
@@ -1295,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1328,19 +1340,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>3.8</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1350,13 +1361,13 @@
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -1368,15 +1379,15 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E4"/>
+        <v>3.7</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1386,13 +1397,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
@@ -1403,15 +1414,15 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1421,15 +1432,15 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E7"/>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1439,33 +1450,32 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>2</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1529,12 +1539,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>4.3</v>
@@ -1544,11 +1553,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>4.3</v>
@@ -1559,10 +1569,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>4.2</v>
@@ -1573,10 +1583,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>4.2</v>
@@ -1601,15 +1611,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
-      </c>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1617,15 +1628,15 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1665,31 +1676,30 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E23"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1697,28 +1707,28 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E25"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>23</v>
@@ -1727,15 +1737,15 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E27"/>
       <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
@@ -1743,13 +1753,13 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -1759,15 +1769,15 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1775,13 +1785,13 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E30"/>
       <c r="F30" s="3" t="s">
@@ -1789,43 +1799,47 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
       <c r="D33" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1833,13 +1847,13 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -1847,17 +1861,15 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
       </c>
-      <c r="E35"/>
       <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
@@ -1881,30 +1893,31 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37"/>
       <c r="F37" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>44</v>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="3">
         <v>3.5</v>
       </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>23</v>
       </c>
@@ -1912,15 +1925,15 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3">
         <v>3.5</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
         <v>23</v>
       </c>
@@ -1943,7 +1956,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1951,23 +1964,21 @@
       <c r="D41" s="3">
         <v>3.5</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41"/>
       <c r="F41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
+      <c r="B42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
       </c>
-      <c r="E42"/>
       <c r="F42" s="3" t="s">
         <v>23</v>
       </c>
@@ -1975,10 +1986,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D43" s="3">
         <v>3.5</v>
@@ -1991,31 +2002,30 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3">
         <v>3.5</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>58</v>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
       </c>
-      <c r="E45"/>
       <c r="F45" s="3" t="s">
         <v>23</v>
       </c>
@@ -2023,7 +2033,7 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2037,9 +2047,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>38</v>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -2047,7 +2056,6 @@
       <c r="D47" s="3">
         <v>3.5</v>
       </c>
-      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>23</v>
       </c>
@@ -2055,15 +2063,15 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D48" s="3">
         <v>3.5</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48"/>
       <c r="F48" s="3" t="s">
         <v>23</v>
       </c>
@@ -2071,44 +2079,47 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E49"/>
+        <v>3.5</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="2" t="s">
-        <v>90</v>
+      <c r="A50" s="3"/>
+      <c r="B50" t="s">
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3">
-        <v>3.4</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E50"/>
       <c r="F50" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="2" t="s">
-        <v>78</v>
+      <c r="B51" t="s">
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3">
-        <v>3</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
         <v>23</v>
       </c>
@@ -2116,15 +2127,15 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D52" s="3">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" s="3" t="s">
         <v>23</v>
       </c>
@@ -2132,29 +2143,28 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>3</v>
-      </c>
-      <c r="E53"/>
+        <v>3.5</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D54" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>23</v>
@@ -2163,13 +2173,13 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E55"/>
       <c r="F55" s="3" t="s">
@@ -2179,14 +2189,15 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
       </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
         <v>23</v>
       </c>
@@ -2194,10 +2205,10 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3">
         <v>3</v>
@@ -2210,15 +2221,15 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58"/>
       <c r="F58" s="3" t="s">
         <v>23</v>
       </c>
@@ -2226,10 +2237,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D59" s="3">
         <v>3</v>
@@ -2242,7 +2253,7 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
@@ -2250,7 +2261,7 @@
       <c r="D60" s="3">
         <v>3</v>
       </c>
-      <c r="E60"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2269,7 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2266,7 +2277,6 @@
       <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E61"/>
       <c r="F61" s="3" t="s">
         <v>23</v>
       </c>
@@ -2274,14 +2284,15 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
+      <c r="E62"/>
       <c r="F62" s="3" t="s">
         <v>23</v>
       </c>
@@ -2289,10 +2300,10 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
@@ -2305,7 +2316,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2313,7 +2324,7 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64"/>
       <c r="F64" s="3" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2332,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -2336,32 +2347,30 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="B66" t="s">
-        <v>41</v>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D66" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E66" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="B67" t="s">
-        <v>52</v>
+      <c r="B67" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D67" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E67" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>23</v>
       </c>
@@ -2369,45 +2378,46 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D68" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
-      <c r="B69" s="2" t="s">
-        <v>102</v>
+      <c r="B69" t="s">
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69" s="3">
-        <v>2.8</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
-      <c r="B70" s="2" t="s">
-        <v>103</v>
+      <c r="B70" t="s">
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D70" s="3">
-        <v>2.8</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>23</v>
       </c>
@@ -2415,13 +2425,13 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
       </c>
       <c r="D71" s="3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>23</v>
@@ -2429,39 +2439,39 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
-        <v>76</v>
+      <c r="B72" t="s">
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="3">
-        <v>2.5</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" t="s">
-        <v>60</v>
+      <c r="B73" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E73"/>
+        <v>2.8</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="B74" t="s">
-        <v>18</v>
+      <c r="B74" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -2469,7 +2479,6 @@
       <c r="D74" s="3">
         <v>2.5</v>
       </c>
-      <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
         <v>23</v>
       </c>
@@ -2477,13 +2486,13 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D75" s="3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>23</v>
@@ -2492,15 +2501,15 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D76" s="3">
-        <v>2</v>
-      </c>
-      <c r="E76" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E76"/>
       <c r="F76" s="3" t="s">
         <v>23</v>
       </c>
@@ -2508,13 +2517,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -2523,16 +2532,15 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="B78" t="s">
-        <v>25</v>
+      <c r="B78" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="3">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>2.1</v>
+      </c>
       <c r="F78" s="3" t="s">
         <v>23</v>
       </c>
@@ -2540,10 +2548,10 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" s="3">
         <v>2</v>
@@ -2556,13 +2564,13 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -2572,13 +2580,13 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -2588,22 +2596,70 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F82">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F85">
       <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D38EFE2-C651-44C3-8021-33EA802E5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF87EC-CE56-46BD-B2EB-7049BEA9BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="base_parameter" sheetId="2" r:id="rId2"/>
-    <sheet name="history" sheetId="3" r:id="rId3"/>
-    <sheet name="court" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="history" sheetId="3" r:id="rId4"/>
+    <sheet name="court" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
   <si>
     <t>参加</t>
   </si>
@@ -66,9 +67,6 @@
     <t>回数</t>
   </si>
   <si>
-    <t>[FREE_W1]</t>
-  </si>
-  <si>
     <t>女</t>
   </si>
   <si>
@@ -105,28 +103,7 @@
     <t>はしもと</t>
   </si>
   <si>
-    <t>[FREE_M1]</t>
-  </si>
-  <si>
     <t>〇</t>
-  </si>
-  <si>
-    <t>[FREE_M2]</t>
-  </si>
-  <si>
-    <t>[FREE_W2]</t>
-  </si>
-  <si>
-    <t>[FREE_M3]</t>
-  </si>
-  <si>
-    <t>[FREE_W3]</t>
-  </si>
-  <si>
-    <t>[FREE_M4]</t>
-  </si>
-  <si>
-    <t>[FREE_W4]</t>
   </si>
   <si>
     <t>名前1</t>
@@ -505,6 +482,152 @@
   </si>
   <si>
     <t>なんば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スシャント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆきえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.0以上</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級コート</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級コート</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級コート</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指導コート</t>
+    <rPh sb="0" eb="2">
+      <t>シドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5以下</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4部</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3部</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2部</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バド歴</t>
+    <rPh sb="2" eb="3">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15年</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12年</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大会</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年未満</t>
+    <rPh sb="1" eb="4">
+      <t>ネンミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FREE_1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FREE_4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +725,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,7 +1052,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:I15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1307,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1340,1327 +1472,1425 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
-        <v>3.8</v>
-      </c>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>107</v>
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>3.6</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E6"/>
+        <v>3.8</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E8"/>
+        <v>3.7</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="A10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>1.6</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>96</v>
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
-        <v>4.5</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="2" t="s">
-        <v>95</v>
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="2" t="s">
-        <v>97</v>
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
+      <c r="B15" t="s">
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3">
-        <v>4.3</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
         <v>4.2</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
-        <v>105</v>
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
-        <v>3.9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E27"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E29"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D30" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E30"/>
+        <v>4</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E33"/>
       <c r="F33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E34"/>
       <c r="F34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>62</v>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E37"/>
+        <v>3.8</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" t="s">
-        <v>20</v>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>3.8</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>38</v>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>3.6</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
+      <c r="B40" t="s">
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E41"/>
+        <v>3.6</v>
+      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3">
         <v>3.5</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3">
         <v>3.5</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
       </c>
+      <c r="E45"/>
       <c r="F45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46"/>
       <c r="F46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D47" s="3">
         <v>3.5</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D48" s="3">
         <v>3.5</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D49" s="3">
         <v>3.5</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49"/>
       <c r="F49" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3">
         <v>3.5</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D51" s="3">
         <v>3.5</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D52" s="3">
         <v>3.5</v>
       </c>
-      <c r="E52"/>
       <c r="F52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3">
         <v>3.5</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D54" s="3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E55"/>
+        <v>3.5</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s">
-        <v>26</v>
+      <c r="B56" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3"/>
+        <v>3.5</v>
+      </c>
       <c r="F56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E57"/>
       <c r="F57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3</v>
-      </c>
-      <c r="E58"/>
+        <v>3.5</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D59" s="3">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E59"/>
       <c r="F59" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="E60"/>
       <c r="F60" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="3"/>
-      <c r="B61" t="s">
-        <v>74</v>
+      <c r="B61" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
       </c>
-      <c r="E63"/>
       <c r="F63" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
-        <v>78</v>
+      <c r="B67" t="s">
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
       </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D69" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E69" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D70" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E70"/>
       <c r="F70" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D71" s="3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D72" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="E72" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F72" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
-        <v>102</v>
+      <c r="B73" t="s">
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D73" s="3">
-        <v>2.8</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
-      <c r="B74" s="2" t="s">
-        <v>76</v>
+      <c r="B74" t="s">
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3">
-        <v>2.5</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
       </c>
       <c r="D75" s="3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E76"/>
+        <v>2.8</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
-      <c r="B77" t="s">
-        <v>18</v>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E77" s="3"/>
+        <v>2.8</v>
+      </c>
       <c r="F77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
-      <c r="B78" s="2" t="s">
-        <v>101</v>
+      <c r="B78" t="s">
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D78" s="3">
-        <v>2.1</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="E78"/>
       <c r="F78" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="B79" t="s">
-        <v>24</v>
+      <c r="B79" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="3">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F79" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
+      <c r="B82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D82" s="3">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F82" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E83"/>
       <c r="F83" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="B84" t="s">
-        <v>9</v>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3"/>
+        <v>2.1</v>
+      </c>
       <c r="F84" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F85">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:F78" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+      <sortCondition ref="A1:A78"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
@@ -2670,6 +2900,474 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798E41E-54E3-459F-8610-EE6E7D162011}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2681,19 +3379,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2718,13 +3416,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF87EC-CE56-46BD-B2EB-7049BEA9BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73966289-4ECB-4A36-89DE-F46E9398D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="3504" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="base_parameter" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="history" sheetId="3" r:id="rId4"/>
-    <sheet name="court" sheetId="4" r:id="rId5"/>
+    <sheet name="history" sheetId="3" r:id="rId3"/>
+    <sheet name="court" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">base_parameter!$A$1:$F$78</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="130">
   <si>
     <t>参加</t>
   </si>
@@ -628,6 +628,42 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5以上</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.4以下</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5～3.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FREE_3]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1439,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:D91"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1831,7 +1867,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
@@ -2884,6 +2922,108 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2900,474 +3040,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798E41E-54E3-459F-8610-EE6E7D162011}">
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="7" width="11.8984375" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3401,7 +3073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3453,4 +3125,505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798E41E-54E3-459F-8610-EE6E7D162011}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M5" activeCellId="2" sqref="M7 N6 M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73966289-4ECB-4A36-89DE-F46E9398D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5D187-AC84-49F2-A0D9-56D384754F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="3504" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="128">
   <si>
     <t>参加</t>
   </si>
@@ -624,46 +624,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
+    <t>[FREE_3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えりな_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はまぐち_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田_</t>
     <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女</t>
-    <rPh sb="0" eb="1">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5以上</t>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.4以下</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.5～3.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[FREE_3]</t>
+      <t>シバタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +686,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +752,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1475,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1509,7 +1498,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -1527,7 +1516,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1545,34 +1534,34 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E4"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -1580,26 +1569,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
+      <c r="A6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>3.8</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1617,7 +1605,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1634,51 +1622,53 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>102</v>
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
-        <v>3.2</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
+      <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3">
-        <v>1.6</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -1687,34 +1677,34 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -1722,29 +1712,35 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>88</v>
+      <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3">
-        <v>4.5</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -1752,43 +1748,51 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>4.4000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="3">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>21</v>
@@ -1796,41 +1800,43 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="2" t="s">
-        <v>90</v>
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
-        <v>4.2</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>21</v>
@@ -1838,13 +1844,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>21</v>
@@ -1852,82 +1858,71 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>48</v>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E23"/>
+        <v>4.3</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>4.3</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>122</v>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
       <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>4.2</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>122</v>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1935,15 +1930,15 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E28"/>
       <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
         <v>4</v>
@@ -1966,15 +1961,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>36</v>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
       </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1982,10 +1978,10 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
@@ -1996,15 +1992,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>97</v>
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>3.9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2012,15 +2010,15 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E33"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>21</v>
       </c>
@@ -2028,31 +2026,30 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E34"/>
+        <v>4</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>4</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>21</v>
       </c>
@@ -2060,13 +2057,13 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E36"/>
       <c r="F36" s="3" t="s">
@@ -2074,43 +2071,47 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>100</v>
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3">
-        <v>3.8</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>99</v>
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3">
-        <v>3.6</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="E39"/>
       <c r="F39" s="3" t="s">
         <v>21</v>
       </c>
@@ -2118,15 +2119,15 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>3.9</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2134,13 +2135,13 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2149,55 +2150,52 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>71</v>
+      <c r="B42" t="s">
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3">
-        <v>3.5</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="E42"/>
       <c r="F42" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" t="s">
-        <v>42</v>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>3.8</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" t="s">
-        <v>32</v>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>3.6</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
-      <c r="B45" t="s">
-        <v>55</v>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -2205,7 +2203,6 @@
       <c r="D45" s="3">
         <v>3.5</v>
       </c>
-      <c r="E45"/>
       <c r="F45" s="3" t="s">
         <v>21</v>
       </c>
@@ -2213,45 +2210,45 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>36</v>
+      <c r="A47" s="3"/>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="3">
         <v>3.5</v>
       </c>
+      <c r="E47"/>
       <c r="F47" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="3">
         <v>3.5</v>
       </c>
-      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
         <v>21</v>
       </c>
@@ -2259,15 +2256,15 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D49" s="3">
         <v>3.5</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
         <v>21</v>
       </c>
@@ -2275,15 +2272,15 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D50" s="3">
         <v>3.5</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50"/>
       <c r="F50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2291,7 +2288,7 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -2305,69 +2302,70 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>36</v>
+      <c r="A52" s="3"/>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
       </c>
       <c r="D52" s="3">
         <v>3.5</v>
       </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>61</v>
+      <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D53" s="3">
         <v>3.5</v>
       </c>
-      <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
-      <c r="B54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
       </c>
       <c r="D54" s="3">
         <v>3.5</v>
       </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D55" s="3">
         <v>3.5</v>
       </c>
-      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="2" t="s">
-        <v>83</v>
+      <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>20</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2375,22 +2373,21 @@
       <c r="D56" s="3">
         <v>3.5</v>
       </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" t="s">
-        <v>31</v>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3">
         <v>3.5</v>
       </c>
-      <c r="E57"/>
       <c r="F57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2398,7 +2395,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2406,7 +2403,7 @@
       <c r="D58" s="3">
         <v>3.5</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58"/>
       <c r="F58" s="3" t="s">
         <v>21</v>
       </c>
@@ -2458,17 +2455,15 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
-        <v>63</v>
+      <c r="B62" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
-      </c>
-      <c r="E62"/>
+        <v>3.2</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>21</v>
       </c>
@@ -2476,7 +2471,7 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2484,6 +2479,7 @@
       <c r="D63" s="3">
         <v>3</v>
       </c>
+      <c r="E63"/>
       <c r="F63" s="3" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2487,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -2499,7 +2495,6 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64"/>
       <c r="F64" s="3" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +2502,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -2515,15 +2510,15 @@
       <c r="D65" s="3">
         <v>3</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65"/>
       <c r="F65" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
-      <c r="B66" s="2" t="s">
-        <v>70</v>
+      <c r="B66" t="s">
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2531,22 +2526,22 @@
       <c r="D66" s="3">
         <v>3</v>
       </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="B67" t="s">
-        <v>37</v>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
       </c>
-      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>21</v>
       </c>
@@ -2554,10 +2549,10 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
@@ -2570,7 +2565,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
@@ -2578,7 +2573,7 @@
       <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
         <v>21</v>
       </c>
@@ -2586,10 +2581,10 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
@@ -2601,8 +2596,8 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
-        <v>64</v>
+      <c r="B71" t="s">
+        <v>60</v>
       </c>
       <c r="C71" t="s">
         <v>61</v>
@@ -2610,14 +2605,15 @@
       <c r="D71" s="3">
         <v>3</v>
       </c>
+      <c r="E71"/>
       <c r="F71" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" t="s">
-        <v>65</v>
+      <c r="B72" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>61</v>
@@ -2632,15 +2628,14 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D73" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="E73" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>21</v>
       </c>
@@ -2648,13 +2643,13 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -2663,15 +2658,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
-      <c r="B75" s="2" t="s">
-        <v>95</v>
+      <c r="B75" t="s">
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3">
-        <v>2.8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
         <v>21</v>
       </c>
@@ -2679,13 +2675,13 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
@@ -2694,15 +2690,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
-      <c r="B77" s="2" t="s">
-        <v>94</v>
+      <c r="B77" t="s">
+        <v>123</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="3">
-        <v>2.8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
         <v>21</v>
       </c>
@@ -2710,30 +2707,31 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E78"/>
+        <v>3</v>
+      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
-      <c r="B79" s="2" t="s">
-        <v>68</v>
+      <c r="B79" t="s">
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D79" s="3">
-        <v>2.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
         <v>21</v>
       </c>
@@ -2741,13 +2739,13 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" s="3">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -2756,16 +2754,15 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="B81" t="s">
-        <v>35</v>
+      <c r="B81" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D81" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E81" s="3"/>
+        <v>2.8</v>
+      </c>
       <c r="F81" s="3" t="s">
         <v>21</v>
       </c>
@@ -2773,13 +2770,13 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
       </c>
       <c r="D82" s="3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>21</v>
@@ -2788,13 +2785,13 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="3" t="s">
@@ -2804,13 +2801,13 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>21</v>
@@ -2819,13 +2816,13 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -2833,31 +2830,32 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B86" s="2" t="s">
-        <v>98</v>
+      <c r="A86" s="3"/>
+      <c r="B86" t="s">
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D86" s="3">
-        <v>2</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="3">
-        <v>2</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>2.5</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>21</v>
       </c>
@@ -2865,31 +2863,30 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="E88"/>
       <c r="F88" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
-      <c r="B89" t="s">
-        <v>121</v>
+      <c r="B89" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>2.1</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>21</v>
       </c>
@@ -2897,13 +2894,13 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
@@ -2911,16 +2908,15 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
-        <v>121</v>
+      <c r="B91" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D91" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>2</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>21</v>
       </c>
@@ -2928,13 +2924,13 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
@@ -2944,13 +2940,13 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" s="3">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -2958,17 +2954,15 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
@@ -2976,17 +2970,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="3">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
@@ -2994,19 +2985,15 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>129</v>
+      <c r="B96" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D96" s="3">
-        <v>3</v>
-      </c>
-      <c r="E96" s="3"/>
+        <v>1.5</v>
+      </c>
       <c r="F96" s="3" t="s">
         <v>21</v>
       </c>
@@ -3014,22 +3001,70 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D97" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F78" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
       <sortCondition ref="A1:A78"/>
     </sortState>
   </autoFilter>
@@ -3129,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798E41E-54E3-459F-8610-EE6E7D162011}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" activeCellId="2" sqref="M7 N6 M5"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3141,12 +3176,12 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" t="s">
         <v>105</v>
       </c>
@@ -3159,11 +3194,8 @@
       <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>119</v>
@@ -3172,7 +3204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>103</v>
       </c>
@@ -3182,7 +3214,7 @@
       <c r="C3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="9"/>
@@ -3190,13 +3222,13 @@
       <c r="G3" s="9"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>3.9</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -3206,20 +3238,14 @@
       <c r="G4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>3.8</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -3229,23 +3255,14 @@
       <c r="G5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="8">
         <v>3.7</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -3255,23 +3272,14 @@
       <c r="G6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L6" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="8">
         <v>3.6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -3281,17 +3289,8 @@
       <c r="G7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="8">
         <v>3.5</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="C8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -3313,14 +3312,14 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>3.4</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="9"/>
@@ -3328,14 +3327,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>3.3</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="9"/>
@@ -3343,14 +3342,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>3.2</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="9"/>
@@ -3358,14 +3357,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>3.1</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="9"/>
@@ -3373,7 +3372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>116</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="9"/>
@@ -3393,7 +3392,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="8">
         <v>2.9</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="8">
         <v>2.8</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="8">
         <v>2.7</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="9"/>
@@ -3502,7 +3501,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="9"/>
@@ -3515,7 +3514,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="9"/>
@@ -3528,7 +3527,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="9"/>
@@ -3543,7 +3542,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="9"/>
@@ -3557,7 +3556,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="9"/>
@@ -3570,7 +3569,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="9"/>
@@ -3583,7 +3582,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="9"/>
@@ -3596,7 +3595,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="9"/>
@@ -3611,7 +3610,7 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -3624,6 +3623,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5D187-AC84-49F2-A0D9-56D384754F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49EF94-D7B6-4D6C-9DFB-291E5631DC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="129">
   <si>
     <t>参加</t>
   </si>
@@ -644,6 +644,10 @@
     <rPh sb="0" eb="2">
       <t>シバタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きなり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1464,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1551,54 +1555,53 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>3.8</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>3.8</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1608,10 +1611,10 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>3.7</v>
@@ -1626,13 +1629,13 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -1644,10 +1647,10 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <v>3.6</v>
@@ -1662,13 +1665,13 @@
         <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -1680,15 +1683,15 @@
         <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>3.5</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1698,15 +1701,15 @@
         <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3">
         <v>3.5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13"/>
       <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1716,13 +1719,13 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -1730,36 +1733,36 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>3</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>125</v>
+      <c r="B16" t="s">
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>2.9</v>
       </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1769,85 +1772,89 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
         <v>2.7</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
         <v>4.5</v>
       </c>
-      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="2" t="s">
-        <v>87</v>
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
         <v>4.4000000000000004</v>
@@ -1857,26 +1864,26 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>4.3</v>
@@ -1887,13 +1894,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>21</v>
@@ -1901,10 +1908,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
         <v>4.2</v>
@@ -1915,30 +1922,28 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>48</v>
+      <c r="B28" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E28"/>
       <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1946,15 +1951,15 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +1986,7 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
@@ -2029,7 +2034,7 @@
         <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D34" s="3">
         <v>4</v>
@@ -2041,31 +2046,31 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="E36"/>
+        <v>4</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +2078,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -2081,14 +2086,15 @@
       <c r="D37" s="3">
         <v>3.9</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37"/>
       <c r="F37" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>97</v>
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -2096,14 +2102,14 @@
       <c r="D38" s="3">
         <v>3.9</v>
       </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>53</v>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -2111,7 +2117,6 @@
       <c r="D39" s="3">
         <v>3.9</v>
       </c>
-      <c r="E39"/>
       <c r="F39" s="3" t="s">
         <v>21</v>
       </c>
@@ -2119,7 +2124,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -2135,15 +2140,15 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D41" s="3">
         <v>3.9</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41"/>
       <c r="F41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2151,57 +2156,58 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3">
         <v>3.8</v>
       </c>
+      <c r="E43"/>
       <c r="F43" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3">
         <v>3.6</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3">
-        <v>3.5</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>21</v>
@@ -2209,8 +2215,8 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
-      <c r="B46" t="s">
-        <v>32</v>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2218,7 +2224,6 @@
       <c r="D46" s="3">
         <v>3.5</v>
       </c>
-      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>21</v>
       </c>
@@ -2226,7 +2231,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -2234,37 +2239,37 @@
       <c r="D47" s="3">
         <v>3.5</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>36</v>
+      <c r="A48" s="3"/>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
       </c>
       <c r="D48" s="3">
         <v>3.5</v>
       </c>
+      <c r="E48"/>
       <c r="F48" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="3">
         <v>3.5</v>
       </c>
-      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
         <v>21</v>
       </c>
@@ -2272,15 +2277,15 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D50" s="3">
         <v>3.5</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
         <v>21</v>
       </c>
@@ -2288,15 +2293,15 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
         <v>3.5</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51"/>
       <c r="F51" s="3" t="s">
         <v>21</v>
       </c>
@@ -2304,7 +2309,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2318,69 +2323,70 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>36</v>
+      <c r="A53" s="3"/>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
       </c>
       <c r="D53" s="3">
         <v>3.5</v>
       </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
+      <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D54" s="3">
         <v>3.5</v>
       </c>
-      <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>36</v>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
       </c>
       <c r="D55" s="3">
         <v>3.5</v>
       </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D56" s="3">
         <v>3.5</v>
       </c>
-      <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="2" t="s">
-        <v>83</v>
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>20</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2388,22 +2394,21 @@
       <c r="D57" s="3">
         <v>3.5</v>
       </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="3"/>
-      <c r="B58" t="s">
-        <v>31</v>
+      <c r="B58" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3">
         <v>3.5</v>
       </c>
-      <c r="E58"/>
       <c r="F58" s="3" t="s">
         <v>21</v>
       </c>
@@ -2411,7 +2416,7 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -2427,13 +2432,13 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="3" t="s">
@@ -2441,45 +2446,45 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="2" t="s">
-        <v>82</v>
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3">
         <v>3.4</v>
       </c>
+      <c r="E61"/>
       <c r="F61" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3">
         <v>3.2</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="3">
-        <v>3</v>
-      </c>
-      <c r="E63"/>
       <c r="F63" s="3" t="s">
         <v>21</v>
       </c>
@@ -2487,7 +2492,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -2495,6 +2500,7 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
+      <c r="E64"/>
       <c r="F64" s="3" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2508,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -2510,7 +2516,6 @@
       <c r="D65" s="3">
         <v>3</v>
       </c>
-      <c r="E65"/>
       <c r="F65" s="3" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2523,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2526,15 +2531,15 @@
       <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66"/>
       <c r="F66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
-        <v>70</v>
+      <c r="B67" t="s">
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -2542,22 +2547,22 @@
       <c r="D67" s="3">
         <v>3</v>
       </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
-      <c r="B68" t="s">
-        <v>37</v>
+      <c r="B68" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
-      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
         <v>21</v>
       </c>
@@ -2565,10 +2570,10 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -2581,7 +2586,7 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
         <v>50</v>
@@ -2589,7 +2594,7 @@
       <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E70"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>21</v>
       </c>
@@ -2597,10 +2602,10 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -2612,8 +2617,8 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
-        <v>64</v>
+      <c r="B72" t="s">
+        <v>60</v>
       </c>
       <c r="C72" t="s">
         <v>61</v>
@@ -2621,14 +2626,15 @@
       <c r="D72" s="3">
         <v>3</v>
       </c>
+      <c r="E72"/>
       <c r="F72" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
-      <c r="B73" t="s">
-        <v>65</v>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C73" t="s">
         <v>61</v>
@@ -2643,15 +2649,14 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
@@ -2726,7 +2731,7 @@
         <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
@@ -2739,13 +2744,13 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D80" s="3">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
@@ -2754,15 +2759,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
-      <c r="B81" s="2" t="s">
-        <v>95</v>
+      <c r="B81" t="s">
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" s="3">
-        <v>2.8</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
         <v>21</v>
       </c>
@@ -2770,7 +2776,7 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -2784,39 +2790,39 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
-      <c r="B83" t="s">
-        <v>45</v>
+      <c r="B83" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D83" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E83"/>
+        <v>2.8</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
-      <c r="B84" s="2" t="s">
-        <v>68</v>
+      <c r="B84" t="s">
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D84" s="3">
-        <v>2.5</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="E84"/>
       <c r="F84" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
-      <c r="B85" t="s">
-        <v>17</v>
+      <c r="B85" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2824,7 +2830,6 @@
       <c r="D85" s="3">
         <v>2.5</v>
       </c>
-      <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
         <v>21</v>
       </c>
@@ -2832,10 +2837,10 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3">
         <v>2.5</v>
@@ -2847,92 +2852,92 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
-      <c r="B87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="3">
         <v>2.5</v>
       </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
+      <c r="B88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D88" s="3">
         <v>2.5</v>
       </c>
-      <c r="E88"/>
       <c r="F88" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
-      <c r="B89" s="2" t="s">
-        <v>93</v>
+      <c r="B89" t="s">
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D89" s="3">
-        <v>2.1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
         <v>34</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="3">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" s="3">
         <v>2</v>
       </c>
+      <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="3"/>
-      <c r="B92" t="s">
-        <v>40</v>
+      <c r="B92" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D92" s="3">
         <v>2</v>
       </c>
-      <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
         <v>21</v>
       </c>
@@ -2940,13 +2945,13 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D93" s="3">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -2970,6 +2975,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>121</v>
       </c>
@@ -2985,23 +2991,23 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B97" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="3"/>
-      <c r="B97" t="s">
-        <v>121</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
@@ -3009,7 +3015,6 @@
       <c r="D97" s="3">
         <v>1.5</v>
       </c>
-      <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
         <v>21</v>
       </c>
@@ -3049,10 +3054,10 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100" s="3">
         <v>1.5</v>
@@ -3062,9 +3067,25 @@
         <v>21</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F78" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
       <sortCondition ref="A1:A78"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,14 +15,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$F$65</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -55,18 +55,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="游ゴシック"/>
-      <charset val="128"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="6">
@@ -101,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -139,26 +131,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -177,13 +149,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,9 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,8 +238,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -679,16 +710,16 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
@@ -698,14 +729,14 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>休憩</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>2.4125</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -714,19 +745,19 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
@@ -737,10 +768,10 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>2.635714285714286</v>
+        <v>19.3</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -749,7 +780,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -772,10 +803,10 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2.683333333333334</v>
+        <v>20.96666666666666</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -784,19 +815,19 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
@@ -807,10 +838,10 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>3.828571428571429</v>
+        <v>21.81428571428572</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -819,7 +850,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -828,10 +859,10 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
@@ -842,10 +873,10 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>3.828571428571429</v>
+        <v>22.34999999999998</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -854,16 +885,16 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
@@ -877,10 +908,10 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>3.864285714285714</v>
+        <v>22.34999999999998</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -889,33 +920,33 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>3.900000000000001</v>
+        <v>22.82857142857143</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -924,16 +955,16 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0</v>
@@ -943,14 +974,14 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>4.066666666666668</v>
+        <v>23.00714285714286</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -959,19 +990,19 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
@@ -982,37 +1013,81 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>4.066666666666668</v>
+        <v>23.07857142857143</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="0" t="n"/>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
+      <c r="A11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
           <t>待機</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="0" t="n"/>
+      <c r="H11" s="3" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="0" t="n"/>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="0" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>23.91428571428574</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
@@ -1021,7 +1096,11 @@
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="0" t="n"/>
     </row>
@@ -1309,7 +1388,7 @@
       <c r="D2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1425,7 +1504,7 @@
       <c r="D6" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="n"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1451,7 +1530,7 @@
       <c r="D7" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="n"/>
       <c r="F7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1477,7 +1556,7 @@
       <c r="D8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1503,7 +1582,7 @@
       <c r="D9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1529,7 +1608,7 @@
       <c r="D10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="n"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1537,7 +1616,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr"/>
+      <c r="A11" s="0" t="n"/>
       <c r="B11" s="0" t="inlineStr">
         <is>
           <t>🔴小熊</t>
@@ -1551,7 +1630,7 @@
       <c r="D11" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="n"/>
       <c r="F11" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1559,7 +1638,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
+      <c r="A12" s="3" t="n"/>
       <c r="B12" s="0" t="inlineStr">
         <is>
           <t>🔵秋山</t>
@@ -1573,7 +1652,7 @@
       <c r="D12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1581,7 +1660,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr"/>
+      <c r="A13" s="0" t="n"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
           <t>🔴石川</t>
@@ -1595,7 +1674,7 @@
       <c r="D13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="n"/>
       <c r="F13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1603,7 +1682,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr"/>
+      <c r="A14" s="0" t="n"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
           <t>🔵野澤</t>
@@ -1617,7 +1696,7 @@
       <c r="D14" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="n"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1625,7 +1704,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
+      <c r="A15" s="3" t="n"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
           <t>🔴まひろ</t>
@@ -1639,7 +1718,7 @@
       <c r="D15" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="n"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1647,7 +1726,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr"/>
+      <c r="A16" s="0" t="n"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
           <t>🔵根津</t>
@@ -1661,7 +1740,7 @@
       <c r="D16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="n"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1669,7 +1748,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr"/>
+      <c r="A17" s="0" t="n"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
           <t>🔴すわめん</t>
@@ -1683,7 +1762,7 @@
       <c r="D17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="n"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1691,7 +1770,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr"/>
+      <c r="A18" s="0" t="n"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
           <t>🔵山口</t>
@@ -1705,7 +1784,7 @@
       <c r="D18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="n"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1713,7 +1792,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr"/>
+      <c r="A19" s="0" t="n"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
           <t>🔵天野</t>
@@ -1727,7 +1806,7 @@
       <c r="D19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="n"/>
       <c r="F19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1735,7 +1814,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr"/>
+      <c r="A20" s="3" t="n"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
           <t>🔵こばやし</t>
@@ -1749,7 +1828,7 @@
       <c r="D20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="n"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1757,7 +1836,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr"/>
+      <c r="A21" s="3" t="n"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
           <t>🔵こうじ</t>
@@ -1771,7 +1850,7 @@
       <c r="D21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1779,7 +1858,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr"/>
+      <c r="A22" s="3" t="n"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
           <t>🔵ゆうた</t>
@@ -1793,7 +1872,7 @@
       <c r="D22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1801,7 +1880,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
+      <c r="A23" s="3" t="n"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
           <t>🔵しんげん</t>
@@ -1815,7 +1894,7 @@
       <c r="D23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="0" t="inlineStr"/>
+      <c r="E23" s="0" t="n"/>
       <c r="F23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1823,7 +1902,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr"/>
+      <c r="A24" s="0" t="n"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
           <t>🔵きなり</t>
@@ -1837,7 +1916,7 @@
       <c r="D24" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="n"/>
       <c r="F24" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1845,7 +1924,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr"/>
+      <c r="A25" s="3" t="n"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
           <t>🔵前田</t>
@@ -1859,7 +1938,7 @@
       <c r="D25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1867,7 +1946,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr"/>
+      <c r="A26" s="3" t="n"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
           <t>🔴そが</t>
@@ -1881,7 +1960,7 @@
       <c r="D26" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E26" s="0" t="inlineStr"/>
+      <c r="E26" s="0" t="n"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1889,7 +1968,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr"/>
+      <c r="A27" s="3" t="n"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
           <t>🔴れいか</t>
@@ -1903,7 +1982,7 @@
       <c r="D27" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1911,7 +1990,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr"/>
+      <c r="A28" s="0" t="n"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
           <t>🔴柴田</t>
@@ -1925,7 +2004,7 @@
       <c r="D28" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E28" s="0" t="inlineStr"/>
+      <c r="E28" s="0" t="n"/>
       <c r="F28" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1933,7 +2012,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr"/>
+      <c r="A29" s="3" t="n"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
           <t>🔴ななこ</t>
@@ -1947,7 +2026,7 @@
       <c r="D29" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E29" s="0" t="inlineStr"/>
+      <c r="E29" s="0" t="n"/>
       <c r="F29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1955,7 +2034,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr"/>
+      <c r="A30" s="3" t="n"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
           <t>🔴もーちゃん</t>
@@ -1969,7 +2048,7 @@
       <c r="D30" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E30" s="0" t="inlineStr"/>
+      <c r="E30" s="0" t="n"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1977,7 +2056,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr"/>
+      <c r="A31" s="3" t="n"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
           <t>🔴ひろみ</t>
@@ -1991,7 +2070,7 @@
       <c r="D31" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1999,7 +2078,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr"/>
+      <c r="A32" s="0" t="n"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
           <t>🔵またがわ</t>
@@ -2013,7 +2092,7 @@
       <c r="D32" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E32" s="0" t="inlineStr"/>
+      <c r="E32" s="0" t="n"/>
       <c r="F32" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2021,7 +2100,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
+      <c r="A33" s="3" t="n"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
           <t>🔴chie</t>
@@ -2035,7 +2114,7 @@
       <c r="D33" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E33" s="0" t="inlineStr"/>
+      <c r="E33" s="0" t="n"/>
       <c r="F33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2043,7 +2122,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr"/>
+      <c r="A34" s="0" t="n"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
           <t>🔵なんば</t>
@@ -2057,7 +2136,7 @@
       <c r="D34" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E34" s="0" t="inlineStr"/>
+      <c r="E34" s="0" t="n"/>
       <c r="F34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2065,7 +2144,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr"/>
+      <c r="A35" s="3" t="n"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
           <t>🔵そーま</t>
@@ -2079,7 +2158,7 @@
       <c r="D35" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="n"/>
       <c r="F35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2087,7 +2166,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr"/>
+      <c r="A36" s="3" t="n"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
           <t>🔵ならい</t>
@@ -2101,7 +2180,7 @@
       <c r="D36" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2109,7 +2188,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr"/>
+      <c r="A37" s="0" t="n"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
           <t>🔵かいと</t>
@@ -2123,7 +2202,7 @@
       <c r="D37" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E37" s="0" t="inlineStr"/>
+      <c r="E37" s="0" t="n"/>
       <c r="F37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2131,7 +2210,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
+      <c r="A38" s="3" t="n"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
           <t>🔴ともみ</t>
@@ -2145,7 +2224,7 @@
       <c r="D38" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2153,7 +2232,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
+      <c r="A39" s="3" t="n"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
           <t>🔵ぐっぴー</t>
@@ -2167,7 +2246,7 @@
       <c r="D39" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E39" s="0" t="inlineStr"/>
+      <c r="E39" s="0" t="n"/>
       <c r="F39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2175,7 +2254,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
+      <c r="A40" s="3" t="n"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
           <t>🔵安田たかひろ</t>
@@ -2189,7 +2268,7 @@
       <c r="D40" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2197,7 +2276,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
+      <c r="A41" s="3" t="n"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
           <t>🔴せーな</t>
@@ -2211,7 +2290,7 @@
       <c r="D41" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E41" s="0" t="inlineStr"/>
+      <c r="E41" s="0" t="n"/>
       <c r="F41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2219,7 +2298,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr"/>
+      <c r="A42" s="3" t="n"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
           <t>🔴まや</t>
@@ -2233,7 +2312,7 @@
       <c r="D42" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2241,7 +2320,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr"/>
+      <c r="A43" s="0" t="n"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
           <t>🔵落合</t>
@@ -2255,7 +2334,7 @@
       <c r="D43" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E43" s="0" t="inlineStr"/>
+      <c r="E43" s="0" t="n"/>
       <c r="F43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2263,7 +2342,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr"/>
+      <c r="A44" s="3" t="n"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
           <t>🔵桐下</t>
@@ -2277,7 +2356,7 @@
       <c r="D44" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E44" s="0" t="inlineStr"/>
+      <c r="E44" s="0" t="n"/>
       <c r="F44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2285,7 +2364,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr"/>
+      <c r="A45" s="3" t="n"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
           <t>🔵さいとう</t>
@@ -2299,7 +2378,7 @@
       <c r="D45" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E45" s="3" t="inlineStr"/>
+      <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2307,7 +2386,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr"/>
+      <c r="A46" s="3" t="n"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
           <t>🔵サトシ</t>
@@ -2321,7 +2400,7 @@
       <c r="D46" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E46" s="3" t="inlineStr"/>
+      <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2329,7 +2408,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr"/>
+      <c r="A47" s="0" t="n"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
           <t>🔵谷村</t>
@@ -2343,7 +2422,7 @@
       <c r="D47" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E47" s="0" t="inlineStr"/>
+      <c r="E47" s="0" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2351,7 +2430,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
+      <c r="A48" s="3" t="n"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
           <t>🔵てぃの</t>
@@ -2365,7 +2444,7 @@
       <c r="D48" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E48" s="3" t="inlineStr"/>
+      <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2373,7 +2452,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr"/>
+      <c r="A49" s="3" t="n"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
           <t>🔵にっしー</t>
@@ -2387,7 +2466,7 @@
       <c r="D49" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E49" s="0" t="inlineStr"/>
+      <c r="E49" s="0" t="n"/>
       <c r="F49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2395,7 +2474,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr"/>
+      <c r="A50" s="3" t="n"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
           <t>🔵はしもと</t>
@@ -2409,7 +2488,7 @@
       <c r="D50" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="n"/>
       <c r="F50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2417,7 +2496,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr"/>
+      <c r="A51" s="0" t="n"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
           <t>🔵平山</t>
@@ -2431,7 +2510,7 @@
       <c r="D51" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E51" s="0" t="inlineStr"/>
+      <c r="E51" s="0" t="n"/>
       <c r="F51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2439,7 +2518,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr"/>
+      <c r="A52" s="3" t="n"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
           <t>🔵ひろき</t>
@@ -2453,7 +2532,7 @@
       <c r="D52" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E52" s="0" t="inlineStr"/>
+      <c r="E52" s="0" t="n"/>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2461,7 +2540,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr"/>
+      <c r="A53" s="3" t="n"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
           <t>🔵ゆう</t>
@@ -2475,7 +2554,7 @@
       <c r="D53" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E53" s="0" t="inlineStr"/>
+      <c r="E53" s="0" t="n"/>
       <c r="F53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2483,7 +2562,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr"/>
+      <c r="A54" s="3" t="n"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
           <t>🔵🔴[FREE_中]</t>
@@ -2497,7 +2576,7 @@
       <c r="D54" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2505,7 +2584,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr"/>
+      <c r="A55" s="3" t="n"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
           <t>🔵🔴[FREE_中]</t>
@@ -2519,7 +2598,7 @@
       <c r="D55" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E55" s="3" t="inlineStr"/>
+      <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2527,7 +2606,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr"/>
+      <c r="A56" s="3" t="n"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
           <t>🔴[FREE_中]</t>
@@ -2541,7 +2620,7 @@
       <c r="D56" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E56" s="3" t="inlineStr"/>
+      <c r="E56" s="3" t="n"/>
       <c r="F56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2549,7 +2628,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr"/>
+      <c r="A57" s="0" t="n"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
           <t>🔴[FREE_中]</t>
@@ -2563,7 +2642,7 @@
       <c r="D57" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E57" s="3" t="inlineStr"/>
+      <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2571,7 +2650,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="inlineStr"/>
+      <c r="A58" s="0" t="n"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
           <t>🔵臼井</t>
@@ -2585,7 +2664,7 @@
       <c r="D58" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="0" t="inlineStr"/>
+      <c r="E58" s="0" t="n"/>
       <c r="F58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2593,7 +2672,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="inlineStr"/>
+      <c r="A59" s="0" t="n"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
           <t>🔴ゆきえ</t>
@@ -2607,7 +2686,7 @@
       <c r="D59" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="0" t="inlineStr"/>
+      <c r="E59" s="0" t="n"/>
       <c r="F59" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2615,7 +2694,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="inlineStr"/>
+      <c r="A60" s="0" t="n"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
           <t>🔵柴田_</t>
@@ -2629,7 +2708,7 @@
       <c r="D60" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="0" t="inlineStr"/>
+      <c r="E60" s="0" t="n"/>
       <c r="F60" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2637,7 +2716,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr"/>
+      <c r="A61" s="3" t="n"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
           <t>🔴綾香</t>
@@ -2651,7 +2730,7 @@
       <c r="D61" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="0" t="inlineStr"/>
+      <c r="E61" s="0" t="n"/>
       <c r="F61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2659,7 +2738,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr"/>
+      <c r="A62" s="3" t="n"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
           <t>🔴さとみ</t>
@@ -2673,7 +2752,7 @@
       <c r="D62" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="0" t="inlineStr"/>
+      <c r="E62" s="0" t="n"/>
       <c r="F62" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2681,7 +2760,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr"/>
+      <c r="A63" s="3" t="n"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
           <t>🔴朋子</t>
@@ -2695,7 +2774,7 @@
       <c r="D63" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="0" t="inlineStr"/>
+      <c r="E63" s="0" t="n"/>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2703,7 +2782,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr"/>
+      <c r="A64" s="3" t="n"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
           <t>🔴ともね</t>
@@ -2717,7 +2796,7 @@
       <c r="D64" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="3" t="inlineStr"/>
+      <c r="E64" s="3" t="n"/>
       <c r="F64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2725,7 +2804,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr"/>
+      <c r="A65" s="3" t="n"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
           <t>🔴ゆき</t>
@@ -2739,7 +2818,7 @@
       <c r="D65" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E65" s="0" t="inlineStr"/>
+      <c r="E65" s="0" t="n"/>
       <c r="F65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2747,7 +2826,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr"/>
+      <c r="A66" s="3" t="n"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
           <t>🔵金子</t>
@@ -2761,7 +2840,7 @@
       <c r="D66" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E66" s="3" t="inlineStr"/>
+      <c r="E66" s="3" t="n"/>
       <c r="F66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2769,7 +2848,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr"/>
+      <c r="A67" s="3" t="n"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
           <t>🔵しばた</t>
@@ -2783,7 +2862,7 @@
       <c r="D67" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E67" s="0" t="inlineStr"/>
+      <c r="E67" s="0" t="n"/>
       <c r="F67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2791,7 +2870,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr"/>
+      <c r="A68" s="3" t="n"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
           <t>🔵下田</t>
@@ -2805,7 +2884,7 @@
       <c r="D68" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E68" s="0" t="inlineStr"/>
+      <c r="E68" s="0" t="n"/>
       <c r="F68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2813,7 +2892,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr"/>
+      <c r="A69" s="3" t="n"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
           <t>🔵山田</t>
@@ -2827,7 +2906,7 @@
       <c r="D69" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="0" t="inlineStr"/>
+      <c r="E69" s="0" t="n"/>
       <c r="F69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2835,7 +2914,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr"/>
+      <c r="A70" s="3" t="n"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
           <t>🔵りょうすけ</t>
@@ -2849,7 +2928,7 @@
       <c r="D70" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="0" t="inlineStr"/>
+      <c r="E70" s="0" t="n"/>
       <c r="F70" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2857,7 +2936,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr"/>
+      <c r="A71" s="3" t="n"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
           <t>🔴ゆい</t>
@@ -2871,7 +2950,7 @@
       <c r="D71" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="n"/>
       <c r="F71" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2879,7 +2958,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="inlineStr"/>
+      <c r="A72" s="0" t="n"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
           <t>🔴えりな_</t>
@@ -2893,7 +2972,7 @@
       <c r="D72" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E72" s="0" t="inlineStr"/>
+      <c r="E72" s="0" t="n"/>
       <c r="F72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2901,7 +2980,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr"/>
+      <c r="A73" s="3" t="n"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
           <t>🔵shunpon</t>
@@ -2915,7 +2994,7 @@
       <c r="D73" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E73" s="3" t="inlineStr"/>
+      <c r="E73" s="3" t="n"/>
       <c r="F73" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2923,7 +3002,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr"/>
+      <c r="A74" s="3" t="n"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
           <t>🔴たぬき</t>
@@ -2937,7 +3016,7 @@
       <c r="D74" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E74" s="3" t="inlineStr"/>
+      <c r="E74" s="3" t="n"/>
       <c r="F74" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2945,7 +3024,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr"/>
+      <c r="A75" s="3" t="n"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
           <t>🔴あすみ</t>
@@ -2959,7 +3038,7 @@
       <c r="D75" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="0" t="inlineStr"/>
+      <c r="E75" s="0" t="n"/>
       <c r="F75" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2967,7 +3046,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr"/>
+      <c r="A76" s="3" t="n"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
           <t>🔴ななみ</t>
@@ -2981,7 +3060,7 @@
       <c r="D76" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="0" t="inlineStr"/>
+      <c r="E76" s="0" t="n"/>
       <c r="F76" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2989,7 +3068,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="inlineStr"/>
+      <c r="A77" s="0" t="n"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
           <t>🔴はまぐち_</t>
@@ -3003,7 +3082,7 @@
       <c r="D77" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E77" s="0" t="inlineStr"/>
+      <c r="E77" s="0" t="n"/>
       <c r="F77" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3011,7 +3090,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr"/>
+      <c r="A78" s="3" t="n"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
           <t>🔵リョウ</t>
@@ -3025,7 +3104,7 @@
       <c r="D78" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="0" t="inlineStr"/>
+      <c r="E78" s="0" t="n"/>
       <c r="F78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3033,7 +3112,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr"/>
+      <c r="A79" s="3" t="n"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
           <t>🔴chika</t>
@@ -3047,7 +3126,7 @@
       <c r="D79" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="0" t="inlineStr"/>
+      <c r="E79" s="0" t="n"/>
       <c r="F79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3055,7 +3134,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr"/>
+      <c r="A80" s="3" t="n"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
           <t>🔴ななみ</t>
@@ -3069,7 +3148,7 @@
       <c r="D80" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E80" s="3" t="inlineStr"/>
+      <c r="E80" s="3" t="n"/>
       <c r="F80" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3077,7 +3156,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr"/>
+      <c r="A81" s="3" t="n"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
           <t>🔵チンシケツ</t>
@@ -3091,7 +3170,7 @@
       <c r="D81" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E81" s="0" t="inlineStr"/>
+      <c r="E81" s="0" t="n"/>
       <c r="F81" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3099,7 +3178,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr"/>
+      <c r="A82" s="3" t="n"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
           <t>🔴まき</t>
@@ -3113,7 +3192,7 @@
       <c r="D82" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E82" s="0" t="inlineStr"/>
+      <c r="E82" s="0" t="n"/>
       <c r="F82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3121,7 +3200,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr"/>
+      <c r="A83" s="3" t="n"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
           <t>🔴わかな</t>
@@ -3135,7 +3214,7 @@
       <c r="D83" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="inlineStr"/>
+      <c r="E83" s="3" t="n"/>
       <c r="F83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3143,7 +3222,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="inlineStr"/>
+      <c r="A84" s="0" t="n"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
           <t>🔵はしば</t>
@@ -3157,7 +3236,7 @@
       <c r="D84" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E84" s="0" t="inlineStr"/>
+      <c r="E84" s="0" t="n"/>
       <c r="F84" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3165,7 +3244,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr"/>
+      <c r="A85" s="3" t="n"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
           <t>🔵せいたろう</t>
@@ -3179,7 +3258,7 @@
       <c r="D85" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E85" s="3" t="inlineStr"/>
+      <c r="E85" s="3" t="n"/>
       <c r="F85" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3187,7 +3266,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="inlineStr"/>
+      <c r="A86" s="0" t="n"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
           <t>🔵スシャント</t>
@@ -3201,7 +3280,7 @@
       <c r="D86" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E86" s="0" t="inlineStr"/>
+      <c r="E86" s="0" t="n"/>
       <c r="F86" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3209,7 +3288,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr"/>
+      <c r="A87" s="3" t="n"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
           <t>🔴シャンシャン</t>
@@ -3223,7 +3302,7 @@
       <c r="D87" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E87" s="3" t="inlineStr"/>
+      <c r="E87" s="3" t="n"/>
       <c r="F87" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3247,7 +3326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -3327,7 +3406,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -3349,12 +3428,12 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -3366,24 +3445,16 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
       <c r="E5" s="0" t="inlineStr">
         <is>
           <t>Aコート</t>
@@ -3393,22 +3464,22 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -3420,39 +3491,1116 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
           <t>🔵加地</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>🔵むね</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>🔵かつき</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>🔵Gen</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>Aコート</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="n"/>
-      <c r="B8" s="0" t="n"/>
-      <c r="C8" s="0" t="n"/>
-      <c r="D8" s="0" t="n"/>
-      <c r="E8" s="0" t="n"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="0" t="n"/>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>🔵むね</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>🔵Gen</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>🔵かつき</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,68 +4663,76 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>🔵今枝</t>
+        </is>
+      </c>
+      <c r="C2" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="26" t="n"/>
+      <c r="E2" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="F2" s="26" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="26" t="inlineStr">
+        <is>
+          <t>🔴えりな</t>
+        </is>
+      </c>
+      <c r="C3" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="26" t="n"/>
+      <c r="E3" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="n"/>
+      <c r="F3" s="26" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="26" t="n"/>
+      <c r="E4" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="n"/>
+      <c r="F4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="26" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n"/>
@@ -3594,1478 +4750,1887 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="4.19921875" customWidth="1" style="2" min="3" max="31"/>
+    <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="n"/>
-      <c r="B1" s="15" t="n"/>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="A1" s="14" t="n"/>
+      <c r="B1" s="14" t="n"/>
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="18" t="n"/>
-      <c r="E1" s="18" t="n"/>
-      <c r="F1" s="19" t="n"/>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
+      <c r="F1" s="25" t="n"/>
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="18" t="n"/>
-      <c r="J1" s="19" t="n"/>
-      <c r="K1" s="17" t="inlineStr">
+      <c r="H1" s="17" t="n"/>
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="25" t="n"/>
+      <c r="K1" s="16" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="18" t="n"/>
-      <c r="M1" s="18" t="n"/>
-      <c r="N1" s="19" t="n"/>
-      <c r="O1" s="17" t="inlineStr">
+      <c r="L1" s="17" t="n"/>
+      <c r="M1" s="17" t="n"/>
+      <c r="N1" s="25" t="n"/>
+      <c r="O1" s="16" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="18" t="n"/>
-      <c r="Q1" s="18" t="n"/>
-      <c r="R1" s="19" t="n"/>
-      <c r="S1" s="17" t="inlineStr">
+      <c r="P1" s="17" t="n"/>
+      <c r="Q1" s="17" t="n"/>
+      <c r="R1" s="25" t="n"/>
+      <c r="S1" s="16" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="18" t="n"/>
-      <c r="U1" s="18" t="n"/>
-      <c r="V1" s="19" t="n"/>
-      <c r="W1" s="17" t="inlineStr">
+      <c r="T1" s="17" t="n"/>
+      <c r="U1" s="17" t="n"/>
+      <c r="V1" s="25" t="n"/>
+      <c r="W1" s="16" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="18" t="n"/>
-      <c r="Y1" s="18" t="n"/>
-      <c r="Z1" s="19" t="n"/>
-      <c r="AA1" s="17" t="inlineStr">
+      <c r="X1" s="17" t="n"/>
+      <c r="Y1" s="17" t="n"/>
+      <c r="Z1" s="25" t="n"/>
+      <c r="AA1" s="29" t="inlineStr">
+        <is>
+          <t>全体</t>
+        </is>
+      </c>
+      <c r="AB1" s="17" t="n"/>
+      <c r="AC1" s="17" t="n"/>
+      <c r="AD1" s="17" t="n"/>
+      <c r="AE1" s="17" t="n"/>
+      <c r="AF1" s="25" t="n"/>
+      <c r="AG1" s="16" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AB1" s="18" t="n"/>
-      <c r="AC1" s="18" t="n"/>
-      <c r="AD1" s="18" t="n"/>
-      <c r="AE1" s="19" t="n"/>
+      <c r="AH1" s="17" t="n"/>
+      <c r="AI1" s="17" t="n"/>
+      <c r="AJ1" s="17" t="n"/>
+      <c r="AK1" s="25" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="n"/>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="A2" s="14" t="n"/>
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="n"/>
-      <c r="E2" s="18" t="n"/>
-      <c r="F2" s="19" t="n"/>
-      <c r="G2" s="17" t="n">
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="18" t="n"/>
-      <c r="I2" s="18" t="n"/>
-      <c r="J2" s="19" t="n"/>
-      <c r="K2" s="17" t="n">
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="25" t="n"/>
+      <c r="K2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="18" t="n"/>
-      <c r="M2" s="18" t="n"/>
-      <c r="N2" s="19" t="n"/>
-      <c r="O2" s="17" t="n">
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="25" t="n"/>
+      <c r="O2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="18" t="n"/>
-      <c r="Q2" s="18" t="n"/>
-      <c r="R2" s="19" t="n"/>
-      <c r="S2" s="17" t="n">
+      <c r="P2" s="17" t="n"/>
+      <c r="Q2" s="17" t="n"/>
+      <c r="R2" s="25" t="n"/>
+      <c r="S2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="18" t="n"/>
-      <c r="U2" s="18" t="n"/>
-      <c r="V2" s="19" t="n"/>
-      <c r="W2" s="17" t="n">
+      <c r="T2" s="17" t="n"/>
+      <c r="U2" s="17" t="n"/>
+      <c r="V2" s="25" t="n"/>
+      <c r="W2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="18" t="n"/>
-      <c r="Y2" s="18" t="n"/>
-      <c r="Z2" s="19" t="n"/>
-      <c r="AA2" s="17" t="n">
+      <c r="X2" s="17" t="n"/>
+      <c r="Y2" s="17" t="n"/>
+      <c r="Z2" s="25" t="n"/>
+      <c r="AA2" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="25" t="n"/>
+      <c r="AC2" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="25" t="n"/>
+      <c r="AE2" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="25" t="n"/>
+      <c r="AG2" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AB2" s="18" t="n"/>
-      <c r="AC2" s="18" t="n"/>
-      <c r="AD2" s="19" t="n"/>
-      <c r="AE2" s="17" t="n">
+      <c r="AH2" s="17" t="n"/>
+      <c r="AI2" s="17" t="n"/>
+      <c r="AJ2" s="25" t="n"/>
+      <c r="AK2" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>レベル</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="D3" s="15" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="G3" s="15" t="inlineStr">
+      <c r="G3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="H3" s="15" t="inlineStr">
+      <c r="H3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="I3" s="15" t="inlineStr">
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="J3" s="15" t="inlineStr">
+      <c r="J3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="K3" s="15" t="inlineStr">
+      <c r="K3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="L3" s="15" t="inlineStr">
+      <c r="L3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="M3" s="15" t="inlineStr">
+      <c r="M3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="N3" s="15" t="inlineStr">
+      <c r="N3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="O3" s="15" t="inlineStr">
+      <c r="O3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="P3" s="15" t="inlineStr">
+      <c r="P3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="Q3" s="15" t="inlineStr">
+      <c r="Q3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="R3" s="15" t="inlineStr">
+      <c r="R3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="S3" s="15" t="inlineStr">
+      <c r="S3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="T3" s="15" t="inlineStr">
+      <c r="T3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="U3" s="15" t="inlineStr">
+      <c r="U3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="V3" s="15" t="inlineStr">
+      <c r="V3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="W3" s="15" t="inlineStr">
+      <c r="W3" s="14" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="X3" s="15" t="inlineStr">
+      <c r="X3" s="14" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="Y3" s="15" t="inlineStr">
+      <c r="Y3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="Z3" s="15" t="inlineStr">
+      <c r="Z3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="AA3" s="15" t="inlineStr">
+      <c r="AA3" s="24" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="AB3" s="15" t="inlineStr">
+      <c r="AB3" s="24" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="AC3" s="15" t="inlineStr">
+      <c r="AC3" s="24" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AD3" s="24" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AE3" s="24" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AF3" s="24" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AG3" s="14" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AH3" s="14" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AI3" s="14" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="AD3" s="15" t="inlineStr">
+      <c r="AJ3" s="14" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="AE3" s="15" t="inlineStr">
+      <c r="AK3" s="14" t="inlineStr">
         <is>
           <t>指</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
-      <c r="T4" s="1" t="n"/>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="1" t="n"/>
-      <c r="W4" s="1" t="n"/>
-      <c r="X4" s="1" t="n"/>
-      <c r="Y4" s="1" t="n"/>
-      <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="1" t="n"/>
-      <c r="AB4" s="1" t="n"/>
-      <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="1" t="n"/>
-      <c r="AE4" s="1" t="n"/>
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K4" s="26" t="n"/>
+      <c r="L4" s="26" t="n"/>
+      <c r="M4" s="26" t="n"/>
+      <c r="N4" s="26" t="n"/>
+      <c r="O4" s="26" t="n"/>
+      <c r="P4" s="26" t="n"/>
+      <c r="Q4" s="26" t="n"/>
+      <c r="R4" s="26" t="n"/>
+      <c r="S4" s="26" t="n"/>
+      <c r="T4" s="26" t="n"/>
+      <c r="U4" s="26" t="n"/>
+      <c r="V4" s="26" t="n"/>
+      <c r="W4" s="26" t="n"/>
+      <c r="X4" s="26" t="n"/>
+      <c r="Y4" s="26" t="n"/>
+      <c r="Z4" s="26" t="n"/>
+      <c r="AA4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB4" s="25" t="n"/>
+      <c r="AC4" s="26" t="n"/>
+      <c r="AD4" s="25" t="n"/>
+      <c r="AE4" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF4" s="25" t="n"/>
+      <c r="AG4" s="26" t="n"/>
+      <c r="AH4" s="26" t="n"/>
+      <c r="AI4" s="26" t="n"/>
+      <c r="AJ4" s="26" t="n"/>
+      <c r="AK4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="26" t="n"/>
+      <c r="B5" s="26" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J5" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
-      <c r="T5" s="1" t="n"/>
-      <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-      <c r="Y5" s="1" t="n"/>
-      <c r="Z5" s="1" t="n"/>
-      <c r="AA5" s="1" t="n"/>
-      <c r="AB5" s="1" t="n"/>
-      <c r="AC5" s="1" t="n"/>
-      <c r="AD5" s="1" t="n"/>
-      <c r="AE5" s="1" t="n"/>
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="n"/>
+      <c r="L5" s="26" t="n"/>
+      <c r="M5" s="26" t="n"/>
+      <c r="N5" s="26" t="n"/>
+      <c r="O5" s="26" t="n"/>
+      <c r="P5" s="26" t="n"/>
+      <c r="Q5" s="26" t="n"/>
+      <c r="R5" s="26" t="n"/>
+      <c r="S5" s="26" t="n"/>
+      <c r="T5" s="26" t="n"/>
+      <c r="U5" s="26" t="n"/>
+      <c r="V5" s="26" t="n"/>
+      <c r="W5" s="26" t="n"/>
+      <c r="X5" s="26" t="n"/>
+      <c r="Y5" s="26" t="n"/>
+      <c r="Z5" s="26" t="n"/>
+      <c r="AA5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB5" s="25" t="n"/>
+      <c r="AC5" s="26" t="n"/>
+      <c r="AD5" s="25" t="n"/>
+      <c r="AE5" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF5" s="25" t="n"/>
+      <c r="AG5" s="26" t="n"/>
+      <c r="AH5" s="26" t="n"/>
+      <c r="AI5" s="26" t="n"/>
+      <c r="AJ5" s="26" t="n"/>
+      <c r="AK5" s="26" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="26" t="n"/>
+      <c r="B6" s="26" t="n">
         <v>3.8</v>
       </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
-      <c r="T6" s="1" t="n"/>
-      <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
-      <c r="W6" s="1" t="n"/>
-      <c r="X6" s="1" t="n"/>
-      <c r="Y6" s="1" t="n"/>
-      <c r="Z6" s="1" t="n"/>
-      <c r="AA6" s="1" t="n"/>
-      <c r="AB6" s="1" t="n"/>
-      <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="1" t="n"/>
-      <c r="AE6" s="1" t="n"/>
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K6" s="26" t="n"/>
+      <c r="L6" s="26" t="n"/>
+      <c r="M6" s="26" t="n"/>
+      <c r="N6" s="26" t="n"/>
+      <c r="O6" s="26" t="n"/>
+      <c r="P6" s="26" t="n"/>
+      <c r="Q6" s="26" t="n"/>
+      <c r="R6" s="26" t="n"/>
+      <c r="S6" s="26" t="n"/>
+      <c r="T6" s="26" t="n"/>
+      <c r="U6" s="26" t="n"/>
+      <c r="V6" s="26" t="n"/>
+      <c r="W6" s="26" t="n"/>
+      <c r="X6" s="26" t="n"/>
+      <c r="Y6" s="26" t="n"/>
+      <c r="Z6" s="26" t="n"/>
+      <c r="AA6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB6" s="25" t="n"/>
+      <c r="AC6" s="26" t="n"/>
+      <c r="AD6" s="25" t="n"/>
+      <c r="AE6" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF6" s="25" t="n"/>
+      <c r="AG6" s="26" t="n"/>
+      <c r="AH6" s="26" t="n"/>
+      <c r="AI6" s="26" t="n"/>
+      <c r="AJ6" s="26" t="n"/>
+      <c r="AK6" s="26" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="26" t="n"/>
+      <c r="B7" s="26" t="n">
         <v>3.7</v>
       </c>
       <c r="C7" s="8" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q7" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R7" s="8" t="n"/>
-      <c r="S7" s="1" t="n"/>
-      <c r="T7" s="1" t="n"/>
-      <c r="U7" s="1" t="n"/>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
-      <c r="X7" s="1" t="n"/>
-      <c r="Y7" s="1" t="n"/>
-      <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="1" t="n"/>
-      <c r="AB7" s="1" t="n"/>
-      <c r="AC7" s="1" t="n"/>
-      <c r="AD7" s="1" t="n"/>
-      <c r="AE7" s="13" t="inlineStr">
+      <c r="D7" s="26" t="n"/>
+      <c r="E7" s="26" t="n"/>
+      <c r="F7" s="26" t="n"/>
+      <c r="G7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S7" s="26" t="n"/>
+      <c r="T7" s="26" t="n"/>
+      <c r="U7" s="26" t="n"/>
+      <c r="V7" s="26" t="n"/>
+      <c r="W7" s="26" t="n"/>
+      <c r="X7" s="26" t="n"/>
+      <c r="Y7" s="26" t="n"/>
+      <c r="Z7" s="26" t="n"/>
+      <c r="AA7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB7" s="25" t="n"/>
+      <c r="AC7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD7" s="25" t="n"/>
+      <c r="AE7" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF7" s="25" t="n"/>
+      <c r="AG7" s="26" t="n"/>
+      <c r="AH7" s="26" t="n"/>
+      <c r="AI7" s="26" t="n"/>
+      <c r="AJ7" s="26" t="n"/>
+      <c r="AK7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="26" t="n"/>
+      <c r="B8" s="26" t="n">
         <v>3.6</v>
       </c>
       <c r="C8" s="8" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q8" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R8" s="8" t="n"/>
-      <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
-      <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="1" t="n"/>
-      <c r="X8" s="1" t="n"/>
-      <c r="Y8" s="1" t="n"/>
-      <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="1" t="n"/>
-      <c r="AB8" s="1" t="n"/>
-      <c r="AC8" s="1" t="n"/>
-      <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="13" t="inlineStr">
+      <c r="D8" s="26" t="n"/>
+      <c r="E8" s="26" t="n"/>
+      <c r="F8" s="26" t="n"/>
+      <c r="G8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S8" s="26" t="n"/>
+      <c r="T8" s="26" t="n"/>
+      <c r="U8" s="26" t="n"/>
+      <c r="V8" s="26" t="n"/>
+      <c r="W8" s="26" t="n"/>
+      <c r="X8" s="26" t="n"/>
+      <c r="Y8" s="26" t="n"/>
+      <c r="Z8" s="26" t="n"/>
+      <c r="AA8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB8" s="25" t="n"/>
+      <c r="AC8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD8" s="25" t="n"/>
+      <c r="AE8" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF8" s="25" t="n"/>
+      <c r="AG8" s="26" t="n"/>
+      <c r="AH8" s="26" t="n"/>
+      <c r="AI8" s="26" t="n"/>
+      <c r="AJ8" s="26" t="n"/>
+      <c r="AK8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="26" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="13" t="n">
         <v>3.5</v>
       </c>
       <c r="C9" s="8" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q9" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R9" s="8" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-      <c r="Y9" s="1" t="n"/>
-      <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="1" t="n"/>
-      <c r="AB9" s="1" t="n"/>
-      <c r="AC9" s="1" t="n"/>
-      <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="13" t="inlineStr">
+      <c r="D9" s="26" t="n"/>
+      <c r="E9" s="26" t="n"/>
+      <c r="F9" s="26" t="n"/>
+      <c r="G9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S9" s="26" t="n"/>
+      <c r="T9" s="26" t="n"/>
+      <c r="U9" s="26" t="n"/>
+      <c r="V9" s="26" t="n"/>
+      <c r="W9" s="26" t="n"/>
+      <c r="X9" s="26" t="n"/>
+      <c r="Y9" s="26" t="n"/>
+      <c r="Z9" s="26" t="n"/>
+      <c r="AA9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB9" s="25" t="n"/>
+      <c r="AC9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD9" s="25" t="n"/>
+      <c r="AE9" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF9" s="25" t="n"/>
+      <c r="AG9" s="26" t="n"/>
+      <c r="AH9" s="26" t="n"/>
+      <c r="AI9" s="26" t="n"/>
+      <c r="AJ9" s="26" t="n"/>
+      <c r="AK9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="26" t="n"/>
+      <c r="B10" s="26" t="n">
         <v>3.4</v>
       </c>
       <c r="C10" s="8" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q10" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R10" s="8" t="n"/>
-      <c r="S10" s="1" t="n"/>
-      <c r="T10" s="1" t="n"/>
-      <c r="U10" s="1" t="n"/>
-      <c r="V10" s="1" t="n"/>
-      <c r="W10" s="1" t="n"/>
-      <c r="X10" s="1" t="n"/>
-      <c r="Y10" s="1" t="n"/>
-      <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="1" t="n"/>
-      <c r="AB10" s="1" t="n"/>
-      <c r="AC10" s="1" t="n"/>
-      <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="13" t="inlineStr">
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="26" t="n"/>
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S10" s="26" t="n"/>
+      <c r="T10" s="26" t="n"/>
+      <c r="U10" s="26" t="n"/>
+      <c r="V10" s="26" t="n"/>
+      <c r="W10" s="26" t="n"/>
+      <c r="X10" s="26" t="n"/>
+      <c r="Y10" s="26" t="n"/>
+      <c r="Z10" s="26" t="n"/>
+      <c r="AA10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB10" s="25" t="n"/>
+      <c r="AC10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD10" s="25" t="n"/>
+      <c r="AE10" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF10" s="25" t="n"/>
+      <c r="AG10" s="26" t="n"/>
+      <c r="AH10" s="26" t="n"/>
+      <c r="AI10" s="26" t="n"/>
+      <c r="AJ10" s="26" t="n"/>
+      <c r="AK10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n">
+      <c r="A11" s="26" t="n"/>
+      <c r="B11" s="26" t="n">
         <v>3.3</v>
       </c>
       <c r="C11" s="8" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
-      <c r="G11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q11" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R11" s="8" t="n"/>
-      <c r="S11" s="1" t="n"/>
-      <c r="T11" s="1" t="n"/>
-      <c r="U11" s="1" t="n"/>
-      <c r="V11" s="1" t="n"/>
-      <c r="W11" s="1" t="n"/>
-      <c r="X11" s="1" t="n"/>
-      <c r="Y11" s="1" t="n"/>
-      <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="1" t="n"/>
-      <c r="AB11" s="1" t="n"/>
-      <c r="AC11" s="1" t="n"/>
-      <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="13" t="inlineStr">
+      <c r="D11" s="26" t="n"/>
+      <c r="E11" s="26" t="n"/>
+      <c r="F11" s="26" t="n"/>
+      <c r="G11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S11" s="26" t="n"/>
+      <c r="T11" s="26" t="n"/>
+      <c r="U11" s="26" t="n"/>
+      <c r="V11" s="26" t="n"/>
+      <c r="W11" s="26" t="n"/>
+      <c r="X11" s="26" t="n"/>
+      <c r="Y11" s="26" t="n"/>
+      <c r="Z11" s="26" t="n"/>
+      <c r="AA11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB11" s="25" t="n"/>
+      <c r="AC11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD11" s="25" t="n"/>
+      <c r="AE11" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF11" s="25" t="n"/>
+      <c r="AG11" s="26" t="n"/>
+      <c r="AH11" s="26" t="n"/>
+      <c r="AI11" s="26" t="n"/>
+      <c r="AJ11" s="26" t="n"/>
+      <c r="AK11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n">
+      <c r="A12" s="26" t="n"/>
+      <c r="B12" s="26" t="n">
         <v>3.2</v>
       </c>
       <c r="C12" s="8" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
+      <c r="D12" s="26" t="n"/>
+      <c r="E12" s="26" t="n"/>
+      <c r="F12" s="26" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="n"/>
+      <c r="H12" s="26" t="n"/>
+      <c r="I12" s="26" t="n"/>
+      <c r="J12" s="26" t="n"/>
       <c r="K12" s="8" t="n"/>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y12" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="1" t="n"/>
-      <c r="AB12" s="1" t="n"/>
-      <c r="AC12" s="1" t="n"/>
-      <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n"/>
+      <c r="L12" s="26" t="n"/>
+      <c r="M12" s="26" t="n"/>
+      <c r="N12" s="26" t="n"/>
+      <c r="O12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z12" s="26" t="n"/>
+      <c r="AA12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB12" s="25" t="n"/>
+      <c r="AC12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD12" s="25" t="n"/>
+      <c r="AE12" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF12" s="25" t="n"/>
+      <c r="AG12" s="26" t="n"/>
+      <c r="AH12" s="26" t="n"/>
+      <c r="AI12" s="26" t="n"/>
+      <c r="AJ12" s="26" t="n"/>
+      <c r="AK12" s="26" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n">
+      <c r="A13" s="26" t="n"/>
+      <c r="B13" s="26" t="n">
         <v>3.1</v>
       </c>
       <c r="C13" s="8" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
+      <c r="D13" s="26" t="n"/>
+      <c r="E13" s="26" t="n"/>
+      <c r="F13" s="26" t="n"/>
       <c r="G13" s="8" t="n"/>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
+      <c r="H13" s="26" t="n"/>
+      <c r="I13" s="26" t="n"/>
+      <c r="J13" s="26" t="n"/>
       <c r="K13" s="8" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y13" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="1" t="n"/>
-      <c r="AB13" s="1" t="n"/>
-      <c r="AC13" s="1" t="n"/>
-      <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n"/>
+      <c r="L13" s="26" t="n"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="26" t="n"/>
+      <c r="O13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z13" s="26" t="n"/>
+      <c r="AA13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB13" s="25" t="n"/>
+      <c r="AC13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD13" s="25" t="n"/>
+      <c r="AE13" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF13" s="25" t="n"/>
+      <c r="AG13" s="26" t="n"/>
+      <c r="AH13" s="26" t="n"/>
+      <c r="AI13" s="26" t="n"/>
+      <c r="AJ13" s="26" t="n"/>
+      <c r="AK13" s="26" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="26" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="13" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="n"/>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
+      <c r="D14" s="26" t="n"/>
+      <c r="E14" s="26" t="n"/>
+      <c r="F14" s="26" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="H14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
-      <c r="J14" s="1" t="n"/>
+      <c r="H14" s="26" t="n"/>
+      <c r="I14" s="26" t="n"/>
+      <c r="J14" s="26" t="n"/>
       <c r="K14" s="8" t="n"/>
-      <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y14" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="1" t="n"/>
-      <c r="AB14" s="1" t="n"/>
-      <c r="AC14" s="1" t="n"/>
-      <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n"/>
+      <c r="L14" s="26" t="n"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="26" t="n"/>
+      <c r="O14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z14" s="26" t="n"/>
+      <c r="AA14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB14" s="25" t="n"/>
+      <c r="AC14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD14" s="25" t="n"/>
+      <c r="AE14" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF14" s="25" t="n"/>
+      <c r="AG14" s="26" t="n"/>
+      <c r="AH14" s="26" t="n"/>
+      <c r="AI14" s="26" t="n"/>
+      <c r="AJ14" s="26" t="n"/>
+      <c r="AK14" s="26" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
+      <c r="A15" s="26" t="n"/>
+      <c r="B15" s="26" t="n">
         <v>2.9</v>
       </c>
       <c r="C15" s="8" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
+      <c r="D15" s="26" t="n"/>
+      <c r="E15" s="26" t="n"/>
+      <c r="F15" s="26" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
-      <c r="J15" s="1" t="n"/>
+      <c r="H15" s="26" t="n"/>
+      <c r="I15" s="26" t="n"/>
+      <c r="J15" s="26" t="n"/>
       <c r="K15" s="8" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y15" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="1" t="n"/>
-      <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="n"/>
-      <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n"/>
+      <c r="L15" s="26" t="n"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="N15" s="26" t="n"/>
+      <c r="O15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z15" s="26" t="n"/>
+      <c r="AA15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB15" s="25" t="n"/>
+      <c r="AC15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD15" s="25" t="n"/>
+      <c r="AE15" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF15" s="25" t="n"/>
+      <c r="AG15" s="26" t="n"/>
+      <c r="AH15" s="26" t="n"/>
+      <c r="AI15" s="26" t="n"/>
+      <c r="AJ15" s="26" t="n"/>
+      <c r="AK15" s="26" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n">
+      <c r="A16" s="26" t="n"/>
+      <c r="B16" s="26" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" s="8" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="D16" s="26" t="n"/>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="26" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
-      <c r="J16" s="1" t="n"/>
+      <c r="H16" s="26" t="n"/>
+      <c r="I16" s="26" t="n"/>
+      <c r="J16" s="26" t="n"/>
       <c r="K16" s="8" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y16" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="1" t="n"/>
-      <c r="AB16" s="1" t="n"/>
-      <c r="AC16" s="1" t="n"/>
-      <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n"/>
+      <c r="L16" s="26" t="n"/>
+      <c r="M16" s="26" t="n"/>
+      <c r="N16" s="26" t="n"/>
+      <c r="O16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z16" s="26" t="n"/>
+      <c r="AA16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB16" s="25" t="n"/>
+      <c r="AC16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD16" s="25" t="n"/>
+      <c r="AE16" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF16" s="25" t="n"/>
+      <c r="AG16" s="26" t="n"/>
+      <c r="AH16" s="26" t="n"/>
+      <c r="AI16" s="26" t="n"/>
+      <c r="AJ16" s="26" t="n"/>
+      <c r="AK16" s="26" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
+      <c r="A17" s="26" t="n"/>
+      <c r="B17" s="26" t="n">
         <v>2.7</v>
       </c>
       <c r="C17" s="8" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
+      <c r="D17" s="26" t="n"/>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="26" t="n"/>
       <c r="G17" s="8" t="n"/>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
+      <c r="H17" s="26" t="n"/>
+      <c r="I17" s="26" t="n"/>
+      <c r="J17" s="26" t="n"/>
       <c r="K17" s="8" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
+      <c r="L17" s="26" t="n"/>
+      <c r="M17" s="26" t="n"/>
+      <c r="N17" s="26" t="n"/>
       <c r="O17" s="8" t="n"/>
-      <c r="P17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-      <c r="R17" s="1" t="n"/>
+      <c r="P17" s="26" t="n"/>
+      <c r="Q17" s="26" t="n"/>
+      <c r="R17" s="26" t="n"/>
       <c r="S17" s="8" t="n"/>
-      <c r="T17" s="1" t="n"/>
-      <c r="U17" s="1" t="n"/>
-      <c r="V17" s="1" t="n"/>
-      <c r="W17" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X17" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y17" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z17" s="1" t="n"/>
-      <c r="AA17" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB17" s="19" t="n"/>
-      <c r="AC17" s="1" t="n"/>
-      <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="13" t="inlineStr">
+      <c r="T17" s="26" t="n"/>
+      <c r="U17" s="26" t="n"/>
+      <c r="V17" s="26" t="n"/>
+      <c r="W17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z17" s="26" t="n"/>
+      <c r="AA17" s="26" t="n"/>
+      <c r="AB17" s="26" t="n"/>
+      <c r="AC17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD17" s="25" t="n"/>
+      <c r="AE17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF17" s="25" t="n"/>
+      <c r="AG17" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH17" s="25" t="n"/>
+      <c r="AI17" s="26" t="n"/>
+      <c r="AJ17" s="26" t="n"/>
+      <c r="AK17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n">
+      <c r="A18" s="26" t="n"/>
+      <c r="B18" s="26" t="n">
         <v>2.6</v>
       </c>
       <c r="C18" s="8" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="D18" s="26" t="n"/>
+      <c r="E18" s="26" t="n"/>
+      <c r="F18" s="26" t="n"/>
       <c r="G18" s="8" t="n"/>
-      <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="n"/>
+      <c r="H18" s="26" t="n"/>
+      <c r="I18" s="26" t="n"/>
+      <c r="J18" s="26" t="n"/>
       <c r="K18" s="8" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
+      <c r="L18" s="26" t="n"/>
+      <c r="M18" s="26" t="n"/>
+      <c r="N18" s="26" t="n"/>
       <c r="O18" s="8" t="n"/>
-      <c r="P18" s="1" t="n"/>
-      <c r="Q18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
+      <c r="P18" s="26" t="n"/>
+      <c r="Q18" s="26" t="n"/>
+      <c r="R18" s="26" t="n"/>
       <c r="S18" s="8" t="n"/>
-      <c r="T18" s="1" t="n"/>
-      <c r="U18" s="1" t="n"/>
-      <c r="V18" s="1" t="n"/>
-      <c r="W18" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X18" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y18" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z18" s="1" t="n"/>
-      <c r="AA18" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB18" s="19" t="n"/>
-      <c r="AC18" s="1" t="n"/>
-      <c r="AD18" s="1" t="n"/>
-      <c r="AE18" s="13" t="inlineStr">
+      <c r="T18" s="26" t="n"/>
+      <c r="U18" s="26" t="n"/>
+      <c r="V18" s="26" t="n"/>
+      <c r="W18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z18" s="26" t="n"/>
+      <c r="AA18" s="26" t="n"/>
+      <c r="AB18" s="26" t="n"/>
+      <c r="AC18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD18" s="25" t="n"/>
+      <c r="AE18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF18" s="25" t="n"/>
+      <c r="AG18" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH18" s="25" t="n"/>
+      <c r="AI18" s="26" t="n"/>
+      <c r="AJ18" s="26" t="n"/>
+      <c r="AK18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="26" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="13" t="n">
         <v>2.5</v>
       </c>
       <c r="C19" s="8" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="D19" s="26" t="n"/>
+      <c r="E19" s="26" t="n"/>
+      <c r="F19" s="26" t="n"/>
       <c r="G19" s="8" t="n"/>
-      <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
-      <c r="J19" s="1" t="n"/>
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="26" t="n"/>
+      <c r="J19" s="26" t="n"/>
       <c r="K19" s="8" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
+      <c r="L19" s="26" t="n"/>
+      <c r="M19" s="26" t="n"/>
+      <c r="N19" s="26" t="n"/>
       <c r="O19" s="8" t="n"/>
-      <c r="P19" s="1" t="n"/>
-      <c r="Q19" s="1" t="n"/>
-      <c r="R19" s="1" t="n"/>
+      <c r="P19" s="26" t="n"/>
+      <c r="Q19" s="26" t="n"/>
+      <c r="R19" s="26" t="n"/>
       <c r="S19" s="8" t="n"/>
-      <c r="T19" s="1" t="n"/>
-      <c r="U19" s="1" t="n"/>
-      <c r="V19" s="1" t="n"/>
-      <c r="W19" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X19" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y19" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Z19" s="1" t="n"/>
-      <c r="AA19" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB19" s="19" t="n"/>
-      <c r="AC19" s="1" t="n"/>
-      <c r="AD19" s="1" t="n"/>
-      <c r="AE19" s="13" t="inlineStr">
-        <is>
-          <t>〇</t>
+      <c r="T19" s="26" t="n"/>
+      <c r="U19" s="26" t="n"/>
+      <c r="V19" s="26" t="n"/>
+      <c r="W19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Z19" s="26" t="n"/>
+      <c r="AA19" s="26" t="n"/>
+      <c r="AB19" s="26" t="n"/>
+      <c r="AC19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD19" s="25" t="n"/>
+      <c r="AE19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF19" s="25" t="n"/>
+      <c r="AG19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH19" s="25" t="n"/>
+      <c r="AI19" s="26" t="n"/>
+      <c r="AJ19" s="26" t="n"/>
+      <c r="AK19" s="19" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AD21" s="27" t="inlineStr">
+        <is>
+          <t>ALL_CAL_ADD_POINT1</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="63">
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="49" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" state="visible" r:id="rId1"/>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,19 +150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -188,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,37 +222,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -710,16 +681,16 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0</v>
@@ -729,14 +700,14 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>休憩</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -745,7 +716,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -764,14 +735,14 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -780,7 +751,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -789,7 +760,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
@@ -803,10 +774,10 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>20.96666666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +786,16 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
@@ -834,14 +805,14 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>21.81428571428572</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -850,19 +821,19 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
@@ -873,10 +844,10 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>22.34999999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -885,7 +856,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -894,10 +865,10 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
@@ -908,10 +879,10 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>22.34999999999998</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -920,33 +891,33 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>22.82857142857143</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +926,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -974,14 +945,14 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>23.00714285714286</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -990,7 +961,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1002,7 +973,7 @@
         <v>3.5</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
@@ -1013,10 +984,10 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>23.07857142857143</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1025,7 +996,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1034,7 +1005,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0</v>
@@ -1048,10 +1019,10 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1031,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1072,7 +1043,7 @@
         <v>3.5</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
@@ -1083,10 +1054,10 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>23.91428571428574</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1096,11 +1067,7 @@
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="0" t="n"/>
     </row>
@@ -1325,10 +1292,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
@@ -1403,22 +1370,18 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1433,7 +1396,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1442,13 +1405,9 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1456,14 +1415,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1472,13 +1431,9 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="n"/>
       <c r="F5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1493,7 +1448,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1504,7 +1459,11 @@
       <c r="D6" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E6" s="0" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1519,18 +1478,22 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E7" s="0" t="n"/>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1545,18 +1508,18 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="n"/>
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="0" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1571,18 +1534,18 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="n"/>
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="0" t="n"/>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1597,18 +1560,18 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="n"/>
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1616,19 +1579,23 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="0" t="n"/>
       <c r="F11" s="3" t="inlineStr">
@@ -1638,10 +1605,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1650,9 +1621,9 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="n"/>
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="0" t="n"/>
       <c r="F12" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1663,7 +1634,7 @@
       <c r="A13" s="0" t="n"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1682,10 +1653,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n"/>
+      <c r="A14" s="3" t="n"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1696,7 +1667,7 @@
       <c r="D14" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="0" t="n"/>
+      <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1704,10 +1675,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
+      <c r="A15" s="0" t="n"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1729,7 +1700,7 @@
       <c r="A16" s="0" t="n"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1748,10 +1719,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n"/>
+      <c r="A17" s="3" t="n"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1773,7 +1744,7 @@
       <c r="A18" s="0" t="n"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1795,12 +1766,12 @@
       <c r="A19" s="0" t="n"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -1814,10 +1785,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
+      <c r="A20" s="0" t="n"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1836,10 +1807,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="0" t="n"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1850,7 +1821,7 @@
       <c r="D21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="n"/>
+      <c r="E21" s="0" t="n"/>
       <c r="F21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1861,7 +1832,7 @@
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1872,7 +1843,7 @@
       <c r="D22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="n"/>
+      <c r="E22" s="0" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1883,7 +1854,7 @@
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1894,7 +1865,7 @@
       <c r="D23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="0" t="n"/>
+      <c r="E23" s="3" t="n"/>
       <c r="F23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1902,10 +1873,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="n"/>
+      <c r="A24" s="3" t="n"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1924,10 +1895,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="0" t="n"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1938,7 +1909,7 @@
       <c r="D25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="E25" s="0" t="n"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1946,21 +1917,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E26" s="0" t="n"/>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1971,7 +1945,7 @@
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1982,7 +1956,7 @@
       <c r="D27" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E27" s="3" t="n"/>
+      <c r="E27" s="0" t="n"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1990,10 +1964,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n"/>
+      <c r="A28" s="3" t="n"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -2015,7 +1989,7 @@
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -2026,7 +2000,7 @@
       <c r="D29" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E29" s="0" t="n"/>
+      <c r="E29" s="3" t="n"/>
       <c r="F29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2034,10 +2008,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
+      <c r="A30" s="0" t="n"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2059,7 +2033,7 @@
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2070,7 +2044,7 @@
       <c r="D31" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E31" s="3" t="n"/>
+      <c r="E31" s="0" t="n"/>
       <c r="F31" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2078,15 +2052,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n"/>
+      <c r="A32" s="3" t="n"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -2100,15 +2074,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
+      <c r="A33" s="0" t="n"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -2122,10 +2096,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n"/>
+      <c r="A34" s="3" t="n"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2136,7 +2110,7 @@
       <c r="D34" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E34" s="0" t="n"/>
+      <c r="E34" s="3" t="n"/>
       <c r="F34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2147,7 +2121,7 @@
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -2166,10 +2140,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
+      <c r="A36" s="0" t="n"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -2180,7 +2154,7 @@
       <c r="D36" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E36" s="3" t="n"/>
+      <c r="E36" s="0" t="n"/>
       <c r="F36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2188,21 +2162,21 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n"/>
+      <c r="A37" s="3" t="n"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E37" s="0" t="n"/>
+      <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2213,18 +2187,18 @@
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E38" s="3" t="n"/>
+      <c r="E38" s="0" t="n"/>
       <c r="F38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2235,7 +2209,7 @@
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -2246,7 +2220,7 @@
       <c r="D39" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E39" s="0" t="n"/>
+      <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2257,18 +2231,18 @@
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E40" s="3" t="n"/>
+      <c r="E40" s="0" t="n"/>
       <c r="F40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2279,7 +2253,7 @@
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -2290,7 +2264,7 @@
       <c r="D41" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E41" s="0" t="n"/>
+      <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2301,18 +2275,18 @@
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E42" s="3" t="n"/>
+      <c r="E42" s="0" t="n"/>
       <c r="F42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2320,10 +2294,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n"/>
+      <c r="A43" s="3" t="n"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
@@ -2334,7 +2308,7 @@
       <c r="D43" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E43" s="0" t="n"/>
+      <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2345,7 +2319,7 @@
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
@@ -2356,7 +2330,7 @@
       <c r="D44" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E44" s="0" t="n"/>
+      <c r="E44" s="3" t="n"/>
       <c r="F44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2364,10 +2338,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
+      <c r="A45" s="0" t="n"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
@@ -2378,7 +2352,7 @@
       <c r="D45" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E45" s="3" t="n"/>
+      <c r="E45" s="0" t="n"/>
       <c r="F45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2389,7 +2363,7 @@
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
@@ -2408,10 +2382,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n"/>
+      <c r="A47" s="3" t="n"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
@@ -2433,7 +2407,7 @@
       <c r="A48" s="3" t="n"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
@@ -2455,7 +2429,7 @@
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
@@ -2477,7 +2451,7 @@
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
@@ -2488,7 +2462,7 @@
       <c r="D50" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E50" s="3" t="n"/>
+      <c r="E50" s="0" t="n"/>
       <c r="F50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2496,10 +2470,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="n"/>
+      <c r="A51" s="3" t="n"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
@@ -2510,7 +2484,7 @@
       <c r="D51" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E51" s="0" t="n"/>
+      <c r="E51" s="3" t="n"/>
       <c r="F51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2521,7 +2495,7 @@
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
@@ -2532,7 +2506,7 @@
       <c r="D52" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E52" s="0" t="n"/>
+      <c r="E52" s="3" t="n"/>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2543,18 +2517,18 @@
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="E53" s="0" t="n"/>
+      <c r="E53" s="3" t="n"/>
       <c r="F53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2562,15 +2536,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
+      <c r="A54" s="0" t="n"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵🔴[FREE_中]</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
@@ -2587,7 +2561,7 @@
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵🔴[FREE_中]</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
@@ -2596,7 +2570,7 @@
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="inlineStr">
@@ -2609,16 +2583,16 @@
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3" t="n"/>
       <c r="F56" s="3" t="inlineStr">
@@ -2628,21 +2602,21 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="n"/>
+      <c r="A57" s="3" t="n"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E57" s="3" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="E57" s="0" t="n"/>
       <c r="F57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3309,6 +3283,7 @@
         </is>
       </c>
     </row>
+    <row r="88"/>
   </sheetData>
   <autoFilter ref="A1:F65">
     <sortState ref="A2:F87">
@@ -3326,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -3362,1245 +3337,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="E5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E40" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>🔴シャンシャン</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="inlineStr">
-        <is>
-          <t>🔵むね</t>
-        </is>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>🔵かつき</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>🔵スシャント</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4663,76 +3451,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="inlineStr">
-        <is>
-          <t>🔵今枝</t>
-        </is>
-      </c>
-      <c r="C2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26" t="n"/>
-      <c r="E2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26" t="n"/>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="26" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
-        </is>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26" t="n"/>
-      <c r="E3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="C4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="n"/>
-      <c r="E4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26" t="n"/>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26" t="n"/>
-      <c r="E5" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26" t="n"/>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n"/>
@@ -4752,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
@@ -4765,73 +3513,73 @@
     <row r="1">
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="14" t="n"/>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="21" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="25" t="n"/>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="D1" s="22" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="20" t="n"/>
+      <c r="G1" s="21" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="17" t="n"/>
-      <c r="I1" s="17" t="n"/>
-      <c r="J1" s="25" t="n"/>
-      <c r="K1" s="16" t="inlineStr">
+      <c r="H1" s="22" t="n"/>
+      <c r="I1" s="22" t="n"/>
+      <c r="J1" s="20" t="n"/>
+      <c r="K1" s="21" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="17" t="n"/>
-      <c r="M1" s="17" t="n"/>
-      <c r="N1" s="25" t="n"/>
-      <c r="O1" s="16" t="inlineStr">
+      <c r="L1" s="22" t="n"/>
+      <c r="M1" s="22" t="n"/>
+      <c r="N1" s="20" t="n"/>
+      <c r="O1" s="21" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="17" t="n"/>
-      <c r="Q1" s="17" t="n"/>
-      <c r="R1" s="25" t="n"/>
-      <c r="S1" s="16" t="inlineStr">
+      <c r="P1" s="22" t="n"/>
+      <c r="Q1" s="22" t="n"/>
+      <c r="R1" s="20" t="n"/>
+      <c r="S1" s="21" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="17" t="n"/>
-      <c r="U1" s="17" t="n"/>
-      <c r="V1" s="25" t="n"/>
-      <c r="W1" s="16" t="inlineStr">
+      <c r="T1" s="22" t="n"/>
+      <c r="U1" s="22" t="n"/>
+      <c r="V1" s="20" t="n"/>
+      <c r="W1" s="21" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="17" t="n"/>
-      <c r="Y1" s="17" t="n"/>
-      <c r="Z1" s="25" t="n"/>
-      <c r="AA1" s="29" t="inlineStr">
+      <c r="X1" s="22" t="n"/>
+      <c r="Y1" s="22" t="n"/>
+      <c r="Z1" s="20" t="n"/>
+      <c r="AA1" s="23" t="inlineStr">
         <is>
           <t>全体</t>
         </is>
       </c>
-      <c r="AB1" s="17" t="n"/>
-      <c r="AC1" s="17" t="n"/>
-      <c r="AD1" s="17" t="n"/>
-      <c r="AE1" s="17" t="n"/>
-      <c r="AF1" s="25" t="n"/>
-      <c r="AG1" s="16" t="inlineStr">
+      <c r="AB1" s="22" t="n"/>
+      <c r="AC1" s="22" t="n"/>
+      <c r="AD1" s="22" t="n"/>
+      <c r="AE1" s="22" t="n"/>
+      <c r="AF1" s="20" t="n"/>
+      <c r="AG1" s="21" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AH1" s="17" t="n"/>
-      <c r="AI1" s="17" t="n"/>
-      <c r="AJ1" s="17" t="n"/>
-      <c r="AK1" s="25" t="n"/>
+      <c r="AH1" s="22" t="n"/>
+      <c r="AI1" s="22" t="n"/>
+      <c r="AJ1" s="22" t="n"/>
+      <c r="AK1" s="20" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="14" t="n"/>
@@ -4840,61 +3588,61 @@
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="16" t="n">
+      <c r="D2" s="22" t="n"/>
+      <c r="E2" s="22" t="n"/>
+      <c r="F2" s="20" t="n"/>
+      <c r="G2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="25" t="n"/>
-      <c r="K2" s="16" t="n">
+      <c r="H2" s="22" t="n"/>
+      <c r="I2" s="22" t="n"/>
+      <c r="J2" s="20" t="n"/>
+      <c r="K2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="25" t="n"/>
-      <c r="O2" s="16" t="n">
+      <c r="L2" s="22" t="n"/>
+      <c r="M2" s="22" t="n"/>
+      <c r="N2" s="20" t="n"/>
+      <c r="O2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="25" t="n"/>
-      <c r="S2" s="16" t="n">
+      <c r="P2" s="22" t="n"/>
+      <c r="Q2" s="22" t="n"/>
+      <c r="R2" s="20" t="n"/>
+      <c r="S2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="25" t="n"/>
-      <c r="W2" s="16" t="n">
+      <c r="T2" s="22" t="n"/>
+      <c r="U2" s="22" t="n"/>
+      <c r="V2" s="20" t="n"/>
+      <c r="W2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="17" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="25" t="n"/>
-      <c r="AA2" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="25" t="n"/>
-      <c r="AC2" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="25" t="n"/>
-      <c r="AE2" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="25" t="n"/>
-      <c r="AG2" s="16" t="n">
+      <c r="X2" s="22" t="n"/>
+      <c r="Y2" s="22" t="n"/>
+      <c r="Z2" s="20" t="n"/>
+      <c r="AA2" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="20" t="n"/>
+      <c r="AC2" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="20" t="n"/>
+      <c r="AE2" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="20" t="n"/>
+      <c r="AG2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="17" t="n"/>
-      <c r="AI2" s="17" t="n"/>
-      <c r="AJ2" s="25" t="n"/>
-      <c r="AK2" s="16" t="n">
+      <c r="AH2" s="22" t="n"/>
+      <c r="AI2" s="22" t="n"/>
+      <c r="AJ2" s="20" t="n"/>
+      <c r="AK2" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,32 +3773,32 @@
           <t>単</t>
         </is>
       </c>
-      <c r="AA3" s="24" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AB3" s="24" t="inlineStr">
+      <c r="AA3" s="17" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AB3" s="17" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="AC3" s="24" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AD3" s="24" t="inlineStr">
+      <c r="AC3" s="17" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AD3" s="17" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="AE3" s="24" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AF3" s="24" t="inlineStr">
+      <c r="AE3" s="17" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AF3" s="17" t="inlineStr">
         <is>
           <t>女</t>
         </is>
@@ -5082,7 +3830,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
@@ -5130,45 +3878,45 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="K4" s="26" t="n"/>
-      <c r="L4" s="26" t="n"/>
-      <c r="M4" s="26" t="n"/>
-      <c r="N4" s="26" t="n"/>
-      <c r="O4" s="26" t="n"/>
-      <c r="P4" s="26" t="n"/>
-      <c r="Q4" s="26" t="n"/>
-      <c r="R4" s="26" t="n"/>
-      <c r="S4" s="26" t="n"/>
-      <c r="T4" s="26" t="n"/>
-      <c r="U4" s="26" t="n"/>
-      <c r="V4" s="26" t="n"/>
-      <c r="W4" s="26" t="n"/>
-      <c r="X4" s="26" t="n"/>
-      <c r="Y4" s="26" t="n"/>
-      <c r="Z4" s="26" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
       <c r="AA4" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB4" s="25" t="n"/>
-      <c r="AC4" s="26" t="n"/>
-      <c r="AD4" s="25" t="n"/>
+      <c r="AB4" s="20" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="20" t="n"/>
       <c r="AE4" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF4" s="25" t="n"/>
-      <c r="AG4" s="26" t="n"/>
-      <c r="AH4" s="26" t="n"/>
-      <c r="AI4" s="26" t="n"/>
-      <c r="AJ4" s="26" t="n"/>
-      <c r="AK4" s="26" t="n"/>
+      <c r="AF4" s="20" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="n"/>
-      <c r="B5" s="26" t="n">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n">
         <v>3.9</v>
       </c>
       <c r="C5" s="19" t="inlineStr">
@@ -5211,45 +3959,45 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="K5" s="26" t="n"/>
-      <c r="L5" s="26" t="n"/>
-      <c r="M5" s="26" t="n"/>
-      <c r="N5" s="26" t="n"/>
-      <c r="O5" s="26" t="n"/>
-      <c r="P5" s="26" t="n"/>
-      <c r="Q5" s="26" t="n"/>
-      <c r="R5" s="26" t="n"/>
-      <c r="S5" s="26" t="n"/>
-      <c r="T5" s="26" t="n"/>
-      <c r="U5" s="26" t="n"/>
-      <c r="V5" s="26" t="n"/>
-      <c r="W5" s="26" t="n"/>
-      <c r="X5" s="26" t="n"/>
-      <c r="Y5" s="26" t="n"/>
-      <c r="Z5" s="26" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
       <c r="AA5" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB5" s="25" t="n"/>
-      <c r="AC5" s="26" t="n"/>
-      <c r="AD5" s="25" t="n"/>
+      <c r="AB5" s="20" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="20" t="n"/>
       <c r="AE5" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF5" s="25" t="n"/>
-      <c r="AG5" s="26" t="n"/>
-      <c r="AH5" s="26" t="n"/>
-      <c r="AI5" s="26" t="n"/>
-      <c r="AJ5" s="26" t="n"/>
-      <c r="AK5" s="26" t="n"/>
+      <c r="AF5" s="20" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="n"/>
-      <c r="B6" s="26" t="n">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n">
         <v>3.8</v>
       </c>
       <c r="C6" s="19" t="inlineStr">
@@ -5292,51 +4040,51 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="K6" s="26" t="n"/>
-      <c r="L6" s="26" t="n"/>
-      <c r="M6" s="26" t="n"/>
-      <c r="N6" s="26" t="n"/>
-      <c r="O6" s="26" t="n"/>
-      <c r="P6" s="26" t="n"/>
-      <c r="Q6" s="26" t="n"/>
-      <c r="R6" s="26" t="n"/>
-      <c r="S6" s="26" t="n"/>
-      <c r="T6" s="26" t="n"/>
-      <c r="U6" s="26" t="n"/>
-      <c r="V6" s="26" t="n"/>
-      <c r="W6" s="26" t="n"/>
-      <c r="X6" s="26" t="n"/>
-      <c r="Y6" s="26" t="n"/>
-      <c r="Z6" s="26" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
       <c r="AA6" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB6" s="25" t="n"/>
-      <c r="AC6" s="26" t="n"/>
-      <c r="AD6" s="25" t="n"/>
+      <c r="AB6" s="20" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="20" t="n"/>
       <c r="AE6" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF6" s="25" t="n"/>
-      <c r="AG6" s="26" t="n"/>
-      <c r="AH6" s="26" t="n"/>
-      <c r="AI6" s="26" t="n"/>
-      <c r="AJ6" s="26" t="n"/>
-      <c r="AK6" s="26" t="n"/>
+      <c r="AF6" s="20" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="n"/>
-      <c r="B7" s="26" t="n">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="C7" s="8" t="n"/>
-      <c r="D7" s="26" t="n"/>
-      <c r="E7" s="26" t="n"/>
-      <c r="F7" s="26" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
       <c r="G7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5397,36 +4145,36 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="S7" s="26" t="n"/>
-      <c r="T7" s="26" t="n"/>
-      <c r="U7" s="26" t="n"/>
-      <c r="V7" s="26" t="n"/>
-      <c r="W7" s="26" t="n"/>
-      <c r="X7" s="26" t="n"/>
-      <c r="Y7" s="26" t="n"/>
-      <c r="Z7" s="26" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
       <c r="AA7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB7" s="25" t="n"/>
+      <c r="AB7" s="20" t="n"/>
       <c r="AC7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD7" s="25" t="n"/>
+      <c r="AD7" s="20" t="n"/>
       <c r="AE7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF7" s="25" t="n"/>
-      <c r="AG7" s="26" t="n"/>
-      <c r="AH7" s="26" t="n"/>
-      <c r="AI7" s="26" t="n"/>
-      <c r="AJ7" s="26" t="n"/>
+      <c r="AF7" s="20" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
       <c r="AK7" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5434,14 +4182,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="n"/>
-      <c r="B8" s="26" t="n">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n">
         <v>3.6</v>
       </c>
       <c r="C8" s="8" t="n"/>
-      <c r="D8" s="26" t="n"/>
-      <c r="E8" s="26" t="n"/>
-      <c r="F8" s="26" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
       <c r="G8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5502,36 +4250,36 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="S8" s="26" t="n"/>
-      <c r="T8" s="26" t="n"/>
-      <c r="U8" s="26" t="n"/>
-      <c r="V8" s="26" t="n"/>
-      <c r="W8" s="26" t="n"/>
-      <c r="X8" s="26" t="n"/>
-      <c r="Y8" s="26" t="n"/>
-      <c r="Z8" s="26" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
       <c r="AA8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB8" s="25" t="n"/>
+      <c r="AB8" s="20" t="n"/>
       <c r="AC8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD8" s="25" t="n"/>
+      <c r="AD8" s="20" t="n"/>
       <c r="AE8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF8" s="25" t="n"/>
-      <c r="AG8" s="26" t="n"/>
-      <c r="AH8" s="26" t="n"/>
-      <c r="AI8" s="26" t="n"/>
-      <c r="AJ8" s="26" t="n"/>
+      <c r="AF8" s="20" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
       <c r="AK8" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5539,7 +4287,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
@@ -5548,9 +4296,9 @@
         <v>3.5</v>
       </c>
       <c r="C9" s="8" t="n"/>
-      <c r="D9" s="26" t="n"/>
-      <c r="E9" s="26" t="n"/>
-      <c r="F9" s="26" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
       <c r="G9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5611,36 +4359,36 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="S9" s="26" t="n"/>
-      <c r="T9" s="26" t="n"/>
-      <c r="U9" s="26" t="n"/>
-      <c r="V9" s="26" t="n"/>
-      <c r="W9" s="26" t="n"/>
-      <c r="X9" s="26" t="n"/>
-      <c r="Y9" s="26" t="n"/>
-      <c r="Z9" s="26" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
       <c r="AA9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB9" s="25" t="n"/>
+      <c r="AB9" s="20" t="n"/>
       <c r="AC9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD9" s="25" t="n"/>
+      <c r="AD9" s="20" t="n"/>
       <c r="AE9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF9" s="25" t="n"/>
-      <c r="AG9" s="26" t="n"/>
-      <c r="AH9" s="26" t="n"/>
-      <c r="AI9" s="26" t="n"/>
-      <c r="AJ9" s="26" t="n"/>
+      <c r="AF9" s="20" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
       <c r="AK9" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5648,14 +4396,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="n"/>
-      <c r="B10" s="26" t="n">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n">
         <v>3.4</v>
       </c>
       <c r="C10" s="8" t="n"/>
-      <c r="D10" s="26" t="n"/>
-      <c r="E10" s="26" t="n"/>
-      <c r="F10" s="26" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
       <c r="G10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5716,36 +4464,36 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="S10" s="26" t="n"/>
-      <c r="T10" s="26" t="n"/>
-      <c r="U10" s="26" t="n"/>
-      <c r="V10" s="26" t="n"/>
-      <c r="W10" s="26" t="n"/>
-      <c r="X10" s="26" t="n"/>
-      <c r="Y10" s="26" t="n"/>
-      <c r="Z10" s="26" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
       <c r="AA10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB10" s="25" t="n"/>
+      <c r="AB10" s="20" t="n"/>
       <c r="AC10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD10" s="25" t="n"/>
+      <c r="AD10" s="20" t="n"/>
       <c r="AE10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF10" s="25" t="n"/>
-      <c r="AG10" s="26" t="n"/>
-      <c r="AH10" s="26" t="n"/>
-      <c r="AI10" s="26" t="n"/>
-      <c r="AJ10" s="26" t="n"/>
+      <c r="AF10" s="20" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
       <c r="AK10" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5753,14 +4501,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="n"/>
-      <c r="B11" s="26" t="n">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n">
         <v>3.3</v>
       </c>
       <c r="C11" s="8" t="n"/>
-      <c r="D11" s="26" t="n"/>
-      <c r="E11" s="26" t="n"/>
-      <c r="F11" s="26" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
       <c r="G11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5821,36 +4569,36 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="S11" s="26" t="n"/>
-      <c r="T11" s="26" t="n"/>
-      <c r="U11" s="26" t="n"/>
-      <c r="V11" s="26" t="n"/>
-      <c r="W11" s="26" t="n"/>
-      <c r="X11" s="26" t="n"/>
-      <c r="Y11" s="26" t="n"/>
-      <c r="Z11" s="26" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
       <c r="AA11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB11" s="25" t="n"/>
+      <c r="AB11" s="20" t="n"/>
       <c r="AC11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD11" s="25" t="n"/>
+      <c r="AD11" s="20" t="n"/>
       <c r="AE11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF11" s="25" t="n"/>
-      <c r="AG11" s="26" t="n"/>
-      <c r="AH11" s="26" t="n"/>
-      <c r="AI11" s="26" t="n"/>
-      <c r="AJ11" s="26" t="n"/>
+      <c r="AF11" s="20" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
       <c r="AK11" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5858,22 +4606,22 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="n"/>
-      <c r="B12" s="26" t="n">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n">
         <v>3.2</v>
       </c>
       <c r="C12" s="8" t="n"/>
-      <c r="D12" s="26" t="n"/>
-      <c r="E12" s="26" t="n"/>
-      <c r="F12" s="26" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="H12" s="26" t="n"/>
-      <c r="I12" s="26" t="n"/>
-      <c r="J12" s="26" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
       <c r="K12" s="8" t="n"/>
-      <c r="L12" s="26" t="n"/>
-      <c r="M12" s="26" t="n"/>
-      <c r="N12" s="26" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
       <c r="O12" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5929,48 +4677,48 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z12" s="26" t="n"/>
+      <c r="Z12" s="1" t="n"/>
       <c r="AA12" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB12" s="25" t="n"/>
+      <c r="AB12" s="20" t="n"/>
       <c r="AC12" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD12" s="25" t="n"/>
+      <c r="AD12" s="20" t="n"/>
       <c r="AE12" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF12" s="25" t="n"/>
-      <c r="AG12" s="26" t="n"/>
-      <c r="AH12" s="26" t="n"/>
-      <c r="AI12" s="26" t="n"/>
-      <c r="AJ12" s="26" t="n"/>
-      <c r="AK12" s="26" t="n"/>
+      <c r="AF12" s="20" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="n"/>
-      <c r="B13" s="26" t="n">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n">
         <v>3.1</v>
       </c>
       <c r="C13" s="8" t="n"/>
-      <c r="D13" s="26" t="n"/>
-      <c r="E13" s="26" t="n"/>
-      <c r="F13" s="26" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
       <c r="G13" s="8" t="n"/>
-      <c r="H13" s="26" t="n"/>
-      <c r="I13" s="26" t="n"/>
-      <c r="J13" s="26" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
       <c r="K13" s="8" t="n"/>
-      <c r="L13" s="26" t="n"/>
-      <c r="M13" s="26" t="n"/>
-      <c r="N13" s="26" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
       <c r="O13" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6026,33 +4774,33 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z13" s="26" t="n"/>
+      <c r="Z13" s="1" t="n"/>
       <c r="AA13" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB13" s="25" t="n"/>
+      <c r="AB13" s="20" t="n"/>
       <c r="AC13" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD13" s="25" t="n"/>
+      <c r="AD13" s="20" t="n"/>
       <c r="AE13" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF13" s="25" t="n"/>
-      <c r="AG13" s="26" t="n"/>
-      <c r="AH13" s="26" t="n"/>
-      <c r="AI13" s="26" t="n"/>
-      <c r="AJ13" s="26" t="n"/>
-      <c r="AK13" s="26" t="n"/>
+      <c r="AF13" s="20" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
@@ -6061,17 +4809,17 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="n"/>
-      <c r="D14" s="26" t="n"/>
-      <c r="E14" s="26" t="n"/>
-      <c r="F14" s="26" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
       <c r="G14" s="8" t="n"/>
-      <c r="H14" s="26" t="n"/>
-      <c r="I14" s="26" t="n"/>
-      <c r="J14" s="26" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
       <c r="K14" s="8" t="n"/>
-      <c r="L14" s="26" t="n"/>
-      <c r="M14" s="26" t="n"/>
-      <c r="N14" s="26" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
       <c r="O14" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6127,48 +4875,48 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z14" s="26" t="n"/>
+      <c r="Z14" s="1" t="n"/>
       <c r="AA14" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB14" s="25" t="n"/>
+      <c r="AB14" s="20" t="n"/>
       <c r="AC14" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD14" s="25" t="n"/>
+      <c r="AD14" s="20" t="n"/>
       <c r="AE14" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF14" s="25" t="n"/>
-      <c r="AG14" s="26" t="n"/>
-      <c r="AH14" s="26" t="n"/>
-      <c r="AI14" s="26" t="n"/>
-      <c r="AJ14" s="26" t="n"/>
-      <c r="AK14" s="26" t="n"/>
+      <c r="AF14" s="20" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="n"/>
-      <c r="B15" s="26" t="n">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n">
         <v>2.9</v>
       </c>
       <c r="C15" s="8" t="n"/>
-      <c r="D15" s="26" t="n"/>
-      <c r="E15" s="26" t="n"/>
-      <c r="F15" s="26" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="H15" s="26" t="n"/>
-      <c r="I15" s="26" t="n"/>
-      <c r="J15" s="26" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
       <c r="K15" s="8" t="n"/>
-      <c r="L15" s="26" t="n"/>
-      <c r="M15" s="26" t="n"/>
-      <c r="N15" s="26" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
       <c r="O15" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6224,48 +4972,48 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z15" s="26" t="n"/>
+      <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB15" s="25" t="n"/>
+      <c r="AB15" s="20" t="n"/>
       <c r="AC15" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD15" s="25" t="n"/>
+      <c r="AD15" s="20" t="n"/>
       <c r="AE15" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF15" s="25" t="n"/>
-      <c r="AG15" s="26" t="n"/>
-      <c r="AH15" s="26" t="n"/>
-      <c r="AI15" s="26" t="n"/>
-      <c r="AJ15" s="26" t="n"/>
-      <c r="AK15" s="26" t="n"/>
+      <c r="AF15" s="20" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="n"/>
-      <c r="B16" s="26" t="n">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
         <v>2.8</v>
       </c>
       <c r="C16" s="8" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="26" t="n"/>
-      <c r="F16" s="26" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="H16" s="26" t="n"/>
-      <c r="I16" s="26" t="n"/>
-      <c r="J16" s="26" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
       <c r="K16" s="8" t="n"/>
-      <c r="L16" s="26" t="n"/>
-      <c r="M16" s="26" t="n"/>
-      <c r="N16" s="26" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
       <c r="O16" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6321,56 +5069,56 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z16" s="26" t="n"/>
+      <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AB16" s="25" t="n"/>
+      <c r="AB16" s="20" t="n"/>
       <c r="AC16" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD16" s="25" t="n"/>
+      <c r="AD16" s="20" t="n"/>
       <c r="AE16" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF16" s="25" t="n"/>
-      <c r="AG16" s="26" t="n"/>
-      <c r="AH16" s="26" t="n"/>
-      <c r="AI16" s="26" t="n"/>
-      <c r="AJ16" s="26" t="n"/>
-      <c r="AK16" s="26" t="n"/>
+      <c r="AF16" s="20" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="26" t="n"/>
-      <c r="B17" s="26" t="n">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n">
         <v>2.7</v>
       </c>
       <c r="C17" s="8" t="n"/>
-      <c r="D17" s="26" t="n"/>
-      <c r="E17" s="26" t="n"/>
-      <c r="F17" s="26" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
       <c r="G17" s="8" t="n"/>
-      <c r="H17" s="26" t="n"/>
-      <c r="I17" s="26" t="n"/>
-      <c r="J17" s="26" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
       <c r="K17" s="8" t="n"/>
-      <c r="L17" s="26" t="n"/>
-      <c r="M17" s="26" t="n"/>
-      <c r="N17" s="26" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
       <c r="O17" s="8" t="n"/>
-      <c r="P17" s="26" t="n"/>
-      <c r="Q17" s="26" t="n"/>
-      <c r="R17" s="26" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
       <c r="S17" s="8" t="n"/>
-      <c r="T17" s="26" t="n"/>
-      <c r="U17" s="26" t="n"/>
-      <c r="V17" s="26" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
       <c r="W17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6386,29 +5134,29 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z17" s="26" t="n"/>
-      <c r="AA17" s="26" t="n"/>
-      <c r="AB17" s="26" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD17" s="25" t="n"/>
+      <c r="AD17" s="20" t="n"/>
       <c r="AE17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF17" s="25" t="n"/>
+      <c r="AF17" s="20" t="n"/>
       <c r="AG17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AH17" s="25" t="n"/>
-      <c r="AI17" s="26" t="n"/>
-      <c r="AJ17" s="26" t="n"/>
+      <c r="AH17" s="20" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
       <c r="AK17" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6416,30 +5164,30 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="n"/>
-      <c r="B18" s="26" t="n">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n">
         <v>2.6</v>
       </c>
       <c r="C18" s="8" t="n"/>
-      <c r="D18" s="26" t="n"/>
-      <c r="E18" s="26" t="n"/>
-      <c r="F18" s="26" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
       <c r="G18" s="8" t="n"/>
-      <c r="H18" s="26" t="n"/>
-      <c r="I18" s="26" t="n"/>
-      <c r="J18" s="26" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
       <c r="K18" s="8" t="n"/>
-      <c r="L18" s="26" t="n"/>
-      <c r="M18" s="26" t="n"/>
-      <c r="N18" s="26" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
       <c r="O18" s="8" t="n"/>
-      <c r="P18" s="26" t="n"/>
-      <c r="Q18" s="26" t="n"/>
-      <c r="R18" s="26" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
       <c r="S18" s="8" t="n"/>
-      <c r="T18" s="26" t="n"/>
-      <c r="U18" s="26" t="n"/>
-      <c r="V18" s="26" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
       <c r="W18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6455,29 +5203,29 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z18" s="26" t="n"/>
-      <c r="AA18" s="26" t="n"/>
-      <c r="AB18" s="26" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
       <c r="AC18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD18" s="25" t="n"/>
+      <c r="AD18" s="20" t="n"/>
       <c r="AE18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF18" s="25" t="n"/>
+      <c r="AF18" s="20" t="n"/>
       <c r="AG18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AH18" s="25" t="n"/>
-      <c r="AI18" s="26" t="n"/>
-      <c r="AJ18" s="26" t="n"/>
+      <c r="AH18" s="20" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
       <c r="AK18" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6485,7 +5233,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
@@ -6494,25 +5242,25 @@
         <v>2.5</v>
       </c>
       <c r="C19" s="8" t="n"/>
-      <c r="D19" s="26" t="n"/>
-      <c r="E19" s="26" t="n"/>
-      <c r="F19" s="26" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
       <c r="G19" s="8" t="n"/>
-      <c r="H19" s="26" t="n"/>
-      <c r="I19" s="26" t="n"/>
-      <c r="J19" s="26" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
       <c r="K19" s="8" t="n"/>
-      <c r="L19" s="26" t="n"/>
-      <c r="M19" s="26" t="n"/>
-      <c r="N19" s="26" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
       <c r="O19" s="8" t="n"/>
-      <c r="P19" s="26" t="n"/>
-      <c r="Q19" s="26" t="n"/>
-      <c r="R19" s="26" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
       <c r="S19" s="8" t="n"/>
-      <c r="T19" s="26" t="n"/>
-      <c r="U19" s="26" t="n"/>
-      <c r="V19" s="26" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
       <c r="W19" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6528,29 +5276,29 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="Z19" s="26" t="n"/>
-      <c r="AA19" s="26" t="n"/>
-      <c r="AB19" s="26" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
       <c r="AC19" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AD19" s="25" t="n"/>
+      <c r="AD19" s="20" t="n"/>
       <c r="AE19" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AF19" s="25" t="n"/>
+      <c r="AF19" s="20" t="n"/>
       <c r="AG19" s="19" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="AH19" s="25" t="n"/>
-      <c r="AI19" s="26" t="n"/>
-      <c r="AJ19" s="26" t="n"/>
+      <c r="AH19" s="20" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
       <c r="AK19" s="19" t="inlineStr">
         <is>
           <t>〇</t>
@@ -6558,11 +5306,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="AD21" s="27" t="inlineStr">
-        <is>
-          <t>ALL_CAL_ADD_POINT1</t>
-        </is>
-      </c>
+      <c r="AD21" s="18" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -6578,9 +5322,9 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="S1:V1"/>
@@ -6593,20 +5337,20 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="AG19:AH19"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="W1:Z1"/>
@@ -6618,8 +5362,8 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>
@@ -6627,7 +5371,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -633,7 +633,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -696,29 +696,29 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
@@ -734,29 +734,29 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
@@ -772,29 +772,29 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
@@ -810,29 +810,29 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
@@ -848,29 +848,29 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
@@ -886,16 +886,16 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴えりんご</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
@@ -1000,16 +1000,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
@@ -1038,16 +1038,16 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1266,16 +1266,16 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>1</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>1</v>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>1</v>
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1380,25 +1380,25 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="I20" s="3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1418,16 +1418,16 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>1</v>
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="I21" s="3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1456,16 +1456,16 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>1</v>
@@ -1482,27 +1482,49 @@
         </is>
       </c>
       <c r="I22" s="3" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="0" t="n"/>
-      <c r="C23" s="0" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="A23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>🔵そう</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
           <t>待機</t>
         </is>
       </c>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="0" t="n"/>
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n"/>
@@ -1624,13 +1646,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -1708,16 +1730,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -1743,7 +1765,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1752,7 +1774,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -1778,12 +1800,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -1794,7 +1816,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1809,12 +1835,12 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -1825,7 +1851,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1840,7 +1870,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1849,18 +1879,14 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1875,12 +1901,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -1906,7 +1932,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1937,12 +1963,12 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -1968,16 +1994,16 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1999,12 +2025,12 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -2030,7 +2056,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2059,9 +2085,9 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="B14" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2090,14 +2116,14 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -2123,12 +2149,12 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -2147,19 +2173,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -2185,7 +2211,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2216,12 +2242,12 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -2247,7 +2273,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2278,7 +2304,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2302,19 +2328,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr"/>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
@@ -2329,10 +2359,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2341,14 +2375,14 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
+      <c r="F23" s="0" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2359,7 +2393,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2386,16 +2420,16 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -2413,16 +2447,16 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -2440,7 +2474,7 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2449,7 +2483,7 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
@@ -2467,7 +2501,7 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2476,7 +2510,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2494,16 +2528,16 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
@@ -2521,12 +2555,12 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -2548,12 +2582,12 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -2575,12 +2609,12 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -2602,12 +2636,12 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -2629,12 +2663,12 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -2656,7 +2690,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2683,12 +2717,12 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -2710,7 +2744,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2737,16 +2771,16 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
@@ -2764,16 +2798,16 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2791,16 +2825,16 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
@@ -2818,7 +2852,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2827,7 +2861,7 @@
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
@@ -2845,7 +2879,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2861,11 +2895,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2876,12 +2906,12 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2892,7 +2922,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2903,7 +2937,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2930,7 +2964,7 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2957,7 +2991,7 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2984,7 +3018,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -3011,7 +3045,7 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -3038,12 +3072,12 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -3065,7 +3099,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -3092,7 +3126,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -3119,12 +3153,12 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
@@ -3146,12 +3180,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -3173,7 +3207,7 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3200,7 +3234,7 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -3227,7 +3261,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3254,7 +3288,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3281,7 +3315,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3308,7 +3342,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3335,7 +3369,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3362,7 +3396,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3389,7 +3423,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3443,12 +3477,12 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -3497,16 +3531,16 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
@@ -3524,7 +3558,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3551,7 +3585,7 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3578,12 +3612,12 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
@@ -3605,12 +3639,12 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
@@ -3632,12 +3666,12 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3659,7 +3693,7 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3686,7 +3720,7 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3713,7 +3747,7 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3740,12 +3774,12 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3767,7 +3801,7 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3794,7 +3828,7 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3821,7 +3855,7 @@
       <c r="A78" s="3" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3848,7 +3882,7 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3875,12 +3909,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3902,7 +3936,7 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3929,7 +3963,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3956,12 +3990,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3983,12 +4017,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -4010,7 +4044,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -4037,12 +4071,12 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -4064,12 +4098,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -4091,7 +4125,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -4118,16 +4152,16 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
@@ -4145,7 +4179,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -4172,7 +4206,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵せいたろう</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4199,12 +4233,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -4223,39 +4257,36 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F93" s="0" t="inlineStr"/>
+      <c r="F93" s="3" t="inlineStr"/>
       <c r="G93" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
+    <row r="94"/>
   </sheetData>
   <autoFilter ref="A1:G65">
-    <sortState ref="A2:G92">
+    <sortState ref="A2:G93">
       <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
@@ -4306,48 +4337,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>🔵ならい</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>🔵ぐっぴー</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>🔵安田たかひろ</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Aコート</t>
-        </is>
-      </c>
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>🔵こうじ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>🔵こばやし</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Cコート</t>
-        </is>
-      </c>
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4367,7 +4366,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4410,108 +4409,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>🔴ともね</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>🔴ゆい</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>🔴ともみ</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>🔴まや</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>🔵金カツ</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>🔴たぬき</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>🔴hama</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n"/>
@@ -4535,7 +4462,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -6353,12 +6280,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6371,9 +6298,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6402,7 +6329,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -633,7 +633,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>1</v>
@@ -1489,42 +1489,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>🔵そう</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="0" t="n"/>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="0" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n"/>
@@ -1646,13 +1620,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -2344,7 +2318,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
@@ -2359,11 +2333,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A23" s="0" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
           <t>🔵そう</t>
@@ -4283,7 +4253,34 @@
         </is>
       </c>
     </row>
-    <row r="94"/>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr"/>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>🔴かつまた</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr"/>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="95"/>
   </sheetData>
   <autoFilter ref="A1:G65">
     <sortState ref="A2:G93">
@@ -4301,7 +4298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -4335,18 +4332,6 @@
           <t>コート</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n"/>
-      <c r="B2" s="0" t="n"/>
-      <c r="C2" s="0" t="n"/>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4366,7 +4351,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4462,7 +4447,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -6280,12 +6265,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6298,9 +6283,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6329,7 +6314,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -633,7 +633,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -734,7 +734,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -886,12 +886,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -1071,422 +1071,136 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="0" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>🔴ともね</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="0" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔴ゆい</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="0" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="0" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="0" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>🔴たぬき</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="0" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="0" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>🔵金カツ</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="0" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>🔴hama</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="0" t="n"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="0" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>🔴ゆーみ</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="0" t="n"/>
+      <c r="C21" s="0" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="0" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>🔴小林友人</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="0" t="n"/>
+      <c r="C22" s="0" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="0" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
@@ -1620,13 +1334,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -1704,7 +1418,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1739,12 +1453,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -1755,11 +1469,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1844,12 +1554,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -1875,7 +1585,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1899,19 +1609,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -1922,7 +1632,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1930,19 +1640,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -1953,7 +1663,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
+      <c r="F10" s="0" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1961,19 +1671,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -1984,7 +1694,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
+      <c r="F11" s="0" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1992,11 +1702,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="0" t="inlineStr">
         <is>
           <t>🔵Gen</t>
@@ -2023,11 +1729,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
           <t>🔴ともね</t>
@@ -2054,11 +1756,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
           <t>🔴ゆい</t>
@@ -2085,11 +1783,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="19" t="inlineStr">
         <is>
           <t>🔴えりんご</t>
@@ -2116,11 +1810,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
           <t>🔵shunpon</t>
@@ -2147,11 +1837,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
           <t>🔴たぬき</t>
@@ -2178,11 +1864,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A18" s="0" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
           <t>🔵西郷</t>
@@ -2209,11 +1891,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A19" s="0" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
           <t>🔵金カツ</t>
@@ -2240,11 +1918,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A20" s="0" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
           <t>🔴hama</t>
@@ -2271,11 +1945,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A21" s="0" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
           <t>🔴ゆーみ</t>
@@ -2302,30 +1972,30 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2333,10 +2003,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr"/>
+      <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2345,14 +2015,14 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2363,7 +2033,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2390,7 +2060,7 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -2417,12 +2087,12 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -2444,12 +2114,12 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -2471,12 +2141,12 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -2498,12 +2168,12 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -2525,7 +2195,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2552,7 +2222,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2579,7 +2249,7 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2606,12 +2276,12 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -2633,7 +2303,7 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2660,7 +2330,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2687,7 +2357,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2696,7 +2366,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2714,16 +2384,16 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2741,12 +2411,12 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
@@ -2768,12 +2438,12 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -2795,7 +2465,7 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2819,15 +2489,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
+      <c r="A41" s="0" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -2849,12 +2519,12 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2876,12 +2546,12 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2892,11 +2562,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2907,12 +2573,12 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -2934,12 +2600,12 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2961,12 +2627,12 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -2977,7 +2643,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2988,7 +2658,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -3015,7 +2685,7 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -3042,7 +2712,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -3069,12 +2739,12 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
@@ -3096,12 +2766,12 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -3123,7 +2793,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -3150,12 +2820,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -3177,7 +2847,7 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3204,12 +2874,12 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -3231,7 +2901,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3258,7 +2928,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3285,7 +2955,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3312,7 +2982,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3339,7 +3009,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3366,7 +3036,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3393,7 +3063,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3420,7 +3090,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3447,7 +3117,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔵🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3474,12 +3144,12 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -3501,12 +3171,12 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -3528,16 +3198,16 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
@@ -3555,16 +3225,16 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
@@ -3579,10 +3249,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr"/>
+      <c r="A69" s="0" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3598,7 +3268,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr"/>
+      <c r="F69" s="0" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3609,12 +3279,12 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
@@ -3636,7 +3306,7 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3663,12 +3333,12 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
@@ -3690,7 +3360,7 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3717,12 +3387,12 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -3744,7 +3414,7 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -3771,12 +3441,12 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
@@ -3798,12 +3468,12 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
@@ -3825,12 +3495,12 @@
       <c r="A78" s="3" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3852,7 +3522,7 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3879,7 +3549,7 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3906,12 +3576,12 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3933,12 +3603,12 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
@@ -3960,12 +3630,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3987,12 +3657,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -4014,7 +3684,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -4041,7 +3711,7 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -4068,7 +3738,7 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -4095,7 +3765,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -4122,7 +3792,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -4149,7 +3819,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -4158,7 +3828,7 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
@@ -4176,16 +3846,16 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
@@ -4203,16 +3873,16 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
@@ -4227,64 +3897,145 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr"/>
+      <c r="A93" s="0" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
+          <t>🔴かつまた</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr"/>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr"/>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr"/>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr"/>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr"/>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr"/>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr"/>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr"/>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
           <t>🔴シャンシャン</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="D97" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr"/>
-      <c r="G93" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="inlineStr"/>
-      <c r="B94" s="0" t="inlineStr">
-        <is>
-          <t>🔴かつまた</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F94" s="0" t="inlineStr"/>
-      <c r="G94" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="95"/>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr"/>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="98"/>
   </sheetData>
   <autoFilter ref="A1:G65">
-    <sortState ref="A2:G93">
-      <sortCondition ref="A1:A65"/>
+    <sortState ref="A2:G97">
+      <sortCondition descending="1" ref="A1:A65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4298,7 +4049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -4332,6 +4083,18 @@
           <t>コート</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4351,7 +4114,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4447,7 +4210,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -6265,12 +6028,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6283,9 +6046,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6314,7 +6077,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\OneDrive\デスクトップ\WebAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39379F86-C964-426E-BDA6-E5C2CA827382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58897774-B383-4EE8-AC0B-B3BE42A02F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="131">
   <si>
     <t>参加</t>
   </si>
@@ -624,14 +624,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1673,16 +1673,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -1699,10 +1699,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>3.5</v>
@@ -1722,10 +1722,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>3.5</v>
@@ -1733,7 +1733,9 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1760,11 +1762,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1775,7 +1777,7 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -1806,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>3.5</v>
@@ -1823,11 +1825,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>130</v>
+      <c r="A12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -1838,23 +1840,23 @@
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12"/>
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -3606,117 +3608,117 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
       <c r="AA1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="22"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="20">
         <v>0</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20">
         <v>1</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="20">
         <v>0</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="20">
         <v>1</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22"/>
       <c r="AA2" s="24">
         <v>4</v>
       </c>
-      <c r="AB2" s="21"/>
+      <c r="AB2" s="22"/>
       <c r="AC2" s="24">
         <v>4</v>
       </c>
-      <c r="AD2" s="21"/>
+      <c r="AD2" s="22"/>
       <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="20">
         <v>0</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="22"/>
       <c r="AK2" s="15">
         <v>1</v>
       </c>
@@ -3879,16 +3881,16 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="21"/>
+      <c r="AA4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="21"/>
+      <c r="AE4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -3940,16 +3942,16 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="16"/>
-      <c r="AE5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF5" s="21"/>
+      <c r="AE5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -4001,16 +4003,16 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="21"/>
+      <c r="AA6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" s="21"/>
+      <c r="AE6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -4070,18 +4072,18 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="21"/>
+      <c r="AA7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -4143,18 +4145,18 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="21"/>
+      <c r="AA8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="22"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -4218,18 +4220,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="21"/>
+      <c r="AA9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -4291,18 +4293,18 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="21"/>
+      <c r="AA10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -4364,18 +4366,18 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF11" s="21"/>
+      <c r="AA11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -4435,18 +4437,18 @@
         <v>23</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF12" s="21"/>
+      <c r="AA12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF12" s="22"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -4504,18 +4506,18 @@
         <v>23</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF13" s="21"/>
+      <c r="AA13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF13" s="22"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -4575,18 +4577,18 @@
         <v>23</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF14" s="21"/>
+      <c r="AA14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF14" s="22"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -4644,18 +4646,18 @@
         <v>23</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF15" s="21"/>
+      <c r="AA15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="22"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -4713,18 +4715,18 @@
         <v>23</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF16" s="21"/>
+      <c r="AA16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="22"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4768,18 +4770,18 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH17" s="21"/>
+      <c r="AC17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH17" s="22"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="12" t="s">
@@ -4823,18 +4825,18 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH18" s="21"/>
+      <c r="AC18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH18" s="22"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="12" t="s">
@@ -4880,18 +4882,18 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH19" s="21"/>
+      <c r="AC19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH19" s="22"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="12" t="s">
@@ -4903,11 +4905,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AE13:AF13"/>
@@ -4924,48 +4963,11 @@
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC19:AD19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\OneDrive\デスクトップ\WebAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58897774-B383-4EE8-AC0B-B3BE42A02F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09E4F2-7C9C-47E9-9AED-7E994613E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="133">
   <si>
     <t>参加</t>
   </si>
@@ -417,6 +417,14 @@
   </si>
   <si>
     <t>指</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のっぽ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇</t>
@@ -1573,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1869,20 +1877,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>35</v>
+      <c r="A14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +1899,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
@@ -1909,7 +1918,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
@@ -1928,10 +1937,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1947,10 +1956,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
@@ -1966,10 +1975,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -1985,10 +1994,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
@@ -2004,7 +2013,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
@@ -2023,10 +2032,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -2042,10 +2051,10 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
@@ -2061,7 +2070,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
@@ -2080,7 +2089,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
@@ -2099,7 +2108,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -2118,13 +2127,13 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>23</v>
@@ -2137,10 +2146,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3">
         <v>3.5</v>
@@ -2156,10 +2165,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3">
         <v>3.5</v>
@@ -2175,7 +2184,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>11</v>
@@ -2194,10 +2203,10 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3">
         <v>3.5</v>
@@ -2211,9 +2220,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -2230,9 +2239,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
+      <c r="A33"/>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
@@ -2251,7 +2260,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -2270,10 +2279,10 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
@@ -2289,7 +2298,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
@@ -2308,10 +2317,10 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
@@ -2327,7 +2336,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -2346,7 +2355,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -2365,7 +2374,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
@@ -2384,7 +2393,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
@@ -2403,10 +2412,10 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
@@ -2422,7 +2431,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -2441,7 +2450,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
@@ -2460,10 +2469,10 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
@@ -2479,10 +2488,10 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
@@ -2498,7 +2507,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
@@ -2517,7 +2526,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>11</v>
@@ -2536,7 +2545,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
@@ -2555,7 +2564,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
@@ -2574,7 +2583,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
@@ -2593,7 +2602,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
@@ -2612,7 +2621,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
@@ -2631,7 +2640,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>11</v>
@@ -2650,7 +2659,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
@@ -2688,10 +2697,10 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3">
         <v>3.5</v>
@@ -2726,13 +2735,13 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D59" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>23</v>
@@ -2745,10 +2754,10 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
@@ -2764,7 +2773,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
@@ -2782,8 +2791,8 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
-      <c r="B62" s="19" t="s">
-        <v>27</v>
+      <c r="B62" t="s">
+        <v>26</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
@@ -2801,11 +2810,11 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>28</v>
+      <c r="B63" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
@@ -2821,10 +2830,10 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
@@ -2838,12 +2847,12 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65"/>
+      <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
@@ -2859,7 +2868,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66"/>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>11</v>
@@ -2878,10 +2887,10 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
@@ -2897,7 +2906,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68"/>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>15</v>
@@ -2916,10 +2925,10 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
@@ -2927,15 +2936,15 @@
       <c r="E69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F69"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
+      <c r="A70"/>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>11</v>
@@ -2946,7 +2955,7 @@
       <c r="E70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70"/>
       <c r="G70" s="3" t="s">
         <v>23</v>
       </c>
@@ -2954,7 +2963,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>11</v>
@@ -2973,7 +2982,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>11</v>
@@ -2992,10 +3001,10 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
@@ -3011,10 +3020,10 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
@@ -3030,10 +3039,10 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3">
         <v>3</v>
@@ -3049,7 +3058,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>15</v>
@@ -3068,7 +3077,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>15</v>
@@ -3087,7 +3096,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>15</v>
@@ -3106,10 +3115,10 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
@@ -3125,7 +3134,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>11</v>
@@ -3144,7 +3153,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>11</v>
@@ -3163,7 +3172,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>11</v>
@@ -3182,7 +3191,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>11</v>
@@ -3201,10 +3210,10 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3">
         <v>3</v>
@@ -3220,7 +3229,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>15</v>
@@ -3239,7 +3248,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>15</v>
@@ -3258,10 +3267,10 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D87" s="3">
         <v>3</v>
@@ -3277,10 +3286,10 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D88" s="3">
         <v>3</v>
@@ -3296,7 +3305,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>15</v>
@@ -3315,10 +3324,10 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D90" s="3">
         <v>3</v>
@@ -3334,10 +3343,10 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D91" s="3">
         <v>3</v>
@@ -3353,7 +3362,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>15</v>
@@ -3370,9 +3379,9 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93"/>
+      <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>15</v>
@@ -3383,26 +3392,26 @@
       <c r="E93" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F93"/>
+      <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3"/>
+      <c r="A94"/>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D94" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94"/>
       <c r="G94" s="3" t="s">
         <v>23</v>
       </c>
@@ -3410,7 +3419,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>11</v>
@@ -3429,7 +3438,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>11</v>
@@ -3448,10 +3457,10 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D97" s="3">
         <v>2.5</v>
@@ -3464,9 +3473,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G97">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G98">
       <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\OneDrive\デスクトップ\WebAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09E4F2-7C9C-47E9-9AED-7E994613E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07224156-04E4-4323-9493-0F3D0A35F288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="135">
   <si>
     <t>参加</t>
   </si>
@@ -68,19 +68,91 @@
     <t>待機</t>
   </si>
   <si>
+    <t>🔵今枝</t>
+  </si>
+  <si>
+    <t>🔵前田</t>
+  </si>
+  <si>
+    <t>🔵落合</t>
+  </si>
+  <si>
+    <t>🔵望月</t>
+  </si>
+  <si>
+    <t>🔴かえで</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>🔵とも</t>
+  </si>
+  <si>
+    <t>🔴えりな</t>
+  </si>
+  <si>
+    <t>🔴ひろみ</t>
+  </si>
+  <si>
+    <t>🔵そーま</t>
+  </si>
+  <si>
+    <t>🔵てぃの</t>
+  </si>
+  <si>
+    <t>🔴よこゆか</t>
+  </si>
+  <si>
+    <t>🔴もーちゃん</t>
+  </si>
+  <si>
+    <t>🔵こしいし</t>
+  </si>
+  <si>
+    <t>🔵格之進</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
     <t>🔵ゆうた</t>
   </si>
   <si>
     <t>🔴まひろ</t>
   </si>
   <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>🔴かえで</t>
-  </si>
-  <si>
-    <t>🔵とも</t>
+    <t>🔵こばやし</t>
+  </si>
+  <si>
+    <t>🔴小熊</t>
+  </si>
+  <si>
+    <t>🔵秋山</t>
+  </si>
+  <si>
+    <t>🔴石川</t>
+  </si>
+  <si>
+    <t>🔵野澤</t>
+  </si>
+  <si>
+    <t>🔵根津</t>
+  </si>
+  <si>
+    <t>🔴すわめん</t>
+  </si>
+  <si>
+    <t>🔵山口</t>
+  </si>
+  <si>
+    <t>🔵天野</t>
+  </si>
+  <si>
+    <t>🔵しんげん</t>
+  </si>
+  <si>
+    <t>🔵きなり</t>
   </si>
   <si>
     <t>🔴ななこ</t>
@@ -98,7 +170,85 @@
     <t>🔵石上</t>
   </si>
   <si>
-    <t>〇</t>
+    <t>🔵むね</t>
+  </si>
+  <si>
+    <t>🔵ならい</t>
+  </si>
+  <si>
+    <t>🔴ともみ</t>
+  </si>
+  <si>
+    <t>🔵ぐっぴー</t>
+  </si>
+  <si>
+    <t>🔵安田たかひろ</t>
+  </si>
+  <si>
+    <t>🔴まや</t>
+  </si>
+  <si>
+    <t>🔴小林友人</t>
+  </si>
+  <si>
+    <t>🔵またがわ</t>
+  </si>
+  <si>
+    <t>🔵平山</t>
+  </si>
+  <si>
+    <t>🔴そが</t>
+  </si>
+  <si>
+    <t>🔴れいか</t>
+  </si>
+  <si>
+    <t>🔴柴田</t>
+  </si>
+  <si>
+    <t>🔴chie</t>
+  </si>
+  <si>
+    <t>🔵なんば</t>
+  </si>
+  <si>
+    <t>🔵かいと</t>
+  </si>
+  <si>
+    <t>🔴せーな</t>
+  </si>
+  <si>
+    <t>🔵桐下</t>
+  </si>
+  <si>
+    <t>🔵さいとう</t>
+  </si>
+  <si>
+    <t>🔵サトシ</t>
+  </si>
+  <si>
+    <t>🔵谷村</t>
+  </si>
+  <si>
+    <t>🔵にっしー</t>
+  </si>
+  <si>
+    <t>🔵はしもと</t>
+  </si>
+  <si>
+    <t>🔵ひろき</t>
+  </si>
+  <si>
+    <t>🔵ゆう</t>
+  </si>
+  <si>
+    <t>🔵[FREE_中]</t>
+  </si>
+  <si>
+    <t>🔴[FREE_中]</t>
+  </si>
+  <si>
+    <t>🔵のっぽ</t>
   </si>
   <si>
     <t>🔵Gen</t>
@@ -131,141 +281,6 @@
     <t>🔴ゆーみ</t>
   </si>
   <si>
-    <t>🔵こばやし</t>
-  </si>
-  <si>
-    <t>🔵今枝</t>
-  </si>
-  <si>
-    <t>🔵前田</t>
-  </si>
-  <si>
-    <t>🔵落合</t>
-  </si>
-  <si>
-    <t>🔴小熊</t>
-  </si>
-  <si>
-    <t>🔵秋山</t>
-  </si>
-  <si>
-    <t>🔴石川</t>
-  </si>
-  <si>
-    <t>🔵野澤</t>
-  </si>
-  <si>
-    <t>🔵根津</t>
-  </si>
-  <si>
-    <t>🔴すわめん</t>
-  </si>
-  <si>
-    <t>🔵山口</t>
-  </si>
-  <si>
-    <t>🔵天野</t>
-  </si>
-  <si>
-    <t>🔵しんげん</t>
-  </si>
-  <si>
-    <t>🔵きなり</t>
-  </si>
-  <si>
-    <t>🔵ならい</t>
-  </si>
-  <si>
-    <t>🔴ともみ</t>
-  </si>
-  <si>
-    <t>🔵ぐっぴー</t>
-  </si>
-  <si>
-    <t>🔵安田たかひろ</t>
-  </si>
-  <si>
-    <t>🔴まや</t>
-  </si>
-  <si>
-    <t>🔴小林友人</t>
-  </si>
-  <si>
-    <t>🔴えりな</t>
-  </si>
-  <si>
-    <t>🔴ひろみ</t>
-  </si>
-  <si>
-    <t>🔵またがわ</t>
-  </si>
-  <si>
-    <t>🔵平山</t>
-  </si>
-  <si>
-    <t>🔵むね</t>
-  </si>
-  <si>
-    <t>🔴そが</t>
-  </si>
-  <si>
-    <t>🔴れいか</t>
-  </si>
-  <si>
-    <t>🔴柴田</t>
-  </si>
-  <si>
-    <t>🔴もーちゃん</t>
-  </si>
-  <si>
-    <t>🔴chie</t>
-  </si>
-  <si>
-    <t>🔵なんば</t>
-  </si>
-  <si>
-    <t>🔵そーま</t>
-  </si>
-  <si>
-    <t>🔵かいと</t>
-  </si>
-  <si>
-    <t>🔴せーな</t>
-  </si>
-  <si>
-    <t>🔵桐下</t>
-  </si>
-  <si>
-    <t>🔵さいとう</t>
-  </si>
-  <si>
-    <t>🔵サトシ</t>
-  </si>
-  <si>
-    <t>🔵谷村</t>
-  </si>
-  <si>
-    <t>🔵てぃの</t>
-  </si>
-  <si>
-    <t>🔵にっしー</t>
-  </si>
-  <si>
-    <t>🔵はしもと</t>
-  </si>
-  <si>
-    <t>🔵ひろき</t>
-  </si>
-  <si>
-    <t>🔵ゆう</t>
-  </si>
-  <si>
-    <t>🔵🔴[FREE_中]</t>
-  </si>
-  <si>
-    <t>🔴[FREE_中]</t>
-  </si>
-  <si>
     <t>🔵そう</t>
   </si>
   <si>
@@ -417,25 +432,13 @@
   </si>
   <si>
     <t>指</t>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>のっぽ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +481,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +641,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1049,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -1072,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -1101,19 +1115,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1133,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1165,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>3.5</v>
@@ -1177,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1200,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>3.5</v>
@@ -1209,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1232,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>3.5</v>
@@ -1264,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
         <v>3.5</v>
@@ -1321,64 +1335,164 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12"/>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13"/>
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14"/>
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15"/>
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16"/>
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1581,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1618,7 +1732,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1629,15 +1743,17 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1649,42 +1765,40 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1693,152 +1807,150 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>3.5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
         <v>3.5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>3.5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1846,98 +1958,103 @@
         <v>3.5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>130</v>
+      <c r="A13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3">
         <v>3.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>11</v>
@@ -1946,36 +2063,38 @@
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
@@ -1984,36 +2103,38 @@
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
@@ -2022,55 +2143,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
@@ -2079,36 +2200,36 @@
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3">
         <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -2117,17 +2238,17 @@
         <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -2136,169 +2257,171 @@
         <v>4</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3">
         <v>3.5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3">
         <v>3.5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
+      <c r="A32"/>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3">
         <v>3.5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F32"/>
       <c r="G32" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3">
         <v>3.5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F33"/>
       <c r="G33" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34"/>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3">
         <v>3.5</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F34"/>
       <c r="G34" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
@@ -2307,131 +2430,131 @@
         <v>3.5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
         <v>3.5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
         <v>3.5</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3">
         <v>3.5</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3">
         <v>3.5</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
+      <c r="A41"/>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" s="3">
         <v>3.5</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3">
         <v>3.5</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
@@ -2440,112 +2563,112 @@
         <v>3.5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D44" s="3">
         <v>3.5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D45" s="3">
         <v>3.5</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46" s="3">
         <v>3.5</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D47" s="3">
         <v>3.5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D48" s="3">
         <v>3.5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
@@ -2554,17 +2677,17 @@
         <v>3.5</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
@@ -2573,36 +2696,36 @@
         <v>3.5</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D51" s="3">
         <v>3.5</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
@@ -2611,17 +2734,17 @@
         <v>3.5</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
@@ -2630,17 +2753,17 @@
         <v>3.5</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>11</v>
@@ -2649,17 +2772,17 @@
         <v>3.5</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>11</v>
@@ -2668,17 +2791,17 @@
         <v>3.5</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>11</v>
@@ -2687,17 +2810,17 @@
         <v>3.5</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>11</v>
@@ -2706,131 +2829,131 @@
         <v>3.5</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3">
         <v>3.5</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D59" s="3">
         <v>3.5</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
-      <c r="B60" t="s">
-        <v>24</v>
+      <c r="B60" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
-      <c r="B61" t="s">
-        <v>25</v>
+      <c r="B61" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
-      <c r="B63" s="19" t="s">
-        <v>27</v>
+      <c r="B63" t="s">
+        <v>72</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3"/>
+      <c r="A64"/>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>11</v>
@@ -2839,129 +2962,129 @@
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F64"/>
       <c r="G64" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3">
         <v>3</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66"/>
+      <c r="A66" s="3"/>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67"/>
+      <c r="A67" s="3"/>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D67" s="3">
         <v>3</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68"/>
-      <c r="B68" t="s">
-        <v>32</v>
+      <c r="A68" s="3"/>
+      <c r="B68" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D68" s="3">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69"/>
+      <c r="A69" s="3"/>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70"/>
+      <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70"/>
+        <v>28</v>
+      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
+      <c r="A71"/>
       <c r="B71" t="s">
         <v>80</v>
       </c>
@@ -2972,15 +3095,15 @@
         <v>3</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
+      <c r="A72"/>
       <c r="B72" t="s">
         <v>81</v>
       </c>
@@ -2991,53 +3114,53 @@
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
+      <c r="A73"/>
       <c r="B73" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D73" s="3">
         <v>3</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
+      <c r="A74"/>
       <c r="B74" t="s">
         <v>83</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="3"/>
+      <c r="A75"/>
       <c r="B75" t="s">
         <v>84</v>
       </c>
@@ -3048,11 +3171,11 @@
         <v>3</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -3061,17 +3184,17 @@
         <v>85</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D76" s="3">
         <v>3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
@@ -3080,17 +3203,17 @@
         <v>86</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3">
         <v>3</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -3099,17 +3222,17 @@
         <v>87</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
@@ -3118,17 +3241,17 @@
         <v>88</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D79" s="3">
         <v>3</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -3143,11 +3266,11 @@
         <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
@@ -3156,17 +3279,17 @@
         <v>90</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -3175,17 +3298,17 @@
         <v>91</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
@@ -3194,17 +3317,17 @@
         <v>92</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D83" s="3">
         <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
@@ -3213,17 +3336,17 @@
         <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D84" s="3">
         <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
@@ -3232,17 +3355,17 @@
         <v>94</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3">
         <v>3</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -3251,17 +3374,17 @@
         <v>95</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3">
         <v>3</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
@@ -3270,17 +3393,17 @@
         <v>96</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D87" s="3">
         <v>3</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
@@ -3295,11 +3418,11 @@
         <v>3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.45">
@@ -3308,131 +3431,131 @@
         <v>98</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D89" s="3">
         <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D90" s="3">
         <v>3</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D91" s="3">
         <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D92" s="3">
         <v>3</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D93" s="3">
         <v>3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94"/>
+      <c r="A94" s="3"/>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D94" s="3">
         <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94"/>
+        <v>28</v>
+      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D95" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.45">
@@ -3444,14 +3567,14 @@
         <v>11</v>
       </c>
       <c r="D96" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
@@ -3460,17 +3583,17 @@
         <v>105</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D97" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -3479,22 +3602,117 @@
         <v>106</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D98" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99"/>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="3"/>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="3"/>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G98">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G103">
       <sortCondition ref="A1:A65"/>
     </sortState>
   </autoFilter>
@@ -3516,19 +3734,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3558,22 +3776,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3636,117 +3854,117 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="24" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="20" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="23"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="20">
+        <v>131</v>
+      </c>
+      <c r="C2" s="21">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21">
         <v>1</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="21">
         <v>0</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="21">
         <v>1</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="20">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="21">
         <v>0</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="20">
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="21">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="24">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="25">
         <v>4</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="24">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="25">
         <v>4</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="24">
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="25">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="20">
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="21">
         <v>0</v>
       </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="23"/>
       <c r="AK2" s="15">
         <v>1</v>
       </c>
@@ -3760,138 +3978,138 @@
         <v>11</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AA3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AF3" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AK3" s="14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B4" s="13">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3909,16 +4127,16 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="22"/>
+      <c r="AA4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="16"/>
-      <c r="AE4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="22"/>
+      <c r="AE4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="23"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -3931,28 +4149,28 @@
         <v>3.9</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3970,16 +4188,16 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="22"/>
+      <c r="AA5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="16"/>
-      <c r="AE5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF5" s="22"/>
+      <c r="AE5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -3992,28 +4210,28 @@
         <v>3.8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4031,16 +4249,16 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="22"/>
+      <c r="AA6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" s="22"/>
+      <c r="AE6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -4057,40 +4275,40 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -4100,24 +4318,24 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="22"/>
+      <c r="AA7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="23"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -4130,40 +4348,40 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -4173,29 +4391,29 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="22"/>
+      <c r="AA8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B9" s="13">
         <v>3.5</v>
@@ -4205,40 +4423,40 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -4248,24 +4466,24 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="22"/>
+      <c r="AA9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF9" s="23"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -4278,40 +4496,40 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -4321,24 +4539,24 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="22"/>
+      <c r="AA10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="23"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -4351,40 +4569,40 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -4394,24 +4612,24 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF11" s="22"/>
+      <c r="AA11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -4432,51 +4650,51 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF12" s="22"/>
+      <c r="AA12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="23"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -4501,51 +4719,51 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF13" s="22"/>
+      <c r="AA13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -4554,7 +4772,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -4572,51 +4790,51 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF14" s="22"/>
+      <c r="AA14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="23"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -4641,51 +4859,51 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF15" s="22"/>
+      <c r="AA15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -4710,51 +4928,51 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF16" s="22"/>
+      <c r="AA16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" s="23"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -4787,33 +5005,33 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH17" s="22"/>
+      <c r="AC17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="23"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
@@ -4842,38 +5060,38 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH18" s="22"/>
+      <c r="AC18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH18" s="23"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B19" s="13">
         <v>2.5</v>
@@ -4899,33 +5117,33 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH19" s="22"/>
+      <c r="AC19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH19" s="23"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomok\OneDrive\デスクトップ\WebAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07224156-04E4-4323-9493-0F3D0A35F288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767133B-ACFF-4882-A6F4-E37AF3D5792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="135">
   <si>
     <t>参加</t>
   </si>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1743,9 +1743,7 @@
       <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1764,9 +1762,7 @@
       <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -5151,19 +5147,40 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="S1:V1"/>
@@ -5180,40 +5197,19 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
     <sheet name="level" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$64</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -644,7 +644,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -729,7 +729,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Cコート</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
@@ -821,12 +821,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -836,14 +836,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Cコート</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
@@ -897,29 +897,29 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
@@ -935,12 +935,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Cコート</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
@@ -973,12 +973,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -988,14 +988,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Cコート</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -1196,156 +1196,56 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔴もーちゃん</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
           <t>待機</t>
         </is>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="0" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>🔵こしいし</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="0" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>🔵格之進</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="0" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>🔵かずま</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="0" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -1530,10 +1430,10 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -1638,7 +1538,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1654,7 +1554,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
+      <c r="F4" s="0" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1662,19 +1562,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A5" s="3" t="inlineStr"/>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -1685,7 +1581,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
+      <c r="F5" s="0" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1693,19 +1589,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -1716,7 +1612,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1731,7 +1631,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1832,7 +1732,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1863,7 +1763,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1894,12 +1794,12 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -1925,7 +1825,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1941,7 +1841,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr"/>
+      <c r="F13" s="0" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1956,7 +1856,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1980,19 +1880,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -2003,11 +1903,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2015,19 +1911,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -2038,7 +1930,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2046,14 +1938,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2062,14 +1950,14 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2077,14 +1965,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2093,14 +1977,14 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F18" s="0" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2108,10 +1992,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
+      <c r="A19" s="0" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -2127,11 +2011,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F19" s="0" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2142,12 +2022,12 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -2158,7 +2038,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2169,12 +2053,12 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -2185,11 +2069,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2200,12 +2080,12 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -2216,7 +2096,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2227,12 +2111,12 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -2254,12 +2138,12 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -2281,12 +2165,12 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2308,7 +2192,7 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2335,12 +2219,12 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -2362,12 +2246,12 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -2389,7 +2273,7 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2416,7 +2300,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2443,7 +2327,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2470,16 +2354,16 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2497,7 +2381,7 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2521,15 +2405,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr"/>
+      <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -2540,7 +2424,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="0" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2548,15 +2432,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr"/>
+      <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -2567,7 +2451,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F35" s="0" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2578,7 +2462,7 @@
       <c r="A36" s="0" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2602,10 +2486,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr"/>
+      <c r="A37" s="0" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2621,11 +2505,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F37" s="0" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2633,10 +2513,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
+      <c r="A38" s="0" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2652,7 +2532,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr"/>
+      <c r="F38" s="0" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2660,10 +2540,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
+      <c r="A39" s="0" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2679,7 +2559,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr"/>
+      <c r="F39" s="0" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2687,15 +2567,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
+      <c r="A40" s="0" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2706,7 +2586,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="F40" s="0" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2717,7 +2597,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2733,7 +2613,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2744,12 +2628,12 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2768,10 +2652,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr"/>
+      <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2798,7 +2682,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2825,7 +2709,7 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2852,7 +2736,7 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2876,10 +2760,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr"/>
+      <c r="A47" s="0" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2906,12 +2790,12 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2933,12 +2817,12 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2960,7 +2844,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2987,12 +2871,12 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -3014,12 +2898,12 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
@@ -3041,7 +2925,7 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -3068,7 +2952,7 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3095,12 +2979,12 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -3122,7 +3006,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3149,7 +3033,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3176,7 +3060,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3203,7 +3087,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3230,7 +3114,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3257,7 +3141,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3282,9 +3166,9 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr"/>
-      <c r="B62" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3309,9 +3193,9 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr"/>
-      <c r="B63" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3336,14 +3220,14 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr"/>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>🔴[FREE_中]</t>
+      <c r="B64" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -3363,14 +3247,14 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr"/>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>🔴[FREE_中]</t>
+      <c r="B65" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -3389,26 +3273,26 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="inlineStr"/>
+      <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F66" s="0" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3419,16 +3303,16 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
@@ -3443,15 +3327,15 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr"/>
+      <c r="A68" s="0" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
@@ -3462,7 +3346,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr"/>
+      <c r="F68" s="0" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3473,12 +3357,12 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
@@ -3498,9 +3382,9 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr"/>
-      <c r="B70" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3525,14 +3409,14 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr"/>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
+      <c r="B71" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3554,12 +3438,12 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
@@ -3578,15 +3462,15 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="inlineStr"/>
+      <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -3608,7 +3492,7 @@
       <c r="A74" s="0" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3635,12 +3519,12 @@
       <c r="A75" s="0" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3662,7 +3546,7 @@
       <c r="A76" s="0" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3689,12 +3573,12 @@
       <c r="A77" s="0" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
@@ -3705,7 +3589,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F77" s="0" t="inlineStr"/>
+      <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3713,10 +3597,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr"/>
+      <c r="A78" s="0" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3732,7 +3616,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr"/>
+      <c r="F78" s="0" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3743,7 +3627,7 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3770,7 +3654,7 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3797,12 +3681,12 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3824,12 +3708,12 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
@@ -3851,12 +3735,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3878,7 +3762,7 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3905,7 +3789,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3932,7 +3816,7 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3959,12 +3843,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3986,7 +3870,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -4013,7 +3897,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -4040,7 +3924,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -4067,7 +3951,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4094,12 +3978,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -4121,7 +4005,7 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -4148,7 +4032,7 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -4175,12 +4059,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4202,12 +4086,12 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
@@ -4229,7 +4113,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4256,12 +4140,12 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
@@ -4283,12 +4167,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4310,7 +4194,7 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4334,10 +4218,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="inlineStr"/>
+      <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4353,7 +4237,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F101" s="0" t="inlineStr"/>
+      <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4361,26 +4245,26 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr"/>
+      <c r="A102" s="0" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr"/>
+      <c r="F102" s="0" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4391,7 +4275,7 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4418,7 +4302,7 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵せいたろう</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -4445,12 +4329,12 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
@@ -4468,11 +4352,37 @@
         </is>
       </c>
     </row>
-    <row r="106"/>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr"/>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="inlineStr"/>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G65">
-    <sortState ref="A2:G105">
-      <sortCondition ref="A1:A65"/>
+  <autoFilter ref="A1:G64">
+    <sortState ref="A2:G106">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4486,7 +4396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -4518,6 +4428,13 @@
       <c r="E1" s="4" t="inlineStr">
         <is>
           <t>コート</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Cコート</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4456,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4582,36 +4499,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>🔵こうじ</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>🔵渡邊</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>🔴ひろみ</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>🔴もーちゃん</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>🔵三田</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>🔴ななこ</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>🔴未来</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>🔵石上</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n"/>
@@ -4635,7 +4616,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -6471,9 +6452,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6502,7 +6483,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -644,7 +644,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -729,7 +729,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -757,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>1</v>
@@ -783,29 +783,29 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
@@ -821,16 +821,16 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
@@ -897,12 +897,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -912,14 +912,14 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
@@ -935,12 +935,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -950,14 +950,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Cコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
@@ -1049,16 +1049,16 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
@@ -1082,118 +1082,40 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>🔵石上</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Cコート</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="0" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>🔴なお</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="0" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔵かいと</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="0" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -1203,11 +1125,7 @@
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
+      <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="0" t="n"/>
     </row>
@@ -1427,13 +1345,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -1511,7 +1429,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1522,8 +1440,16 @@
       <c r="D3" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1538,23 +1464,27 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1562,26 +1492,34 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1596,27 +1534,23 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1624,14 +1558,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1640,14 +1574,14 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1662,7 +1596,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1678,11 +1612,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1697,27 +1627,23 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1732,7 +1658,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1741,7 +1667,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1756,23 +1682,23 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1787,29 +1713,21 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
@@ -1818,14 +1736,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1834,7 +1748,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1849,14 +1763,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1865,7 +1775,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1880,30 +1790,30 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1911,26 +1821,26 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr"/>
+      <c r="F16" s="0" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2022,12 +1932,12 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -2038,11 +1948,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2053,12 +1959,12 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -2069,7 +1975,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2080,12 +1990,12 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -2096,11 +2006,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F22" s="3" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2111,12 +2017,12 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -2138,12 +2044,12 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -2165,12 +2071,12 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2192,7 +2098,7 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2219,12 +2125,12 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -2246,12 +2152,12 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -2273,7 +2179,7 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2300,7 +2206,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2327,7 +2233,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2354,16 +2260,16 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2381,7 +2287,7 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2408,12 +2314,12 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -2435,7 +2341,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2451,7 +2357,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr"/>
+      <c r="F35" s="0" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2459,15 +2365,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr"/>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -2486,10 +2392,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr"/>
+      <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2505,7 +2411,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F37" s="0" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2513,15 +2419,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr"/>
+      <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
@@ -2532,7 +2438,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="0" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2540,10 +2446,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr"/>
+      <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2559,7 +2465,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F39" s="0" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2567,15 +2473,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr"/>
+      <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2586,7 +2492,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F40" s="0" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2597,7 +2503,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2613,11 +2519,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2625,10 +2527,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr"/>
+      <c r="A42" s="0" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2644,7 +2546,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="F42" s="0" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2652,15 +2554,15 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr"/>
+      <c r="A43" s="0" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2671,7 +2573,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="0" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2679,10 +2581,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr"/>
+      <c r="A44" s="0" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2698,7 +2600,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr"/>
+      <c r="F44" s="0" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2706,15 +2608,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr"/>
+      <c r="A45" s="0" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2725,7 +2627,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
+      <c r="F45" s="0" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2733,10 +2635,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr"/>
+      <c r="A46" s="0" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2752,7 +2654,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
+      <c r="F46" s="0" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2760,15 +2662,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr"/>
+      <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -2779,7 +2681,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2790,12 +2696,12 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2817,7 +2723,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2844,7 +2750,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2868,10 +2774,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr"/>
+      <c r="A51" s="0" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2898,12 +2804,12 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
@@ -2925,12 +2831,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -2952,12 +2858,12 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
@@ -2979,7 +2885,7 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -3006,12 +2912,12 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
@@ -3033,12 +2939,12 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
@@ -3060,7 +2966,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3087,12 +2993,12 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
@@ -3114,7 +3020,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3141,7 +3047,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3168,7 +3074,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3195,7 +3101,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3220,9 +3126,9 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr"/>
-      <c r="B64" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3247,9 +3153,9 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr"/>
-      <c r="B65" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3276,12 +3182,12 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -3303,12 +3209,12 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
@@ -3327,10 +3233,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="inlineStr"/>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>🔵のっぽ</t>
+      <c r="A68" s="3" t="inlineStr"/>
+      <c r="B68" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3339,14 +3245,14 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="0" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3355,9 +3261,9 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr"/>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>🔵Gen</t>
+      <c r="B69" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3366,7 +3272,7 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
@@ -3384,7 +3290,7 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3393,7 +3299,7 @@
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
@@ -3409,9 +3315,9 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr"/>
-      <c r="B71" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3420,7 +3326,7 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
@@ -3435,10 +3341,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr"/>
+      <c r="A72" s="0" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3454,7 +3360,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F72" s="3" t="inlineStr"/>
+      <c r="F72" s="0" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3465,12 +3371,12 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -3489,15 +3395,15 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="inlineStr"/>
+      <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -3516,15 +3422,15 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="inlineStr"/>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>🔵金カツ</t>
+      <c r="A75" s="3" t="inlineStr"/>
+      <c r="B75" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3543,15 +3449,15 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="inlineStr"/>
+      <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
@@ -3570,10 +3476,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="inlineStr"/>
+      <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3600,7 +3506,7 @@
       <c r="A78" s="0" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3616,7 +3522,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="0" t="inlineStr"/>
+      <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3624,10 +3530,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr"/>
+      <c r="A79" s="0" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3651,15 +3557,15 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr"/>
+      <c r="A80" s="0" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3678,15 +3584,15 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr"/>
+      <c r="A81" s="0" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3705,15 +3611,15 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr"/>
+      <c r="A82" s="0" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
@@ -3724,7 +3630,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr"/>
+      <c r="F82" s="0" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3735,7 +3641,7 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3762,12 +3668,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -3789,12 +3695,12 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
@@ -3816,7 +3722,7 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3843,12 +3749,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3870,12 +3776,12 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
@@ -3897,12 +3803,12 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
@@ -3924,12 +3830,12 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
@@ -3951,12 +3857,12 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
@@ -3978,7 +3884,7 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -4005,12 +3911,12 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
@@ -4032,12 +3938,12 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -4059,12 +3965,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4086,7 +3992,7 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4113,7 +4019,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4167,12 +4073,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4194,12 +4100,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4221,7 +4127,7 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4245,10 +4151,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="inlineStr"/>
+      <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4264,7 +4170,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F102" s="0" t="inlineStr"/>
+      <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4275,7 +4181,7 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4284,7 +4190,7 @@
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
@@ -4302,16 +4208,16 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
@@ -4329,16 +4235,16 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
@@ -4353,10 +4259,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr"/>
+      <c r="A106" s="0" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4365,23 +4271,105 @@
         </is>
       </c>
       <c r="D106" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F106" s="0" t="inlineStr"/>
+      <c r="G106" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr"/>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F106" s="3" t="inlineStr"/>
-      <c r="G106" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="inlineStr"/>
+      <c r="G107" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr"/>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="inlineStr"/>
+      <c r="G108" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr"/>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="inlineStr"/>
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="110"/>
   </sheetData>
   <autoFilter ref="A1:G64">
-    <sortState ref="A2:G106">
+    <sortState ref="A2:G109">
       <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
@@ -4432,11 +4420,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Cコート</t>
-        </is>
-      </c>
+      <c r="E2" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,7 +4440,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4499,100 +4483,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>🔴かえで</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>🔵こうじ</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>🔵渡邊</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>🔴ひろみ</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>🔴もーちゃん</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>🔵三田</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>🔴ななこ</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr"/>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>🔵とも</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>🔵石上</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n"/>
@@ -4616,7 +4536,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -6434,12 +6354,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6452,9 +6372,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6483,7 +6403,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
@@ -745,16 +745,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -821,22 +821,22 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -1011,16 +1011,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1049,16 +1049,16 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
@@ -1082,40 +1082,118 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="0" t="n"/>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="0" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>🔵西郷</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="0" t="n"/>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="0" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>🔵金カツ</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="0" t="n"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="0" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔵にわ</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -1345,10 +1423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A14" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1402,7 +1480,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1413,13 +1491,21 @@
       <c r="D2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1429,16 +1515,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -1464,7 +1550,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1473,18 +1559,14 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1499,27 +1581,23 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1534,7 +1612,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1543,13 +1621,9 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -1565,7 +1639,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1574,7 +1648,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -1596,7 +1670,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1612,7 +1686,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1627,7 +1701,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1636,7 +1710,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
@@ -1658,47 +1732,47 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>🔴ともみ</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>🔵ICHIJIKU</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
       <c r="D11" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1713,10 +1787,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1725,9 +1803,13 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
@@ -1736,10 +1818,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1748,14 +1834,14 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1763,19 +1849,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1793,38 +1883,30 @@
       <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="G15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1833,14 +1915,18 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1851,7 +1937,7 @@
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1860,7 +1946,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -1878,7 +1964,7 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1887,7 +1973,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -1902,19 +1988,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr"/>
+      <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
@@ -1929,19 +2015,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr"/>
+      <c r="A20" s="0" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -1959,7 +2045,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1975,11 +2061,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F21" s="0" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1990,7 +2072,7 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2006,7 +2088,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
+      <c r="F22" s="0" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2017,12 +2099,12 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -2033,7 +2115,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2041,15 +2127,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr"/>
+      <c r="A24" s="0" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -2060,7 +2146,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr"/>
+      <c r="F24" s="0" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2071,7 +2157,7 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -2095,10 +2181,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr"/>
+      <c r="A26" s="0" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2114,7 +2200,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="0" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2125,7 +2211,7 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2152,7 +2238,7 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2168,7 +2254,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2179,12 +2269,12 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -2206,7 +2296,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2233,12 +2323,12 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -2260,16 +2350,16 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2287,16 +2377,16 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
@@ -2314,7 +2404,7 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2323,7 +2413,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
@@ -2341,7 +2431,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2350,14 +2440,14 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F35" s="0" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2365,26 +2455,26 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F36" s="0" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2395,7 +2485,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2404,7 +2494,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2422,16 +2512,16 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
@@ -2449,7 +2539,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2476,12 +2566,12 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2503,7 +2593,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2519,7 +2609,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="0" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2530,12 +2620,12 @@
       <c r="A42" s="0" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2554,10 +2644,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr"/>
+      <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2573,7 +2663,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="0" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2581,15 +2671,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr"/>
+      <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
@@ -2600,7 +2690,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F44" s="0" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2608,15 +2698,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr"/>
+      <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2627,7 +2717,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="0" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2635,15 +2725,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr"/>
+      <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -2654,7 +2744,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="0" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2662,10 +2752,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr"/>
+      <c r="A47" s="0" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2681,11 +2771,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F47" s="0" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2693,15 +2779,15 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
+      <c r="A48" s="0" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2712,7 +2798,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr"/>
+      <c r="F48" s="0" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2720,15 +2806,15 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr"/>
+      <c r="A49" s="0" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2739,7 +2825,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr"/>
+      <c r="F49" s="0" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2747,10 +2833,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr"/>
+      <c r="A50" s="0" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2766,7 +2852,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="0" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2774,15 +2860,15 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr"/>
+      <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -2793,7 +2879,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2804,7 +2894,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2831,12 +2921,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -2855,10 +2945,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr"/>
+      <c r="A54" s="0" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2885,12 +2975,12 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -2912,12 +3002,12 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
@@ -2939,7 +3029,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2966,12 +3056,12 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
@@ -2993,7 +3083,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3020,12 +3110,12 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D60" s="3" t="n">
@@ -3047,7 +3137,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3074,12 +3164,12 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
@@ -3101,7 +3191,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3128,7 +3218,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3155,7 +3245,7 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3182,7 +3272,7 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3209,7 +3299,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3234,9 +3324,9 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr"/>
-      <c r="B68" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3261,9 +3351,9 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr"/>
-      <c r="B69" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3290,12 +3380,12 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
@@ -3315,14 +3405,14 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr"/>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>🔴[FREE_中]</t>
+      <c r="B71" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3341,10 +3431,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="inlineStr"/>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>🔵のっぽ</t>
+      <c r="A72" s="3" t="inlineStr"/>
+      <c r="B72" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3353,14 +3443,14 @@
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F72" s="0" t="inlineStr"/>
+      <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3371,16 +3461,16 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
@@ -3398,7 +3488,7 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3407,7 +3497,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
@@ -3422,15 +3512,15 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr"/>
-      <c r="B75" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="A75" s="0" t="inlineStr"/>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3441,7 +3531,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F75" s="3" t="inlineStr"/>
+      <c r="F75" s="0" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3452,7 +3542,7 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3479,7 +3569,7 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3503,15 +3593,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="inlineStr"/>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
+      <c r="A78" s="3" t="inlineStr"/>
+      <c r="B78" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3530,10 +3620,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="inlineStr"/>
+      <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3557,10 +3647,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="inlineStr"/>
+      <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3587,7 +3677,7 @@
       <c r="A81" s="0" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3614,12 +3704,12 @@
       <c r="A82" s="0" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
@@ -3630,7 +3720,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F82" s="0" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3638,10 +3728,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr"/>
+      <c r="A83" s="0" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3657,7 +3747,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr"/>
+      <c r="F83" s="0" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3668,7 +3758,7 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3695,7 +3785,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3722,12 +3812,12 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -3749,12 +3839,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3776,12 +3866,12 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
@@ -3803,7 +3893,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3830,7 +3920,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3857,7 +3947,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -3884,12 +3974,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -3911,7 +4001,7 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -3938,7 +4028,7 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3965,7 +4055,7 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -3992,7 +4082,7 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4019,12 +4109,12 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
@@ -4046,7 +4136,7 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -4073,7 +4163,7 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4100,12 +4190,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4127,12 +4217,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4154,7 +4244,7 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4181,12 +4271,12 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
@@ -4208,12 +4298,12 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4235,7 +4325,7 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4259,10 +4349,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="inlineStr"/>
+      <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4278,7 +4368,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F106" s="0" t="inlineStr"/>
+      <c r="F106" s="3" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4286,26 +4376,26 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr"/>
+      <c r="A107" s="0" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F107" s="3" t="inlineStr"/>
+      <c r="F107" s="0" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4316,7 +4406,7 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4343,7 +4433,7 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵せいたろう</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4366,10 +4456,37 @@
         </is>
       </c>
     </row>
-    <row r="110"/>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr"/>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="inlineStr"/>
+      <c r="G110" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="111"/>
   </sheetData>
   <autoFilter ref="A1:G64">
-    <sortState ref="A2:G109">
+    <sortState ref="A2:G110">
       <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
@@ -4384,7 +4501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -4420,7 +4537,74 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
       <c r="E2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6354,12 +6538,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6372,9 +6556,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6403,7 +6587,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -250,14 +250,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +644,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -707,7 +707,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
@@ -745,19 +745,19 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1196,40 +1196,118 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="0" t="n"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="0" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>🔴中瀬</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="0" t="n"/>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="0" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>🔵金カツ</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="0" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>🔵林</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -1423,13 +1501,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B11" activeCellId="5" sqref="B16:B17 B5:B6 B3:B4 B13 B8 B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
@@ -1480,7 +1558,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1491,13 +1569,21 @@
       <c r="D2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1507,18 +1593,22 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
@@ -1534,7 +1624,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1543,14 +1633,18 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1565,7 +1659,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1574,7 +1668,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
@@ -1596,7 +1690,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1627,7 +1721,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1643,11 +1737,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1662,7 +1752,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1693,12 +1783,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -1724,7 +1814,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1748,14 +1838,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1786,7 +1876,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1817,7 +1907,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1833,7 +1923,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr"/>
+      <c r="F13" s="0" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1841,14 +1931,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1864,7 +1954,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1872,10 +1962,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1884,18 +1978,14 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1903,10 +1993,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1915,7 +2009,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
@@ -1930,10 +2024,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1942,18 +2040,14 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1964,7 +2058,7 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1975,39 +2069,31 @@
       <c r="D18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2015,10 +2101,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr"/>
+      <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2034,7 +2120,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F20" s="0" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2042,10 +2128,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr"/>
+      <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2061,7 +2147,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="0" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2072,7 +2158,7 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2088,7 +2174,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2099,7 +2189,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2115,11 +2205,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2130,12 +2216,12 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -2146,7 +2232,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr"/>
+      <c r="F24" s="0" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2157,12 +2243,12 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2173,7 +2259,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr"/>
+      <c r="F25" s="0" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2181,15 +2267,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr"/>
+      <c r="A26" s="0" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -2200,7 +2286,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="0" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2208,10 +2294,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr"/>
+      <c r="A27" s="0" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2227,7 +2313,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2238,12 +2324,12 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -2265,12 +2351,12 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -2281,7 +2367,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2292,12 +2382,12 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -2319,7 +2409,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2346,12 +2436,12 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D32" s="3" t="n">
@@ -2373,16 +2463,16 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
@@ -2400,23 +2490,23 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="0" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2427,7 +2517,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2436,7 +2526,7 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
@@ -2454,7 +2544,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2463,7 +2553,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2481,16 +2571,16 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2505,10 +2595,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr"/>
+      <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2517,14 +2607,14 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="0" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2535,12 +2625,12 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -2551,7 +2641,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F39" s="0" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2559,10 +2649,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2589,12 +2679,12 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -2605,7 +2695,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="0" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2616,7 +2706,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2632,7 +2722,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="0" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2643,7 +2733,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2659,7 +2749,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="0" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2667,10 +2757,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr"/>
+      <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2686,7 +2776,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F44" s="0" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2694,10 +2784,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr"/>
+      <c r="A45" s="0" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2713,7 +2803,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
+      <c r="F45" s="0" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2724,7 +2814,7 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2740,7 +2830,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
+      <c r="F46" s="0" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2751,7 +2841,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2775,15 +2865,15 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr"/>
+      <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2805,12 +2895,12 @@
       <c r="A49" s="0" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2829,15 +2919,15 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr"/>
+      <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
@@ -2848,7 +2938,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="0" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2856,15 +2946,15 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr"/>
+      <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -2875,7 +2965,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F51" s="0" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2886,7 +2976,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2902,11 +2992,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2917,12 +3003,12 @@
       <c r="A53" s="0" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -2933,7 +3019,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr"/>
+      <c r="F53" s="0" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2941,10 +3027,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr"/>
+      <c r="A54" s="0" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -2960,7 +3046,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr"/>
+      <c r="F54" s="0" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2968,10 +3054,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr"/>
+      <c r="A55" s="0" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2987,7 +3073,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="F55" s="0" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2995,10 +3081,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr"/>
+      <c r="A56" s="0" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3014,7 +3100,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr"/>
+      <c r="F56" s="0" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3025,12 +3111,12 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
@@ -3041,7 +3127,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3049,10 +3139,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr"/>
+      <c r="A58" s="0" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3079,7 +3169,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3106,7 +3196,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3133,12 +3223,12 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -3160,12 +3250,12 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
@@ -3187,7 +3277,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3214,12 +3304,12 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -3241,7 +3331,7 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3268,7 +3358,7 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3295,7 +3385,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3322,7 +3412,7 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3347,9 +3437,9 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr"/>
-      <c r="B69" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3374,9 +3464,9 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr"/>
-      <c r="B70" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3403,12 +3493,12 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3430,12 +3520,12 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
@@ -3455,9 +3545,9 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr"/>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>🔵金カツ</t>
+      <c r="B73" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3466,7 +3556,7 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
@@ -3482,9 +3572,9 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr"/>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
+      <c r="B74" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3493,7 +3583,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
@@ -3508,26 +3598,26 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="inlineStr"/>
+      <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵にわ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F75" s="0" t="inlineStr"/>
+      <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3535,26 +3625,26 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="inlineStr"/>
+      <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F76" s="0" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3565,7 +3655,7 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3589,15 +3679,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr"/>
-      <c r="B78" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="A78" s="0" t="inlineStr"/>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3608,7 +3698,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr"/>
+      <c r="F78" s="0" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3616,10 +3706,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr"/>
+      <c r="A79" s="0" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3635,7 +3725,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr"/>
+      <c r="F79" s="0" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3646,12 +3736,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3670,10 +3760,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="inlineStr"/>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>🔴hama</t>
+      <c r="A81" s="3" t="inlineStr"/>
+      <c r="B81" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3697,15 +3787,15 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="inlineStr"/>
+      <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
@@ -3724,15 +3814,15 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="inlineStr"/>
+      <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3743,7 +3833,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F83" s="0" t="inlineStr"/>
+      <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3751,15 +3841,15 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr"/>
+      <c r="A84" s="0" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -3778,15 +3868,15 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr"/>
+      <c r="A85" s="0" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
@@ -3805,10 +3895,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr"/>
+      <c r="A86" s="0" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3824,7 +3914,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F86" s="3" t="inlineStr"/>
+      <c r="F86" s="0" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3835,12 +3925,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3862,7 +3952,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3889,12 +3979,12 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
@@ -3916,7 +4006,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3943,12 +4033,12 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
@@ -3970,7 +4060,7 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -3997,12 +4087,12 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
@@ -4024,12 +4114,12 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -4051,12 +4141,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4078,7 +4168,7 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4105,7 +4195,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4132,12 +4222,12 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
@@ -4159,12 +4249,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4186,12 +4276,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4213,12 +4303,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4240,7 +4330,7 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4267,7 +4357,7 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4294,7 +4384,7 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -4321,7 +4411,7 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4348,7 +4438,7 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4372,15 +4462,15 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="inlineStr"/>
+      <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -4391,7 +4481,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F107" s="0" t="inlineStr"/>
+      <c r="F107" s="3" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4402,7 +4492,7 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4411,7 +4501,7 @@
         </is>
       </c>
       <c r="D108" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
@@ -4429,7 +4519,7 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4438,7 +4528,7 @@
         </is>
       </c>
       <c r="D109" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
@@ -4453,26 +4543,26 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="inlineStr"/>
+      <c r="A110" s="0" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D110" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F110" s="3" t="inlineStr"/>
+      <c r="F110" s="0" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4480,15 +4570,15 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="inlineStr"/>
+      <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
@@ -4510,12 +4600,12 @@
       <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D112" s="3" t="n">
@@ -4537,7 +4627,7 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4560,10 +4650,91 @@
         </is>
       </c>
     </row>
-    <row r="114"/>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr"/>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>🔵ICHIJIKU</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="inlineStr"/>
+      <c r="G114" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr"/>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr"/>
+      <c r="G115" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr"/>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr"/>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="117"/>
   </sheetData>
   <autoFilter ref="A1:G64">
-    <sortState ref="A2:G113">
+    <sortState ref="A2:G116">
       <sortCondition descending="1" ref="A1:A64"/>
     </sortState>
   </autoFilter>
@@ -4631,7 +4802,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -4727,7 +4898,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -4736,73 +4907,73 @@
     <row r="1">
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="14" t="n"/>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="23" t="n"/>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="D1" s="24" t="n"/>
+      <c r="E1" s="24" t="n"/>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="23" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="22" t="n"/>
-      <c r="I1" s="22" t="n"/>
-      <c r="J1" s="23" t="n"/>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="H1" s="24" t="n"/>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="22" t="n"/>
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="22" t="n"/>
-      <c r="M1" s="22" t="n"/>
-      <c r="N1" s="23" t="n"/>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="L1" s="24" t="n"/>
+      <c r="M1" s="24" t="n"/>
+      <c r="N1" s="22" t="n"/>
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="22" t="n"/>
-      <c r="Q1" s="22" t="n"/>
-      <c r="R1" s="23" t="n"/>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="P1" s="24" t="n"/>
+      <c r="Q1" s="24" t="n"/>
+      <c r="R1" s="22" t="n"/>
+      <c r="S1" s="23" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="22" t="n"/>
-      <c r="U1" s="22" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="T1" s="24" t="n"/>
+      <c r="U1" s="24" t="n"/>
+      <c r="V1" s="22" t="n"/>
+      <c r="W1" s="23" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="22" t="n"/>
-      <c r="Y1" s="22" t="n"/>
-      <c r="Z1" s="23" t="n"/>
+      <c r="X1" s="24" t="n"/>
+      <c r="Y1" s="24" t="n"/>
+      <c r="Z1" s="22" t="n"/>
       <c r="AA1" s="25" t="inlineStr">
         <is>
           <t>全体</t>
         </is>
       </c>
-      <c r="AB1" s="22" t="n"/>
-      <c r="AC1" s="22" t="n"/>
-      <c r="AD1" s="22" t="n"/>
-      <c r="AE1" s="22" t="n"/>
-      <c r="AF1" s="23" t="n"/>
-      <c r="AG1" s="21" t="inlineStr">
+      <c r="AB1" s="24" t="n"/>
+      <c r="AC1" s="24" t="n"/>
+      <c r="AD1" s="24" t="n"/>
+      <c r="AE1" s="24" t="n"/>
+      <c r="AF1" s="22" t="n"/>
+      <c r="AG1" s="23" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AH1" s="22" t="n"/>
-      <c r="AI1" s="22" t="n"/>
-      <c r="AJ1" s="22" t="n"/>
-      <c r="AK1" s="23" t="n"/>
+      <c r="AH1" s="24" t="n"/>
+      <c r="AI1" s="24" t="n"/>
+      <c r="AJ1" s="24" t="n"/>
+      <c r="AK1" s="22" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="14" t="n"/>
@@ -4811,61 +4982,61 @@
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="23" t="n"/>
-      <c r="G2" s="21" t="n">
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="22" t="n"/>
+      <c r="G2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="23" t="n"/>
-      <c r="K2" s="21" t="n">
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="22" t="n"/>
+      <c r="K2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="23" t="n"/>
-      <c r="O2" s="21" t="n">
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="22" t="n"/>
+      <c r="O2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="23" t="n"/>
-      <c r="S2" s="21" t="n">
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="22" t="n"/>
+      <c r="S2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="23" t="n"/>
-      <c r="W2" s="21" t="n">
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="22" t="n"/>
+      <c r="W2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="23" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="22" t="n"/>
       <c r="AA2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AB2" s="23" t="n"/>
+      <c r="AB2" s="22" t="n"/>
       <c r="AC2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AD2" s="23" t="n"/>
+      <c r="AD2" s="22" t="n"/>
       <c r="AE2" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" s="23" t="n"/>
-      <c r="AG2" s="21" t="n">
+      <c r="AF2" s="22" t="n"/>
+      <c r="AG2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="22" t="n"/>
-      <c r="AI2" s="22" t="n"/>
-      <c r="AJ2" s="23" t="n"/>
-      <c r="AK2" s="21" t="n">
+      <c r="AH2" s="24" t="n"/>
+      <c r="AI2" s="24" t="n"/>
+      <c r="AJ2" s="22" t="n"/>
+      <c r="AK2" s="23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5061,42 +5232,42 @@
       <c r="B4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J4" s="24" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J4" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5117,20 +5288,20 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB4" s="23" t="n"/>
+      <c r="AA4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB4" s="22" t="n"/>
       <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="23" t="n"/>
-      <c r="AE4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF4" s="23" t="n"/>
+      <c r="AD4" s="22" t="n"/>
+      <c r="AE4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF4" s="22" t="n"/>
       <c r="AG4" s="1" t="n"/>
       <c r="AH4" s="1" t="n"/>
       <c r="AI4" s="1" t="n"/>
@@ -5142,42 +5313,42 @@
       <c r="B5" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J5" s="24" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5198,20 +5369,20 @@
       <c r="X5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
-      <c r="AA5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB5" s="23" t="n"/>
+      <c r="AA5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB5" s="22" t="n"/>
       <c r="AC5" s="1" t="n"/>
-      <c r="AD5" s="23" t="n"/>
-      <c r="AE5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF5" s="23" t="n"/>
+      <c r="AD5" s="22" t="n"/>
+      <c r="AE5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF5" s="22" t="n"/>
       <c r="AG5" s="1" t="n"/>
       <c r="AH5" s="1" t="n"/>
       <c r="AI5" s="1" t="n"/>
@@ -5223,42 +5394,42 @@
       <c r="B6" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J6" s="24" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J6" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5279,20 +5450,20 @@
       <c r="X6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n"/>
-      <c r="AA6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB6" s="23" t="n"/>
+      <c r="AA6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB6" s="22" t="n"/>
       <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="23" t="n"/>
-      <c r="AE6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF6" s="23" t="n"/>
+      <c r="AD6" s="22" t="n"/>
+      <c r="AE6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF6" s="22" t="n"/>
       <c r="AG6" s="1" t="n"/>
       <c r="AH6" s="1" t="n"/>
       <c r="AI6" s="1" t="n"/>
@@ -5308,62 +5479,62 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R7" s="24" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R7" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5376,29 +5547,29 @@
       <c r="X7" s="1" t="n"/>
       <c r="Y7" s="1" t="n"/>
       <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB7" s="23" t="n"/>
-      <c r="AC7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD7" s="23" t="n"/>
-      <c r="AE7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF7" s="23" t="n"/>
+      <c r="AA7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB7" s="22" t="n"/>
+      <c r="AC7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD7" s="22" t="n"/>
+      <c r="AE7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF7" s="22" t="n"/>
       <c r="AG7" s="1" t="n"/>
       <c r="AH7" s="1" t="n"/>
       <c r="AI7" s="1" t="n"/>
       <c r="AJ7" s="1" t="n"/>
-      <c r="AK7" s="24" t="inlineStr">
+      <c r="AK7" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5413,62 +5584,62 @@
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R8" s="24" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R8" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5481,29 +5652,29 @@
       <c r="X8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB8" s="23" t="n"/>
-      <c r="AC8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD8" s="23" t="n"/>
-      <c r="AE8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF8" s="23" t="n"/>
+      <c r="AA8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB8" s="22" t="n"/>
+      <c r="AC8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD8" s="22" t="n"/>
+      <c r="AE8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF8" s="22" t="n"/>
       <c r="AG8" s="1" t="n"/>
       <c r="AH8" s="1" t="n"/>
       <c r="AI8" s="1" t="n"/>
       <c r="AJ8" s="1" t="n"/>
-      <c r="AK8" s="24" t="inlineStr">
+      <c r="AK8" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5522,62 +5693,62 @@
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R9" s="24" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R9" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5590,29 +5761,29 @@
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB9" s="23" t="n"/>
-      <c r="AC9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD9" s="23" t="n"/>
-      <c r="AE9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF9" s="23" t="n"/>
+      <c r="AA9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB9" s="22" t="n"/>
+      <c r="AC9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD9" s="22" t="n"/>
+      <c r="AE9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF9" s="22" t="n"/>
       <c r="AG9" s="1" t="n"/>
       <c r="AH9" s="1" t="n"/>
       <c r="AI9" s="1" t="n"/>
       <c r="AJ9" s="1" t="n"/>
-      <c r="AK9" s="24" t="inlineStr">
+      <c r="AK9" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5627,62 +5798,62 @@
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R10" s="24" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R10" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5695,29 +5866,29 @@
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
       <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB10" s="23" t="n"/>
-      <c r="AC10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD10" s="23" t="n"/>
-      <c r="AE10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF10" s="23" t="n"/>
+      <c r="AA10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB10" s="22" t="n"/>
+      <c r="AC10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD10" s="22" t="n"/>
+      <c r="AE10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF10" s="22" t="n"/>
       <c r="AG10" s="1" t="n"/>
       <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
       <c r="AJ10" s="1" t="n"/>
-      <c r="AK10" s="24" t="inlineStr">
+      <c r="AK10" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5732,62 +5903,62 @@
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R11" s="24" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R11" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5800,29 +5971,29 @@
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB11" s="23" t="n"/>
-      <c r="AC11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD11" s="23" t="n"/>
-      <c r="AE11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF11" s="23" t="n"/>
+      <c r="AA11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB11" s="22" t="n"/>
+      <c r="AC11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD11" s="22" t="n"/>
+      <c r="AE11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF11" s="22" t="n"/>
       <c r="AG11" s="1" t="n"/>
       <c r="AH11" s="1" t="n"/>
       <c r="AI11" s="1" t="n"/>
       <c r="AJ11" s="1" t="n"/>
-      <c r="AK11" s="24" t="inlineStr">
+      <c r="AK11" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5845,80 +6016,80 @@
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y12" s="24" t="inlineStr">
+      <c r="O12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y12" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB12" s="23" t="n"/>
-      <c r="AC12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD12" s="23" t="n"/>
-      <c r="AE12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF12" s="23" t="n"/>
+      <c r="AA12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB12" s="22" t="n"/>
+      <c r="AC12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD12" s="22" t="n"/>
+      <c r="AE12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF12" s="22" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
       <c r="AI12" s="1" t="n"/>
@@ -5942,80 +6113,80 @@
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
-      <c r="O13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y13" s="24" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y13" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB13" s="23" t="n"/>
-      <c r="AC13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD13" s="23" t="n"/>
-      <c r="AE13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF13" s="23" t="n"/>
+      <c r="AA13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB13" s="22" t="n"/>
+      <c r="AC13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD13" s="22" t="n"/>
+      <c r="AE13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF13" s="22" t="n"/>
       <c r="AG13" s="1" t="n"/>
       <c r="AH13" s="1" t="n"/>
       <c r="AI13" s="1" t="n"/>
@@ -6043,80 +6214,80 @@
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y14" s="24" t="inlineStr">
+      <c r="O14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y14" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB14" s="23" t="n"/>
-      <c r="AC14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD14" s="23" t="n"/>
-      <c r="AE14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF14" s="23" t="n"/>
+      <c r="AA14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB14" s="22" t="n"/>
+      <c r="AC14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD14" s="22" t="n"/>
+      <c r="AE14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF14" s="22" t="n"/>
       <c r="AG14" s="1" t="n"/>
       <c r="AH14" s="1" t="n"/>
       <c r="AI14" s="1" t="n"/>
@@ -6140,80 +6311,80 @@
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y15" s="24" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y15" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB15" s="23" t="n"/>
-      <c r="AC15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD15" s="23" t="n"/>
-      <c r="AE15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF15" s="23" t="n"/>
+      <c r="AA15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB15" s="22" t="n"/>
+      <c r="AC15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD15" s="22" t="n"/>
+      <c r="AE15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF15" s="22" t="n"/>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
@@ -6237,80 +6408,80 @@
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y16" s="24" t="inlineStr">
+      <c r="O16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y16" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB16" s="23" t="n"/>
-      <c r="AC16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD16" s="23" t="n"/>
-      <c r="AE16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF16" s="23" t="n"/>
+      <c r="AA16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB16" s="22" t="n"/>
+      <c r="AC16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD16" s="22" t="n"/>
+      <c r="AE16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF16" s="22" t="n"/>
       <c r="AG16" s="1" t="n"/>
       <c r="AH16" s="1" t="n"/>
       <c r="AI16" s="1" t="n"/>
@@ -6342,17 +6513,17 @@
       <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
-      <c r="W17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y17" s="24" t="inlineStr">
+      <c r="W17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y17" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6360,27 +6531,27 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD17" s="23" t="n"/>
-      <c r="AE17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF17" s="23" t="n"/>
-      <c r="AG17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH17" s="23" t="n"/>
+      <c r="AC17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD17" s="22" t="n"/>
+      <c r="AE17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF17" s="22" t="n"/>
+      <c r="AG17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH17" s="22" t="n"/>
       <c r="AI17" s="1" t="n"/>
       <c r="AJ17" s="1" t="n"/>
-      <c r="AK17" s="24" t="inlineStr">
+      <c r="AK17" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6411,17 +6582,17 @@
       <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="V18" s="1" t="n"/>
-      <c r="W18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y18" s="24" t="inlineStr">
+      <c r="W18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y18" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6429,27 +6600,27 @@
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD18" s="23" t="n"/>
-      <c r="AE18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF18" s="23" t="n"/>
-      <c r="AG18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH18" s="23" t="n"/>
+      <c r="AC18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD18" s="22" t="n"/>
+      <c r="AE18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF18" s="22" t="n"/>
+      <c r="AG18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH18" s="22" t="n"/>
       <c r="AI18" s="1" t="n"/>
       <c r="AJ18" s="1" t="n"/>
-      <c r="AK18" s="24" t="inlineStr">
+      <c r="AK18" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6484,17 +6655,17 @@
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
-      <c r="W19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y19" s="24" t="inlineStr">
+      <c r="W19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y19" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6502,27 +6673,27 @@
       <c r="Z19" s="1" t="n"/>
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
-      <c r="AC19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD19" s="23" t="n"/>
-      <c r="AE19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF19" s="23" t="n"/>
-      <c r="AG19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH19" s="23" t="n"/>
+      <c r="AC19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD19" s="22" t="n"/>
+      <c r="AE19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF19" s="22" t="n"/>
+      <c r="AG19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH19" s="22" t="n"/>
       <c r="AI19" s="1" t="n"/>
       <c r="AJ19" s="1" t="n"/>
-      <c r="AK19" s="24" t="inlineStr">
+      <c r="AK19" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6545,12 +6716,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6563,9 +6734,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6594,7 +6765,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -250,14 +250,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -707,22 +707,22 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
@@ -745,12 +745,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -830,16 +830,16 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
@@ -859,22 +859,22 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>1</v>
@@ -897,12 +897,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -935,12 +935,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1011,16 +1011,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1158,156 +1158,52 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔴西尾</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="0" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔴中瀬</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="0" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>🔵金カツ</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="0" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>🔵林</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="0" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -1501,10 +1397,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="5" sqref="B16:B17 B5:B6 B3:B4 B13 B8 B11"/>
+      <selection activeCell="D12" sqref="B10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1558,27 +1454,23 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1593,12 +1485,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -1609,7 +1501,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1624,7 +1520,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1640,11 +1536,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1659,7 +1551,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1668,19 +1560,15 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1690,23 +1578,27 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1721,12 +1613,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -1752,12 +1644,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -1783,7 +1675,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1814,16 +1706,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1845,7 +1737,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1854,7 +1746,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1876,7 +1768,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1885,7 +1777,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1907,7 +1799,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1923,7 +1815,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F13" s="0" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1931,30 +1823,30 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="inlineStr"/>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1962,14 +1854,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1985,7 +1873,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1993,14 +1881,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2009,7 +1893,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
@@ -2024,30 +1908,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2058,41 +1938,49 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
@@ -2104,16 +1992,16 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -2131,16 +2019,16 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
@@ -2158,54 +2046,50 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr"/>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>🔴西尾</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>🔵しんげん</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
       <c r="D23" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
+      <c r="F23" s="0" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2213,19 +2097,19 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr"/>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
@@ -2243,23 +2127,23 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F25" s="0" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2267,10 +2151,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr"/>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2279,7 +2163,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -2294,10 +2178,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr"/>
+      <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2308,12 +2192,8 @@
       <c r="D27" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2324,12 +2204,12 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -2351,12 +2231,12 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -2382,12 +2262,12 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -2409,7 +2289,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2425,7 +2305,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr"/>
+      <c r="F31" s="0" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2436,7 +2316,7 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2452,7 +2332,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr"/>
+      <c r="F32" s="0" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2460,10 +2340,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
+      <c r="A33" s="0" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2479,7 +2359,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr"/>
+      <c r="F33" s="0" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2487,10 +2367,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
+      <c r="A34" s="0" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2506,7 +2386,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr"/>
+      <c r="F34" s="0" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2517,7 +2397,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2544,7 +2424,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2560,7 +2440,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2571,12 +2455,12 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
@@ -2598,7 +2482,7 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2625,7 +2509,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2634,7 +2518,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2649,19 +2533,19 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
@@ -2679,23 +2563,23 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="0" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2706,7 +2590,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2715,7 +2599,7 @@
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
@@ -2733,7 +2617,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2742,7 +2626,7 @@
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -2760,16 +2644,16 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -2784,10 +2668,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr"/>
+      <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2796,14 +2680,14 @@
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="0" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2811,15 +2695,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr"/>
+      <c r="A46" s="0" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -2830,7 +2714,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="0" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2841,12 +2725,12 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -2857,7 +2741,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
+      <c r="F47" s="0" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2868,7 +2752,7 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2884,7 +2768,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F48" s="0" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2895,12 +2779,12 @@
       <c r="A49" s="0" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2922,7 +2806,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2938,7 +2822,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="0" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2949,7 +2833,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2976,12 +2860,12 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
@@ -2992,7 +2876,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr"/>
+      <c r="F52" s="0" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3003,12 +2887,12 @@
       <c r="A53" s="0" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -3027,10 +2911,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr"/>
+      <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3046,7 +2930,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F54" s="0" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3054,15 +2938,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr"/>
+      <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -3073,7 +2957,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="0" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3081,15 +2965,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr"/>
+      <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
@@ -3100,7 +2984,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F56" s="0" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3108,10 +2992,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr"/>
+      <c r="A57" s="0" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3127,11 +3011,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F57" s="0" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3142,12 +3022,12 @@
       <c r="A58" s="0" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
@@ -3158,7 +3038,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr"/>
+      <c r="F58" s="0" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3166,15 +3046,15 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr"/>
+      <c r="A59" s="0" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
@@ -3185,7 +3065,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr"/>
+      <c r="F59" s="0" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3193,10 +3073,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr"/>
+      <c r="A60" s="0" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3212,7 +3092,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="F60" s="0" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3223,12 +3103,12 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -3239,7 +3119,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3247,10 +3131,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr"/>
+      <c r="A62" s="0" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3277,7 +3161,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3304,7 +3188,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3331,12 +3215,12 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -3358,12 +3242,12 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -3385,7 +3269,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3412,12 +3296,12 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
@@ -3439,7 +3323,7 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3466,7 +3350,7 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3493,7 +3377,7 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3520,7 +3404,7 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3545,9 +3429,9 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr"/>
-      <c r="B73" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3572,9 +3456,9 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr"/>
-      <c r="B74" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3601,12 +3485,12 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3628,12 +3512,12 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
@@ -3653,9 +3537,9 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr"/>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
+      <c r="B77" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3664,7 +3548,7 @@
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
@@ -3679,10 +3563,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="inlineStr"/>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>🔵にわ</t>
+      <c r="A78" s="3" t="inlineStr"/>
+      <c r="B78" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3691,14 +3575,14 @@
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="0" t="inlineStr"/>
+      <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3706,26 +3590,26 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="inlineStr"/>
+      <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F79" s="0" t="inlineStr"/>
+      <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3736,16 +3620,16 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
@@ -3761,14 +3645,14 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr"/>
-      <c r="B81" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3787,10 +3671,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr"/>
+      <c r="A82" s="0" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3806,7 +3690,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr"/>
+      <c r="F82" s="0" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3814,15 +3698,15 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr"/>
+      <c r="A83" s="0" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3833,7 +3717,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr"/>
+      <c r="F83" s="0" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3841,10 +3725,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="inlineStr"/>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>🔴hama</t>
+      <c r="A84" s="3" t="inlineStr"/>
+      <c r="B84" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3868,15 +3752,15 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="inlineStr"/>
+      <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
@@ -3898,12 +3782,12 @@
       <c r="A86" s="0" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -3914,7 +3798,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F86" s="0" t="inlineStr"/>
+      <c r="F86" s="3" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3922,15 +3806,15 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr"/>
+      <c r="A87" s="0" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3949,10 +3833,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr"/>
+      <c r="A88" s="0" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3968,7 +3852,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F88" s="3" t="inlineStr"/>
+      <c r="F88" s="0" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3979,7 +3863,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -4006,12 +3890,12 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
@@ -4033,7 +3917,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4060,7 +3944,7 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -4087,12 +3971,12 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
@@ -4114,7 +3998,7 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -4141,7 +4025,7 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -4168,12 +4052,12 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
@@ -4195,12 +4079,12 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
@@ -4222,7 +4106,7 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -4249,7 +4133,7 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4276,7 +4160,7 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4303,12 +4187,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4330,12 +4214,12 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
@@ -4357,7 +4241,7 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4384,12 +4268,12 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4411,7 +4295,7 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4438,12 +4322,12 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D106" s="3" t="n">
@@ -4465,12 +4349,12 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -4492,7 +4376,7 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4519,12 +4403,12 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
@@ -4543,10 +4427,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="inlineStr"/>
+      <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4562,7 +4446,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F110" s="0" t="inlineStr"/>
+      <c r="F110" s="3" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4573,7 +4457,7 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -4582,7 +4466,7 @@
         </is>
       </c>
       <c r="D111" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
@@ -4597,10 +4481,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr"/>
+      <c r="A112" s="0" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -4609,14 +4493,14 @@
         </is>
       </c>
       <c r="D112" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr"/>
+      <c r="F112" s="0" t="inlineStr"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4627,12 +4511,12 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D113" s="3" t="n">
@@ -4651,10 +4535,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="inlineStr"/>
+      <c r="A114" s="3" t="inlineStr"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -4678,10 +4562,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr"/>
+      <c r="A115" s="0" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4708,7 +4592,7 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -4731,10 +4615,37 @@
         </is>
       </c>
     </row>
-    <row r="117"/>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr"/>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr"/>
+      <c r="G117" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="118"/>
   </sheetData>
   <autoFilter ref="A1:G64">
-    <sortState ref="A2:G116">
+    <sortState ref="A2:G117">
       <sortCondition descending="1" ref="A1:A64"/>
     </sortState>
   </autoFilter>
@@ -4907,73 +4818,73 @@
     <row r="1">
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="14" t="n"/>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="21" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="24" t="n"/>
-      <c r="E1" s="24" t="n"/>
-      <c r="F1" s="22" t="n"/>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="D1" s="22" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="23" t="n"/>
+      <c r="G1" s="21" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="24" t="n"/>
-      <c r="I1" s="24" t="n"/>
-      <c r="J1" s="22" t="n"/>
-      <c r="K1" s="23" t="inlineStr">
+      <c r="H1" s="22" t="n"/>
+      <c r="I1" s="22" t="n"/>
+      <c r="J1" s="23" t="n"/>
+      <c r="K1" s="21" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="24" t="n"/>
-      <c r="M1" s="24" t="n"/>
-      <c r="N1" s="22" t="n"/>
-      <c r="O1" s="23" t="inlineStr">
+      <c r="L1" s="22" t="n"/>
+      <c r="M1" s="22" t="n"/>
+      <c r="N1" s="23" t="n"/>
+      <c r="O1" s="21" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="24" t="n"/>
-      <c r="Q1" s="24" t="n"/>
-      <c r="R1" s="22" t="n"/>
-      <c r="S1" s="23" t="inlineStr">
+      <c r="P1" s="22" t="n"/>
+      <c r="Q1" s="22" t="n"/>
+      <c r="R1" s="23" t="n"/>
+      <c r="S1" s="21" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="24" t="n"/>
-      <c r="U1" s="24" t="n"/>
-      <c r="V1" s="22" t="n"/>
-      <c r="W1" s="23" t="inlineStr">
+      <c r="T1" s="22" t="n"/>
+      <c r="U1" s="22" t="n"/>
+      <c r="V1" s="23" t="n"/>
+      <c r="W1" s="21" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="24" t="n"/>
-      <c r="Y1" s="24" t="n"/>
-      <c r="Z1" s="22" t="n"/>
+      <c r="X1" s="22" t="n"/>
+      <c r="Y1" s="22" t="n"/>
+      <c r="Z1" s="23" t="n"/>
       <c r="AA1" s="25" t="inlineStr">
         <is>
           <t>全体</t>
         </is>
       </c>
-      <c r="AB1" s="24" t="n"/>
-      <c r="AC1" s="24" t="n"/>
-      <c r="AD1" s="24" t="n"/>
-      <c r="AE1" s="24" t="n"/>
-      <c r="AF1" s="22" t="n"/>
-      <c r="AG1" s="23" t="inlineStr">
+      <c r="AB1" s="22" t="n"/>
+      <c r="AC1" s="22" t="n"/>
+      <c r="AD1" s="22" t="n"/>
+      <c r="AE1" s="22" t="n"/>
+      <c r="AF1" s="23" t="n"/>
+      <c r="AG1" s="21" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AH1" s="24" t="n"/>
-      <c r="AI1" s="24" t="n"/>
-      <c r="AJ1" s="24" t="n"/>
-      <c r="AK1" s="22" t="n"/>
+      <c r="AH1" s="22" t="n"/>
+      <c r="AI1" s="22" t="n"/>
+      <c r="AJ1" s="22" t="n"/>
+      <c r="AK1" s="23" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="14" t="n"/>
@@ -4982,61 +4893,61 @@
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="n"/>
-      <c r="E2" s="24" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="23" t="n">
+      <c r="D2" s="22" t="n"/>
+      <c r="E2" s="22" t="n"/>
+      <c r="F2" s="23" t="n"/>
+      <c r="G2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="24" t="n"/>
-      <c r="I2" s="24" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="23" t="n">
+      <c r="H2" s="22" t="n"/>
+      <c r="I2" s="22" t="n"/>
+      <c r="J2" s="23" t="n"/>
+      <c r="K2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="24" t="n"/>
-      <c r="M2" s="24" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="23" t="n">
+      <c r="L2" s="22" t="n"/>
+      <c r="M2" s="22" t="n"/>
+      <c r="N2" s="23" t="n"/>
+      <c r="O2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="24" t="n"/>
-      <c r="Q2" s="24" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="23" t="n">
+      <c r="P2" s="22" t="n"/>
+      <c r="Q2" s="22" t="n"/>
+      <c r="R2" s="23" t="n"/>
+      <c r="S2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="24" t="n"/>
-      <c r="U2" s="24" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="23" t="n">
+      <c r="T2" s="22" t="n"/>
+      <c r="U2" s="22" t="n"/>
+      <c r="V2" s="23" t="n"/>
+      <c r="W2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="24" t="n"/>
-      <c r="Y2" s="24" t="n"/>
-      <c r="Z2" s="22" t="n"/>
+      <c r="X2" s="22" t="n"/>
+      <c r="Y2" s="22" t="n"/>
+      <c r="Z2" s="23" t="n"/>
       <c r="AA2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AB2" s="22" t="n"/>
+      <c r="AB2" s="23" t="n"/>
       <c r="AC2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AD2" s="22" t="n"/>
+      <c r="AD2" s="23" t="n"/>
       <c r="AE2" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="23" t="n">
+      <c r="AF2" s="23" t="n"/>
+      <c r="AG2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="24" t="n"/>
-      <c r="AI2" s="24" t="n"/>
-      <c r="AJ2" s="22" t="n"/>
-      <c r="AK2" s="23" t="n">
+      <c r="AH2" s="22" t="n"/>
+      <c r="AI2" s="22" t="n"/>
+      <c r="AJ2" s="23" t="n"/>
+      <c r="AK2" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5232,42 +5143,42 @@
       <c r="B4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J4" s="21" t="inlineStr">
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J4" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5288,20 +5199,20 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB4" s="22" t="n"/>
+      <c r="AA4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB4" s="23" t="n"/>
       <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="22" t="n"/>
-      <c r="AE4" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF4" s="22" t="n"/>
+      <c r="AD4" s="23" t="n"/>
+      <c r="AE4" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF4" s="23" t="n"/>
       <c r="AG4" s="1" t="n"/>
       <c r="AH4" s="1" t="n"/>
       <c r="AI4" s="1" t="n"/>
@@ -5313,42 +5224,42 @@
       <c r="B5" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J5" s="21" t="inlineStr">
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J5" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5369,20 +5280,20 @@
       <c r="X5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
-      <c r="AA5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB5" s="22" t="n"/>
+      <c r="AA5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB5" s="23" t="n"/>
       <c r="AC5" s="1" t="n"/>
-      <c r="AD5" s="22" t="n"/>
-      <c r="AE5" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF5" s="22" t="n"/>
+      <c r="AD5" s="23" t="n"/>
+      <c r="AE5" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF5" s="23" t="n"/>
       <c r="AG5" s="1" t="n"/>
       <c r="AH5" s="1" t="n"/>
       <c r="AI5" s="1" t="n"/>
@@ -5394,42 +5305,42 @@
       <c r="B6" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J6" s="21" t="inlineStr">
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J6" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5450,20 +5361,20 @@
       <c r="X6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n"/>
-      <c r="AA6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB6" s="22" t="n"/>
+      <c r="AA6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB6" s="23" t="n"/>
       <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="22" t="n"/>
-      <c r="AE6" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF6" s="22" t="n"/>
+      <c r="AD6" s="23" t="n"/>
+      <c r="AE6" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF6" s="23" t="n"/>
       <c r="AG6" s="1" t="n"/>
       <c r="AH6" s="1" t="n"/>
       <c r="AI6" s="1" t="n"/>
@@ -5479,62 +5390,62 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R7" s="21" t="inlineStr">
+      <c r="G7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R7" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5547,29 +5458,29 @@
       <c r="X7" s="1" t="n"/>
       <c r="Y7" s="1" t="n"/>
       <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB7" s="22" t="n"/>
-      <c r="AC7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD7" s="22" t="n"/>
-      <c r="AE7" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF7" s="22" t="n"/>
+      <c r="AA7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB7" s="23" t="n"/>
+      <c r="AC7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD7" s="23" t="n"/>
+      <c r="AE7" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF7" s="23" t="n"/>
       <c r="AG7" s="1" t="n"/>
       <c r="AH7" s="1" t="n"/>
       <c r="AI7" s="1" t="n"/>
       <c r="AJ7" s="1" t="n"/>
-      <c r="AK7" s="21" t="inlineStr">
+      <c r="AK7" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5584,62 +5495,62 @@
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R8" s="21" t="inlineStr">
+      <c r="G8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R8" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5652,29 +5563,29 @@
       <c r="X8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB8" s="22" t="n"/>
-      <c r="AC8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD8" s="22" t="n"/>
-      <c r="AE8" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF8" s="22" t="n"/>
+      <c r="AA8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB8" s="23" t="n"/>
+      <c r="AC8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD8" s="23" t="n"/>
+      <c r="AE8" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF8" s="23" t="n"/>
       <c r="AG8" s="1" t="n"/>
       <c r="AH8" s="1" t="n"/>
       <c r="AI8" s="1" t="n"/>
       <c r="AJ8" s="1" t="n"/>
-      <c r="AK8" s="21" t="inlineStr">
+      <c r="AK8" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5693,62 +5604,62 @@
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R9" s="21" t="inlineStr">
+      <c r="G9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R9" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5761,29 +5672,29 @@
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB9" s="22" t="n"/>
-      <c r="AC9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD9" s="22" t="n"/>
-      <c r="AE9" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF9" s="22" t="n"/>
+      <c r="AA9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB9" s="23" t="n"/>
+      <c r="AC9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD9" s="23" t="n"/>
+      <c r="AE9" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF9" s="23" t="n"/>
       <c r="AG9" s="1" t="n"/>
       <c r="AH9" s="1" t="n"/>
       <c r="AI9" s="1" t="n"/>
       <c r="AJ9" s="1" t="n"/>
-      <c r="AK9" s="21" t="inlineStr">
+      <c r="AK9" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5798,62 +5709,62 @@
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R10" s="21" t="inlineStr">
+      <c r="G10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R10" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5866,29 +5777,29 @@
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
       <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB10" s="22" t="n"/>
-      <c r="AC10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD10" s="22" t="n"/>
-      <c r="AE10" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF10" s="22" t="n"/>
+      <c r="AA10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB10" s="23" t="n"/>
+      <c r="AC10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD10" s="23" t="n"/>
+      <c r="AE10" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF10" s="23" t="n"/>
       <c r="AG10" s="1" t="n"/>
       <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
       <c r="AJ10" s="1" t="n"/>
-      <c r="AK10" s="21" t="inlineStr">
+      <c r="AK10" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5903,62 +5814,62 @@
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R11" s="21" t="inlineStr">
+      <c r="G11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R11" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5971,29 +5882,29 @@
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB11" s="22" t="n"/>
-      <c r="AC11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD11" s="22" t="n"/>
-      <c r="AE11" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF11" s="22" t="n"/>
+      <c r="AA11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB11" s="23" t="n"/>
+      <c r="AC11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD11" s="23" t="n"/>
+      <c r="AE11" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF11" s="23" t="n"/>
       <c r="AG11" s="1" t="n"/>
       <c r="AH11" s="1" t="n"/>
       <c r="AI11" s="1" t="n"/>
       <c r="AJ11" s="1" t="n"/>
-      <c r="AK11" s="21" t="inlineStr">
+      <c r="AK11" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6016,80 +5927,80 @@
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y12" s="21" t="inlineStr">
+      <c r="O12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y12" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB12" s="22" t="n"/>
-      <c r="AC12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD12" s="22" t="n"/>
-      <c r="AE12" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF12" s="22" t="n"/>
+      <c r="AA12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB12" s="23" t="n"/>
+      <c r="AC12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD12" s="23" t="n"/>
+      <c r="AE12" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF12" s="23" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
       <c r="AI12" s="1" t="n"/>
@@ -6113,80 +6024,80 @@
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
-      <c r="O13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y13" s="21" t="inlineStr">
+      <c r="O13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y13" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB13" s="22" t="n"/>
-      <c r="AC13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD13" s="22" t="n"/>
-      <c r="AE13" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF13" s="22" t="n"/>
+      <c r="AA13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB13" s="23" t="n"/>
+      <c r="AC13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD13" s="23" t="n"/>
+      <c r="AE13" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF13" s="23" t="n"/>
       <c r="AG13" s="1" t="n"/>
       <c r="AH13" s="1" t="n"/>
       <c r="AI13" s="1" t="n"/>
@@ -6214,80 +6125,80 @@
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y14" s="21" t="inlineStr">
+      <c r="O14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y14" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB14" s="22" t="n"/>
-      <c r="AC14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD14" s="22" t="n"/>
-      <c r="AE14" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF14" s="22" t="n"/>
+      <c r="AA14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB14" s="23" t="n"/>
+      <c r="AC14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD14" s="23" t="n"/>
+      <c r="AE14" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF14" s="23" t="n"/>
       <c r="AG14" s="1" t="n"/>
       <c r="AH14" s="1" t="n"/>
       <c r="AI14" s="1" t="n"/>
@@ -6311,80 +6222,80 @@
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y15" s="21" t="inlineStr">
+      <c r="O15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y15" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB15" s="22" t="n"/>
-      <c r="AC15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD15" s="22" t="n"/>
-      <c r="AE15" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF15" s="22" t="n"/>
+      <c r="AA15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB15" s="23" t="n"/>
+      <c r="AC15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD15" s="23" t="n"/>
+      <c r="AE15" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF15" s="23" t="n"/>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
@@ -6408,80 +6319,80 @@
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y16" s="21" t="inlineStr">
+      <c r="O16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y16" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB16" s="22" t="n"/>
-      <c r="AC16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD16" s="22" t="n"/>
-      <c r="AE16" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF16" s="22" t="n"/>
+      <c r="AA16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB16" s="23" t="n"/>
+      <c r="AC16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD16" s="23" t="n"/>
+      <c r="AE16" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF16" s="23" t="n"/>
       <c r="AG16" s="1" t="n"/>
       <c r="AH16" s="1" t="n"/>
       <c r="AI16" s="1" t="n"/>
@@ -6513,17 +6424,17 @@
       <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
-      <c r="W17" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X17" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y17" s="21" t="inlineStr">
+      <c r="W17" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X17" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y17" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6531,27 +6442,27 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD17" s="22" t="n"/>
-      <c r="AE17" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF17" s="22" t="n"/>
-      <c r="AG17" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH17" s="22" t="n"/>
+      <c r="AC17" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD17" s="23" t="n"/>
+      <c r="AE17" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF17" s="23" t="n"/>
+      <c r="AG17" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH17" s="23" t="n"/>
       <c r="AI17" s="1" t="n"/>
       <c r="AJ17" s="1" t="n"/>
-      <c r="AK17" s="21" t="inlineStr">
+      <c r="AK17" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6582,17 +6493,17 @@
       <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="V18" s="1" t="n"/>
-      <c r="W18" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X18" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y18" s="21" t="inlineStr">
+      <c r="W18" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X18" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y18" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6600,27 +6511,27 @@
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD18" s="22" t="n"/>
-      <c r="AE18" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF18" s="22" t="n"/>
-      <c r="AG18" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH18" s="22" t="n"/>
+      <c r="AC18" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD18" s="23" t="n"/>
+      <c r="AE18" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF18" s="23" t="n"/>
+      <c r="AG18" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH18" s="23" t="n"/>
       <c r="AI18" s="1" t="n"/>
       <c r="AJ18" s="1" t="n"/>
-      <c r="AK18" s="21" t="inlineStr">
+      <c r="AK18" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6655,17 +6566,17 @@
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
-      <c r="W19" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X19" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y19" s="21" t="inlineStr">
+      <c r="W19" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X19" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y19" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6673,27 +6584,27 @@
       <c r="Z19" s="1" t="n"/>
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
-      <c r="AC19" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD19" s="22" t="n"/>
-      <c r="AE19" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF19" s="22" t="n"/>
-      <c r="AG19" s="21" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH19" s="22" t="n"/>
+      <c r="AC19" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD19" s="23" t="n"/>
+      <c r="AE19" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF19" s="23" t="n"/>
+      <c r="AG19" s="24" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH19" s="23" t="n"/>
       <c r="AI19" s="1" t="n"/>
       <c r="AJ19" s="1" t="n"/>
-      <c r="AK19" s="21" t="inlineStr">
+      <c r="AK19" s="24" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6716,12 +6627,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6734,9 +6645,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -6756,8 +6667,8 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>
@@ -6765,7 +6676,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
     <sheet name="level" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$121</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -783,12 +783,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -821,25 +821,25 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
@@ -859,22 +859,22 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>1</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -973,7 +973,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔵さとし</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1158,16 +1158,42 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="0" t="n"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="0" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔵たつや</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -1397,10 +1423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="B10:D12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1520,12 +1546,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -1551,24 +1577,28 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1578,27 +1608,23 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1606,14 +1632,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1629,7 +1655,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1637,19 +1663,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -1660,7 +1686,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1668,14 +1694,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1691,7 +1717,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1699,14 +1725,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1714,15 +1740,15 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>3</v>
+      <c r="D10" s="7" t="n">
+        <v>3.5</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1737,7 +1763,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1768,16 +1794,16 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1792,14 +1818,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔵さとし</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1823,10 +1849,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1835,18 +1865,14 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1857,12 +1883,12 @@
       <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -1884,7 +1910,7 @@
       <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1893,41 +1919,41 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1938,12 +1964,12 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -1965,7 +1991,7 @@
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1992,16 +2018,16 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -2019,7 +2045,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2028,7 +2054,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
@@ -2046,7 +2072,7 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2070,26 +2096,30 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="0" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2097,15 +2127,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -2116,7 +2146,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F24" s="0" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2127,16 +2157,16 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -2151,26 +2181,26 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F26" s="0" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2181,18 +2211,22 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
@@ -2204,16 +2238,16 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2231,7 +2265,7 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2240,18 +2274,14 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2262,7 +2292,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2271,14 +2301,14 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr"/>
+      <c r="F30" s="0" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2286,19 +2316,19 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr"/>
+      <c r="A31" s="0" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
@@ -2313,10 +2343,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
+      <c r="A32" s="0" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2325,7 +2355,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2340,10 +2370,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr"/>
+      <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2352,14 +2382,14 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F33" s="0" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2370,7 +2400,7 @@
       <c r="A34" s="0" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2379,7 +2409,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
@@ -2397,22 +2427,18 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
@@ -2424,7 +2450,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2440,11 +2466,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2455,7 +2477,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2471,7 +2493,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2482,7 +2508,7 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2509,12 +2535,12 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -2525,7 +2551,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr"/>
+      <c r="F39" s="0" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2536,12 +2562,12 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2552,7 +2578,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="F40" s="0" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2560,10 +2586,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
+      <c r="A41" s="0" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2579,7 +2605,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="0" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2587,15 +2613,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr"/>
+      <c r="A42" s="0" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2606,7 +2632,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="F42" s="0" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2617,12 +2643,12 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2644,7 +2670,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2660,7 +2686,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2671,12 +2701,12 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2695,19 +2725,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr"/>
+      <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
@@ -2725,7 +2755,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2734,14 +2764,14 @@
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="0" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2752,16 +2782,16 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
@@ -2776,10 +2806,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr"/>
+      <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2788,14 +2818,14 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F49" s="0" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2806,23 +2836,23 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="0" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2833,7 +2863,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2842,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
@@ -2860,23 +2890,23 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F52" s="0" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2884,26 +2914,26 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr"/>
+      <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F53" s="0" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2911,15 +2941,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr"/>
+      <c r="A54" s="0" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
@@ -2941,12 +2971,12 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -2957,7 +2987,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="F55" s="0" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2968,12 +2998,12 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
@@ -2995,7 +3025,7 @@
       <c r="A57" s="0" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3019,10 +3049,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="inlineStr"/>
+      <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3046,10 +3076,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="inlineStr"/>
+      <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3076,7 +3106,7 @@
       <c r="A60" s="0" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3103,7 +3133,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3119,11 +3149,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3131,15 +3157,15 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="inlineStr"/>
+      <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
@@ -3161,7 +3187,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3185,15 +3211,15 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr"/>
+      <c r="A64" s="0" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -3204,7 +3230,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr"/>
+      <c r="F64" s="0" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3212,15 +3238,15 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr"/>
+      <c r="A65" s="0" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -3231,7 +3257,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr"/>
+      <c r="F65" s="0" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3239,10 +3265,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr"/>
+      <c r="A66" s="0" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3258,7 +3284,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr"/>
+      <c r="F66" s="0" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3266,15 +3292,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr"/>
+      <c r="A67" s="0" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
@@ -3285,7 +3311,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr"/>
+      <c r="F67" s="0" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3296,12 +3322,12 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
@@ -3312,7 +3338,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3320,15 +3350,15 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr"/>
+      <c r="A69" s="0" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
@@ -3350,7 +3380,7 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3377,12 +3407,12 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3404,12 +3434,12 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
@@ -3431,12 +3461,12 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -3458,7 +3488,7 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3485,12 +3515,12 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3512,7 +3542,7 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3537,9 +3567,9 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr"/>
-      <c r="B77" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3564,9 +3594,9 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr"/>
-      <c r="B78" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -3593,12 +3623,12 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
@@ -3620,12 +3650,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3647,7 +3677,7 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3656,7 +3686,7 @@
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
@@ -3671,10 +3701,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="inlineStr"/>
+      <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵にわ</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3683,14 +3713,14 @@
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F82" s="0" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3698,10 +3728,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="inlineStr"/>
+      <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3710,14 +3740,14 @@
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F83" s="0" t="inlineStr"/>
+      <c r="F83" s="3" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3726,18 +3756,18 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr"/>
-      <c r="B84" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B84" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
@@ -3753,9 +3783,9 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr"/>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
+      <c r="B85" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3764,7 +3794,7 @@
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
@@ -3779,10 +3809,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="inlineStr"/>
+      <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3791,7 +3821,7 @@
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
@@ -3806,10 +3836,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="inlineStr"/>
+      <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -3818,7 +3848,7 @@
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
@@ -3833,10 +3863,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="inlineStr"/>
+      <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3852,7 +3882,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F88" s="0" t="inlineStr"/>
+      <c r="F88" s="3" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3860,10 +3890,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr"/>
+      <c r="A89" s="0" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3879,7 +3909,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr"/>
+      <c r="F89" s="0" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3887,10 +3917,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr"/>
+      <c r="A90" s="0" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3906,7 +3936,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr"/>
+      <c r="F90" s="0" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3915,14 +3945,14 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr"/>
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>🔵臼井</t>
+      <c r="B91" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
@@ -3944,12 +3974,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -3968,15 +3998,15 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr"/>
+      <c r="A93" s="0" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔴ゆーみ</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
@@ -3995,15 +4025,15 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr"/>
+      <c r="A94" s="0" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -4014,7 +4044,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F94" s="3" t="inlineStr"/>
+      <c r="F94" s="0" t="inlineStr"/>
       <c r="G94" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4025,12 +4055,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4052,12 +4082,12 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
@@ -4079,12 +4109,12 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
@@ -4106,12 +4136,12 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
@@ -4133,7 +4163,7 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4160,12 +4190,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4187,12 +4217,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4214,12 +4244,12 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
@@ -4241,7 +4271,7 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4268,12 +4298,12 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4295,12 +4325,12 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
@@ -4322,7 +4352,7 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4349,12 +4379,12 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -4376,12 +4406,12 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D108" s="3" t="n">
@@ -4403,12 +4433,12 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
@@ -4430,7 +4460,7 @@
       <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4457,7 +4487,7 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -4481,15 +4511,15 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="inlineStr"/>
+      <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D112" s="3" t="n">
@@ -4500,7 +4530,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F112" s="0" t="inlineStr"/>
+      <c r="F112" s="3" t="inlineStr"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4511,7 +4541,7 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4520,7 +4550,7 @@
         </is>
       </c>
       <c r="D113" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
@@ -4538,16 +4568,16 @@
       <c r="A114" s="3" t="inlineStr"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D114" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
@@ -4562,10 +4592,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="inlineStr"/>
+      <c r="A115" s="3" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4574,7 +4604,7 @@
         </is>
       </c>
       <c r="D115" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
@@ -4592,16 +4622,16 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D116" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
@@ -4619,16 +4649,16 @@
       <c r="A117" s="3" t="inlineStr"/>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D117" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
@@ -4642,11 +4672,173 @@
         </is>
       </c>
     </row>
-    <row r="118"/>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr"/>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>🔴かつまた</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr"/>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr"/>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr"/>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr"/>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="inlineStr"/>
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr"/>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>🔵ICHIJIKU</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr"/>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr"/>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr"/>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr"/>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr"/>
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="124"/>
   </sheetData>
-  <autoFilter ref="A1:G64">
-    <sortState ref="A2:G117">
-      <sortCondition descending="1" ref="A1:A64"/>
+  <autoFilter ref="A1:G121">
+    <sortState ref="A2:G123">
+      <sortCondition descending="1" ref="A1:A121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6628,11 +6820,11 @@
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -6667,8 +6859,8 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
     <sheet name="level" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$120</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -250,14 +250,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -783,7 +783,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -859,12 +859,12 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -897,12 +897,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴ともだ</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -935,25 +935,25 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴いっちゃん</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="G8" s="3" t="n">
         <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
@@ -973,12 +973,12 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴はるか</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵よっしー</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵さとし</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔵たつや</t>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1196,64 +1196,194 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="0" t="n"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="0" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>🔵リョウ</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="0" t="n"/>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="0" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>🔵古澤哲</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="0" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>🔵小出直人</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="0" t="n"/>
-      <c r="C18" s="0" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="0" t="n"/>
+      <c r="A18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>🔵ゆうや</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="0" t="n"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="0" t="n"/>
+      <c r="A19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>🔵うっしー</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
@@ -1423,10 +1553,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1546,7 +1676,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1555,7 +1685,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -1577,7 +1707,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1586,14 +1716,14 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
+      <c r="F5" s="0" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1608,139 +1738,135 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>🔵ならい</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>🔵こうじ</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>🔵安田たかひろ</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>🔴まや</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>🔴ともだ</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>🔴いっちゃん</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>🔴はるか</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>🔵よっしー</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -1748,7 +1874,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1763,7 +1889,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1794,12 +1920,12 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -1818,19 +1944,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵さとし</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -1841,7 +1967,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1849,14 +1975,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔵たつや</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1872,7 +1998,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1880,10 +2006,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1892,7 +2022,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -1907,10 +2037,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1919,21 +2053,33 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵小出直人</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1942,7 +2088,7 @@
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -1961,10 +2107,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵ゆうや</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1988,15 +2138,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵うっしー</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -2018,16 +2172,16 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -2045,7 +2199,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2054,7 +2208,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
@@ -2069,15 +2223,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr"/>
+      <c r="A22" s="0" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -2096,30 +2250,26 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
+      <c r="A23" s="0" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F23" s="0" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2130,16 +2280,16 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
@@ -2157,12 +2307,12 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2181,26 +2331,26 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr"/>
+      <c r="A26" s="0" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="0" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2211,23 +2361,27 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2238,16 +2392,16 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2265,12 +2419,12 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -2281,7 +2435,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr"/>
+      <c r="F29" s="0" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2292,7 +2446,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2301,14 +2455,18 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F30" s="0" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2316,44 +2474,44 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr"/>
+      <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>🔴ひろみ</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr"/>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>🔴中瀬</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
       <c r="D32" s="3" t="n">
         <v>3.5</v>
       </c>
@@ -2362,7 +2520,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F32" s="0" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2373,16 +2531,16 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
@@ -2397,26 +2555,26 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr"/>
+      <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="0" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2427,18 +2585,22 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
@@ -2450,7 +2612,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2459,14 +2621,14 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
+      <c r="F36" s="0" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2474,10 +2636,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr"/>
+      <c r="A37" s="0" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2486,18 +2648,14 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F37" s="0" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2505,26 +2663,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
+      <c r="A38" s="0" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr"/>
+      <c r="F38" s="0" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2535,7 +2693,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2544,14 +2702,14 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F39" s="0" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2559,19 +2717,19 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
+      <c r="A40" s="0" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
@@ -2586,10 +2744,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr"/>
+      <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2600,12 +2758,8 @@
       <c r="D41" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2613,10 +2767,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr"/>
+      <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2632,7 +2786,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="0" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2643,7 +2797,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2659,7 +2813,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2670,7 +2828,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2686,11 +2844,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2701,12 +2855,12 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2717,7 +2871,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
+      <c r="F45" s="0" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2728,12 +2882,12 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -2744,7 +2898,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
+      <c r="F46" s="0" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2752,15 +2906,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr"/>
+      <c r="A47" s="0" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -2771,7 +2925,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
+      <c r="F47" s="0" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2779,10 +2933,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
+      <c r="A48" s="0" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2798,7 +2952,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr"/>
+      <c r="F48" s="0" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2809,12 +2963,12 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2836,12 +2990,12 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
@@ -2852,7 +3006,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2863,12 +3021,12 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -2890,7 +3048,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2917,12 +3075,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -2941,19 +3099,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr"/>
+      <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
@@ -2971,23 +3129,23 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="0" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2998,7 +3156,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3007,7 +3165,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
@@ -3022,10 +3180,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr"/>
+      <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3034,14 +3192,14 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F57" s="0" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3052,7 +3210,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3061,14 +3219,14 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F58" s="0" t="inlineStr"/>
+      <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3079,23 +3237,23 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F59" s="0" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3106,7 +3264,7 @@
       <c r="A60" s="0" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3122,7 +3280,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F60" s="0" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3133,12 +3291,12 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -3149,7 +3307,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr"/>
+      <c r="F61" s="0" t="inlineStr"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3157,10 +3315,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr"/>
+      <c r="A62" s="0" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3176,7 +3334,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr"/>
+      <c r="F62" s="0" t="inlineStr"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3187,7 +3345,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3203,7 +3361,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr"/>
+      <c r="F63" s="0" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3211,15 +3369,15 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="inlineStr"/>
+      <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
@@ -3241,12 +3399,12 @@
       <c r="A65" s="0" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -3265,15 +3423,15 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="inlineStr"/>
+      <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -3284,7 +3442,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F66" s="0" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3292,15 +3450,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="inlineStr"/>
+      <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
@@ -3311,7 +3469,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F67" s="0" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3322,7 +3480,7 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3338,11 +3496,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3353,95 +3507,95 @@
       <c r="A69" s="0" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr"/>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr"/>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>🔵格之進</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr"/>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr"/>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>🔴友田</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D69" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="inlineStr"/>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr"/>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>🔵平山</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="inlineStr"/>
-      <c r="G70" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr"/>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>🔴そが</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="D71" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr"/>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr"/>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>🔴よう</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="D71" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr"/>
-      <c r="G71" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr"/>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>🔴柴田</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
       <c r="D72" s="3" t="n">
         <v>3.5</v>
       </c>
@@ -3450,7 +3604,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F72" s="3" t="inlineStr"/>
+      <c r="F72" s="0" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3461,39 +3615,43 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr"/>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>🔴小林友人</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
           <t>女</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="inlineStr"/>
-      <c r="G73" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr"/>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>🔵なんば</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>男</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -3515,12 +3673,12 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3542,12 +3700,12 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
@@ -3569,12 +3727,12 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
@@ -3596,12 +3754,12 @@
       <c r="A78" s="3" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3623,7 +3781,7 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3650,12 +3808,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3677,7 +3835,7 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3704,7 +3862,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3731,7 +3889,7 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3756,9 +3914,9 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr"/>
-      <c r="B84" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3783,9 +3941,9 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr"/>
-      <c r="B85" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3812,12 +3970,12 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -3839,12 +3997,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3866,7 +4024,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3875,7 +4033,7 @@
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
@@ -3890,10 +4048,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="inlineStr"/>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>🔵にわ</t>
+      <c r="A89" s="3" t="inlineStr"/>
+      <c r="B89" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3902,14 +4060,14 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F89" s="0" t="inlineStr"/>
+      <c r="F89" s="3" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3917,10 +4075,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="inlineStr"/>
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>🔵のっぽ</t>
+      <c r="A90" s="3" t="inlineStr"/>
+      <c r="B90" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3929,14 +4087,14 @@
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F90" s="0" t="inlineStr"/>
+      <c r="F90" s="3" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3945,9 +4103,9 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr"/>
-      <c r="B91" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -3956,7 +4114,7 @@
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
@@ -3974,16 +4132,16 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
@@ -3998,15 +4156,15 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="inlineStr"/>
+      <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆーみ</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
@@ -4028,7 +4186,7 @@
       <c r="A94" s="0" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -4052,10 +4210,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr"/>
+      <c r="A95" s="0" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -4071,7 +4229,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr"/>
+      <c r="F95" s="0" t="inlineStr"/>
       <c r="G95" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4080,14 +4238,14 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr"/>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
+      <c r="B96" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
@@ -4109,7 +4267,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4133,15 +4291,15 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr"/>
+      <c r="A98" s="0" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
@@ -4152,7 +4310,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr"/>
+      <c r="F98" s="0" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4163,7 +4321,7 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4190,12 +4348,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4217,12 +4375,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4244,7 +4402,7 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4271,12 +4429,12 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
@@ -4298,12 +4456,12 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4325,12 +4483,12 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
@@ -4352,12 +4510,12 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D106" s="3" t="n">
@@ -4379,12 +4537,12 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -4406,7 +4564,7 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4433,12 +4591,12 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
@@ -4460,12 +4618,12 @@
       <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D110" s="3" t="n">
@@ -4487,12 +4645,12 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
@@ -4514,7 +4672,7 @@
       <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -4541,7 +4699,7 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4595,12 +4753,12 @@
       <c r="A115" s="3" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D115" s="3" t="n">
@@ -4622,7 +4780,7 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -4649,7 +4807,7 @@
       <c r="A117" s="3" t="inlineStr"/>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -4673,15 +4831,15 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="inlineStr"/>
+      <c r="A118" s="3" t="inlineStr"/>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D118" s="3" t="n">
@@ -4692,7 +4850,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F118" s="0" t="inlineStr"/>
+      <c r="F118" s="3" t="inlineStr"/>
       <c r="G118" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4703,7 +4861,7 @@
       <c r="A119" s="3" t="inlineStr"/>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -4712,7 +4870,7 @@
         </is>
       </c>
       <c r="D119" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
@@ -4730,16 +4888,16 @@
       <c r="A120" s="3" t="inlineStr"/>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D120" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
@@ -4757,23 +4915,23 @@
       <c r="A121" s="0" t="inlineStr"/>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D121" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E121" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr"/>
+      <c r="F121" s="0" t="inlineStr"/>
       <c r="G121" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4784,12 +4942,12 @@
       <c r="A122" s="3" t="inlineStr"/>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D122" s="3" t="n">
@@ -4811,7 +4969,7 @@
       <c r="A123" s="3" t="inlineStr"/>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -4834,11 +4992,92 @@
         </is>
       </c>
     </row>
-    <row r="124"/>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr"/>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>🔵ICHIJIKU</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="inlineStr"/>
+      <c r="G124" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr"/>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr"/>
+      <c r="G125" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr"/>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="inlineStr"/>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="127"/>
   </sheetData>
-  <autoFilter ref="A1:G121">
-    <sortState ref="A2:G123">
-      <sortCondition descending="1" ref="A1:A121"/>
+  <autoFilter ref="A1:G120">
+    <sortState ref="A2:G126">
+      <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4852,7 +5091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -4886,6 +5125,126 @@
           <t>コート</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="E16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="0" t="n"/>
+      <c r="E18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
+      <c r="E19" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5010,73 +5369,73 @@
     <row r="1">
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="14" t="n"/>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="23" t="n"/>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="D1" s="24" t="n"/>
+      <c r="E1" s="24" t="n"/>
+      <c r="F1" s="22" t="n"/>
+      <c r="G1" s="23" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="22" t="n"/>
-      <c r="I1" s="22" t="n"/>
-      <c r="J1" s="23" t="n"/>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="H1" s="24" t="n"/>
+      <c r="I1" s="24" t="n"/>
+      <c r="J1" s="22" t="n"/>
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="22" t="n"/>
-      <c r="M1" s="22" t="n"/>
-      <c r="N1" s="23" t="n"/>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="L1" s="24" t="n"/>
+      <c r="M1" s="24" t="n"/>
+      <c r="N1" s="22" t="n"/>
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="22" t="n"/>
-      <c r="Q1" s="22" t="n"/>
-      <c r="R1" s="23" t="n"/>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="P1" s="24" t="n"/>
+      <c r="Q1" s="24" t="n"/>
+      <c r="R1" s="22" t="n"/>
+      <c r="S1" s="23" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="22" t="n"/>
-      <c r="U1" s="22" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="T1" s="24" t="n"/>
+      <c r="U1" s="24" t="n"/>
+      <c r="V1" s="22" t="n"/>
+      <c r="W1" s="23" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="22" t="n"/>
-      <c r="Y1" s="22" t="n"/>
-      <c r="Z1" s="23" t="n"/>
+      <c r="X1" s="24" t="n"/>
+      <c r="Y1" s="24" t="n"/>
+      <c r="Z1" s="22" t="n"/>
       <c r="AA1" s="25" t="inlineStr">
         <is>
           <t>全体</t>
         </is>
       </c>
-      <c r="AB1" s="22" t="n"/>
-      <c r="AC1" s="22" t="n"/>
-      <c r="AD1" s="22" t="n"/>
-      <c r="AE1" s="22" t="n"/>
-      <c r="AF1" s="23" t="n"/>
-      <c r="AG1" s="21" t="inlineStr">
+      <c r="AB1" s="24" t="n"/>
+      <c r="AC1" s="24" t="n"/>
+      <c r="AD1" s="24" t="n"/>
+      <c r="AE1" s="24" t="n"/>
+      <c r="AF1" s="22" t="n"/>
+      <c r="AG1" s="23" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AH1" s="22" t="n"/>
-      <c r="AI1" s="22" t="n"/>
-      <c r="AJ1" s="22" t="n"/>
-      <c r="AK1" s="23" t="n"/>
+      <c r="AH1" s="24" t="n"/>
+      <c r="AI1" s="24" t="n"/>
+      <c r="AJ1" s="24" t="n"/>
+      <c r="AK1" s="22" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="14" t="n"/>
@@ -5085,61 +5444,61 @@
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="23" t="n"/>
-      <c r="G2" s="21" t="n">
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="22" t="n"/>
+      <c r="G2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="23" t="n"/>
-      <c r="K2" s="21" t="n">
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="22" t="n"/>
+      <c r="K2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="23" t="n"/>
-      <c r="O2" s="21" t="n">
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="22" t="n"/>
+      <c r="O2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="23" t="n"/>
-      <c r="S2" s="21" t="n">
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="22" t="n"/>
+      <c r="S2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="23" t="n"/>
-      <c r="W2" s="21" t="n">
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="22" t="n"/>
+      <c r="W2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="23" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="22" t="n"/>
       <c r="AA2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AB2" s="23" t="n"/>
+      <c r="AB2" s="22" t="n"/>
       <c r="AC2" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AD2" s="23" t="n"/>
+      <c r="AD2" s="22" t="n"/>
       <c r="AE2" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" s="23" t="n"/>
-      <c r="AG2" s="21" t="n">
+      <c r="AF2" s="22" t="n"/>
+      <c r="AG2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="22" t="n"/>
-      <c r="AI2" s="22" t="n"/>
-      <c r="AJ2" s="23" t="n"/>
-      <c r="AK2" s="21" t="n">
+      <c r="AH2" s="24" t="n"/>
+      <c r="AI2" s="24" t="n"/>
+      <c r="AJ2" s="22" t="n"/>
+      <c r="AK2" s="23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5335,42 +5694,42 @@
       <c r="B4" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J4" s="24" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J4" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5391,20 +5750,20 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB4" s="23" t="n"/>
+      <c r="AA4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB4" s="22" t="n"/>
       <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="23" t="n"/>
-      <c r="AE4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF4" s="23" t="n"/>
+      <c r="AD4" s="22" t="n"/>
+      <c r="AE4" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF4" s="22" t="n"/>
       <c r="AG4" s="1" t="n"/>
       <c r="AH4" s="1" t="n"/>
       <c r="AI4" s="1" t="n"/>
@@ -5416,42 +5775,42 @@
       <c r="B5" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J5" s="24" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5472,20 +5831,20 @@
       <c r="X5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
-      <c r="AA5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB5" s="23" t="n"/>
+      <c r="AA5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB5" s="22" t="n"/>
       <c r="AC5" s="1" t="n"/>
-      <c r="AD5" s="23" t="n"/>
-      <c r="AE5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF5" s="23" t="n"/>
+      <c r="AD5" s="22" t="n"/>
+      <c r="AE5" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF5" s="22" t="n"/>
       <c r="AG5" s="1" t="n"/>
       <c r="AH5" s="1" t="n"/>
       <c r="AI5" s="1" t="n"/>
@@ -5497,42 +5856,42 @@
       <c r="B6" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J6" s="24" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J6" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5553,20 +5912,20 @@
       <c r="X6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n"/>
-      <c r="AA6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB6" s="23" t="n"/>
+      <c r="AA6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB6" s="22" t="n"/>
       <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="23" t="n"/>
-      <c r="AE6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF6" s="23" t="n"/>
+      <c r="AD6" s="22" t="n"/>
+      <c r="AE6" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF6" s="22" t="n"/>
       <c r="AG6" s="1" t="n"/>
       <c r="AH6" s="1" t="n"/>
       <c r="AI6" s="1" t="n"/>
@@ -5582,62 +5941,62 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R7" s="24" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R7" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5650,29 +6009,29 @@
       <c r="X7" s="1" t="n"/>
       <c r="Y7" s="1" t="n"/>
       <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB7" s="23" t="n"/>
-      <c r="AC7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD7" s="23" t="n"/>
-      <c r="AE7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF7" s="23" t="n"/>
+      <c r="AA7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB7" s="22" t="n"/>
+      <c r="AC7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD7" s="22" t="n"/>
+      <c r="AE7" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF7" s="22" t="n"/>
       <c r="AG7" s="1" t="n"/>
       <c r="AH7" s="1" t="n"/>
       <c r="AI7" s="1" t="n"/>
       <c r="AJ7" s="1" t="n"/>
-      <c r="AK7" s="24" t="inlineStr">
+      <c r="AK7" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5687,62 +6046,62 @@
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R8" s="24" t="inlineStr">
+      <c r="G8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R8" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5755,29 +6114,29 @@
       <c r="X8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB8" s="23" t="n"/>
-      <c r="AC8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD8" s="23" t="n"/>
-      <c r="AE8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF8" s="23" t="n"/>
+      <c r="AA8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB8" s="22" t="n"/>
+      <c r="AC8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD8" s="22" t="n"/>
+      <c r="AE8" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF8" s="22" t="n"/>
       <c r="AG8" s="1" t="n"/>
       <c r="AH8" s="1" t="n"/>
       <c r="AI8" s="1" t="n"/>
       <c r="AJ8" s="1" t="n"/>
-      <c r="AK8" s="24" t="inlineStr">
+      <c r="AK8" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5796,62 +6155,62 @@
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R9" s="24" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R9" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5864,29 +6223,29 @@
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB9" s="23" t="n"/>
-      <c r="AC9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD9" s="23" t="n"/>
-      <c r="AE9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF9" s="23" t="n"/>
+      <c r="AA9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB9" s="22" t="n"/>
+      <c r="AC9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD9" s="22" t="n"/>
+      <c r="AE9" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF9" s="22" t="n"/>
       <c r="AG9" s="1" t="n"/>
       <c r="AH9" s="1" t="n"/>
       <c r="AI9" s="1" t="n"/>
       <c r="AJ9" s="1" t="n"/>
-      <c r="AK9" s="24" t="inlineStr">
+      <c r="AK9" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5901,62 +6260,62 @@
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R10" s="24" t="inlineStr">
+      <c r="G10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R10" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5969,29 +6328,29 @@
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
       <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB10" s="23" t="n"/>
-      <c r="AC10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD10" s="23" t="n"/>
-      <c r="AE10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF10" s="23" t="n"/>
+      <c r="AA10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB10" s="22" t="n"/>
+      <c r="AC10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD10" s="22" t="n"/>
+      <c r="AE10" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF10" s="22" t="n"/>
       <c r="AG10" s="1" t="n"/>
       <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
       <c r="AJ10" s="1" t="n"/>
-      <c r="AK10" s="24" t="inlineStr">
+      <c r="AK10" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6006,62 +6365,62 @@
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R11" s="24" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R11" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6074,29 +6433,29 @@
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB11" s="23" t="n"/>
-      <c r="AC11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD11" s="23" t="n"/>
-      <c r="AE11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF11" s="23" t="n"/>
+      <c r="AA11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB11" s="22" t="n"/>
+      <c r="AC11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD11" s="22" t="n"/>
+      <c r="AE11" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF11" s="22" t="n"/>
       <c r="AG11" s="1" t="n"/>
       <c r="AH11" s="1" t="n"/>
       <c r="AI11" s="1" t="n"/>
       <c r="AJ11" s="1" t="n"/>
-      <c r="AK11" s="24" t="inlineStr">
+      <c r="AK11" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6119,80 +6478,80 @@
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y12" s="24" t="inlineStr">
+      <c r="O12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y12" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB12" s="23" t="n"/>
-      <c r="AC12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD12" s="23" t="n"/>
-      <c r="AE12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF12" s="23" t="n"/>
+      <c r="AA12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB12" s="22" t="n"/>
+      <c r="AC12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD12" s="22" t="n"/>
+      <c r="AE12" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF12" s="22" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
       <c r="AI12" s="1" t="n"/>
@@ -6216,80 +6575,80 @@
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
-      <c r="O13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y13" s="24" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y13" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB13" s="23" t="n"/>
-      <c r="AC13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD13" s="23" t="n"/>
-      <c r="AE13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF13" s="23" t="n"/>
+      <c r="AA13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB13" s="22" t="n"/>
+      <c r="AC13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD13" s="22" t="n"/>
+      <c r="AE13" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF13" s="22" t="n"/>
       <c r="AG13" s="1" t="n"/>
       <c r="AH13" s="1" t="n"/>
       <c r="AI13" s="1" t="n"/>
@@ -6317,80 +6676,80 @@
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y14" s="24" t="inlineStr">
+      <c r="O14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y14" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB14" s="23" t="n"/>
-      <c r="AC14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD14" s="23" t="n"/>
-      <c r="AE14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF14" s="23" t="n"/>
+      <c r="AA14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB14" s="22" t="n"/>
+      <c r="AC14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD14" s="22" t="n"/>
+      <c r="AE14" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF14" s="22" t="n"/>
       <c r="AG14" s="1" t="n"/>
       <c r="AH14" s="1" t="n"/>
       <c r="AI14" s="1" t="n"/>
@@ -6414,80 +6773,80 @@
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y15" s="24" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y15" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB15" s="23" t="n"/>
-      <c r="AC15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD15" s="23" t="n"/>
-      <c r="AE15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF15" s="23" t="n"/>
+      <c r="AA15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB15" s="22" t="n"/>
+      <c r="AC15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD15" s="22" t="n"/>
+      <c r="AE15" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF15" s="22" t="n"/>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
@@ -6511,80 +6870,80 @@
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y16" s="24" t="inlineStr">
+      <c r="O16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y16" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB16" s="23" t="n"/>
-      <c r="AC16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD16" s="23" t="n"/>
-      <c r="AE16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF16" s="23" t="n"/>
+      <c r="AA16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB16" s="22" t="n"/>
+      <c r="AC16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD16" s="22" t="n"/>
+      <c r="AE16" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF16" s="22" t="n"/>
       <c r="AG16" s="1" t="n"/>
       <c r="AH16" s="1" t="n"/>
       <c r="AI16" s="1" t="n"/>
@@ -6616,17 +6975,17 @@
       <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
-      <c r="W17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y17" s="24" t="inlineStr">
+      <c r="W17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y17" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6634,27 +6993,27 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD17" s="23" t="n"/>
-      <c r="AE17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF17" s="23" t="n"/>
-      <c r="AG17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH17" s="23" t="n"/>
+      <c r="AC17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD17" s="22" t="n"/>
+      <c r="AE17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF17" s="22" t="n"/>
+      <c r="AG17" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH17" s="22" t="n"/>
       <c r="AI17" s="1" t="n"/>
       <c r="AJ17" s="1" t="n"/>
-      <c r="AK17" s="24" t="inlineStr">
+      <c r="AK17" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6685,17 +7044,17 @@
       <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="V18" s="1" t="n"/>
-      <c r="W18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y18" s="24" t="inlineStr">
+      <c r="W18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y18" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6703,27 +7062,27 @@
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD18" s="23" t="n"/>
-      <c r="AE18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF18" s="23" t="n"/>
-      <c r="AG18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH18" s="23" t="n"/>
+      <c r="AC18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD18" s="22" t="n"/>
+      <c r="AE18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF18" s="22" t="n"/>
+      <c r="AG18" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH18" s="22" t="n"/>
       <c r="AI18" s="1" t="n"/>
       <c r="AJ18" s="1" t="n"/>
-      <c r="AK18" s="24" t="inlineStr">
+      <c r="AK18" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6758,17 +7117,17 @@
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
-      <c r="W19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y19" s="24" t="inlineStr">
+      <c r="W19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y19" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6776,27 +7135,27 @@
       <c r="Z19" s="1" t="n"/>
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
-      <c r="AC19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD19" s="23" t="n"/>
-      <c r="AE19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF19" s="23" t="n"/>
-      <c r="AG19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH19" s="23" t="n"/>
+      <c r="AC19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD19" s="22" t="n"/>
+      <c r="AE19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF19" s="22" t="n"/>
+      <c r="AG19" s="21" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH19" s="22" t="n"/>
       <c r="AI19" s="1" t="n"/>
       <c r="AJ19" s="1" t="n"/>
-      <c r="AK19" s="24" t="inlineStr">
+      <c r="AK19" s="21" t="inlineStr">
         <is>
           <t>〇</t>
         </is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -74,6 +74,12 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="6">
@@ -707,12 +713,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -722,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
@@ -745,7 +751,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -783,22 +789,22 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
@@ -821,7 +827,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -836,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1</v>
@@ -859,7 +865,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -897,7 +903,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -906,7 +912,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
@@ -935,7 +941,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵すぐる</t>
+          <t>🔵吉野</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -944,7 +950,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -973,7 +979,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -982,7 +988,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -1006,232 +1012,76 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>🔴いっちゃん</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>🔵うっしー</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="0" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>🔴未来</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="0" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>🔵落合</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="0" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔵望月</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="0" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>🔵キタ</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="0" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
@@ -1449,10 +1299,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1506,12 +1356,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -1522,7 +1372,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1537,7 +1391,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1572,23 +1426,23 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1603,7 +1457,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1619,11 +1473,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F5" s="3" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1638,7 +1488,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1654,7 +1504,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1669,7 +1519,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1678,14 +1528,14 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
+      <c r="F7" s="0" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1698,9 +1548,9 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
-        <is>
-          <t>🔵すぐる</t>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>🔵吉野</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1709,14 +1559,14 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr"/>
+      <c r="F8" s="0" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1731,7 +1581,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1740,14 +1590,14 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1755,14 +1605,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="inlineStr"/>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴いっちゃん</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1778,7 +1624,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F10" s="0" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1786,14 +1632,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A11" s="3" t="inlineStr"/>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵うっしー</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1802,14 +1644,14 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1817,14 +1659,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="inlineStr"/>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1848,14 +1686,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="inlineStr"/>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1879,14 +1713,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>🔵望月</t>
+      <c r="A14" s="3" t="inlineStr"/>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1895,14 +1725,14 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1910,19 +1740,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔵キタ</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -1933,7 +1759,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" s="0" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1944,7 +1770,7 @@
       <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵よっしー</t>
+          <t>🔵うっしー</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1952,7 +1778,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1960,7 +1786,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1971,12 +1797,12 @@
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -1998,16 +1824,16 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -2025,23 +1851,23 @@
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr"/>
+      <c r="F19" s="0" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2049,15 +1875,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>🔴しゅり</t>
+      <c r="A20" s="0" t="inlineStr"/>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>🔵キタ</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -2068,7 +1894,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr"/>
+      <c r="F20" s="0" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2079,7 +1905,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2087,7 +1913,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="7" t="n">
         <v>3.5</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -2095,7 +1921,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr"/>
+      <c r="F21" s="0" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2106,12 +1932,12 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -2133,7 +1959,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2142,7 +1968,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
@@ -2160,7 +1986,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2184,19 +2010,19 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr"/>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>🔵ゆーみ</t>
+      <c r="A25" s="0" t="inlineStr"/>
+      <c r="B25" s="19" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -2214,7 +2040,7 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2223,7 +2049,7 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -2238,15 +2064,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵小出直人</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -2257,11 +2083,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F27" s="3" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2269,19 +2091,19 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうや</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2296,10 +2118,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr"/>
+      <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴ともだ</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2315,7 +2137,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F29" s="0" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2323,26 +2145,26 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr"/>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>🔴はるか</t>
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="20" t="inlineStr">
+        <is>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F30" s="0" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2353,12 +2175,12 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -2377,10 +2199,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
+      <c r="A32" s="0" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵小出直人</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2396,7 +2218,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2407,7 +2233,7 @@
       <c r="A33" s="0" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵たつや</t>
+          <t>🔵ゆうや</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2416,14 +2242,14 @@
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F33" s="0" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2431,26 +2257,26 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
+      <c r="A34" s="0" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr"/>
+      <c r="F34" s="0" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2458,15 +2284,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr"/>
+      <c r="A35" s="0" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -2488,27 +2314,23 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2519,7 +2341,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2543,26 +2365,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
+      <c r="A38" s="0" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr"/>
+      <c r="F38" s="0" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2573,16 +2395,16 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2600,12 +2422,12 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2616,7 +2438,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="F40" s="0" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2627,7 +2449,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2636,14 +2458,18 @@
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="0" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2651,15 +2477,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr"/>
+      <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2670,7 +2496,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="0" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2678,10 +2504,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr"/>
+      <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2697,7 +2523,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F43" s="0" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2708,16 +2534,16 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -2732,26 +2558,26 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr"/>
+      <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F45" s="0" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2762,7 +2588,7 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2771,10 +2597,14 @@
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2782,10 +2612,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr"/>
+      <c r="A47" s="0" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2794,18 +2624,14 @@
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F47" s="0" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2813,26 +2639,26 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
+      <c r="A48" s="0" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr"/>
+      <c r="F48" s="0" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2843,7 +2669,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2852,14 +2678,14 @@
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F49" s="0" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2867,19 +2693,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr"/>
+      <c r="A50" s="0" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
@@ -2894,10 +2720,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr"/>
+      <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2908,12 +2734,8 @@
       <c r="D51" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2924,7 +2746,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2940,7 +2762,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2951,7 +2777,7 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2967,11 +2793,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F53" s="3" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2982,12 +2804,12 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
@@ -2998,7 +2820,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr"/>
+      <c r="F54" s="0" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3009,12 +2831,12 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -3025,7 +2847,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="F55" s="0" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3033,15 +2855,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr"/>
+      <c r="A56" s="0" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
@@ -3052,7 +2874,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr"/>
+      <c r="F56" s="0" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3063,12 +2885,12 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
@@ -3090,7 +2912,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3106,7 +2928,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr"/>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3117,7 +2943,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3144,7 +2970,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3171,12 +2997,12 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -3198,7 +3024,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3222,19 +3048,19 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="inlineStr"/>
+      <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
@@ -3252,7 +3078,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3261,14 +3087,14 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F64" s="0" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3276,10 +3102,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="inlineStr"/>
+      <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3288,14 +3114,14 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F65" s="0" t="inlineStr"/>
+      <c r="F65" s="3" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3306,7 +3132,7 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3315,14 +3141,14 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F66" s="0" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3333,23 +3159,23 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F67" s="0" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3360,7 +3186,7 @@
       <c r="A68" s="0" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3376,7 +3202,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="0" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3387,12 +3213,12 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
@@ -3403,7 +3229,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr"/>
+      <c r="F69" s="0" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3411,10 +3237,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr"/>
+      <c r="A70" s="0" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3430,7 +3256,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F70" s="3" t="inlineStr"/>
+      <c r="F70" s="0" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3441,7 +3267,7 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3457,7 +3283,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F71" s="3" t="inlineStr"/>
+      <c r="F71" s="0" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3465,15 +3291,15 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="inlineStr"/>
+      <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
@@ -3495,12 +3321,12 @@
       <c r="A73" s="0" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -3519,15 +3345,15 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="inlineStr"/>
+      <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -3538,7 +3364,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F74" s="0" t="inlineStr"/>
+      <c r="F74" s="3" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3546,15 +3372,15 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="inlineStr"/>
+      <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3565,7 +3391,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F75" s="0" t="inlineStr"/>
+      <c r="F75" s="3" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3573,10 +3399,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr"/>
+      <c r="A76" s="0" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3592,11 +3418,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F76" s="0" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3607,12 +3429,12 @@
       <c r="A77" s="0" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
@@ -3623,7 +3445,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr"/>
+      <c r="F77" s="0" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3631,15 +3453,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr"/>
+      <c r="A78" s="0" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3650,7 +3472,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr"/>
+      <c r="F78" s="0" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3658,10 +3480,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr"/>
+      <c r="A79" s="0" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3677,7 +3499,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr"/>
+      <c r="F79" s="0" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3688,12 +3510,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3704,7 +3526,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr"/>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3712,10 +3538,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr"/>
+      <c r="A81" s="0" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3742,7 +3568,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3769,7 +3595,7 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -3796,12 +3622,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -3823,12 +3649,12 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
@@ -3850,7 +3676,7 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3877,12 +3703,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3904,7 +3730,7 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -3931,7 +3757,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3958,7 +3784,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -3985,7 +3811,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4010,9 +3836,9 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr"/>
-      <c r="B92" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -4037,9 +3863,9 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr"/>
-      <c r="B93" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -4066,12 +3892,12 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -4093,12 +3919,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4118,9 +3944,9 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr"/>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>🔵西郷</t>
+      <c r="B96" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4129,7 +3955,7 @@
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
@@ -4144,10 +3970,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="inlineStr"/>
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>🔵にわ</t>
+      <c r="A97" s="3" t="inlineStr"/>
+      <c r="B97" s="20" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4156,14 +3982,14 @@
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F97" s="0" t="inlineStr"/>
+      <c r="F97" s="3" t="inlineStr"/>
       <c r="G97" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4171,26 +3997,26 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="inlineStr"/>
+      <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F98" s="0" t="inlineStr"/>
+      <c r="F98" s="3" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4199,9 +4025,9 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr"/>
-      <c r="B99" s="19" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -4210,7 +4036,7 @@
         </is>
       </c>
       <c r="D99" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
@@ -4228,7 +4054,7 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4255,7 +4081,7 @@
       <c r="A101" s="0" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4279,10 +4105,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr"/>
+      <c r="A102" s="0" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4298,7 +4124,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr"/>
+      <c r="F102" s="0" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4307,14 +4133,14 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr"/>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>🔵加地</t>
+      <c r="B103" s="19" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
@@ -4336,7 +4162,7 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -4360,15 +4186,15 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="inlineStr"/>
+      <c r="A105" s="0" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
@@ -4379,7 +4205,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F105" s="3" t="inlineStr"/>
+      <c r="F105" s="0" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4390,7 +4216,7 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4417,12 +4243,12 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -4444,12 +4270,12 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D108" s="3" t="n">
@@ -4471,7 +4297,7 @@
       <c r="A109" s="3" t="inlineStr"/>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4498,12 +4324,12 @@
       <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D110" s="3" t="n">
@@ -4525,12 +4351,12 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
@@ -4552,12 +4378,12 @@
       <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D112" s="3" t="n">
@@ -4579,12 +4405,12 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D113" s="3" t="n">
@@ -4606,12 +4432,12 @@
       <c r="A114" s="3" t="inlineStr"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D114" s="3" t="n">
@@ -4633,7 +4459,7 @@
       <c r="A115" s="3" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4660,12 +4486,12 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D116" s="3" t="n">
@@ -4687,12 +4513,12 @@
       <c r="A117" s="3" t="inlineStr"/>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D117" s="3" t="n">
@@ -4714,12 +4540,12 @@
       <c r="A118" s="3" t="inlineStr"/>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D118" s="3" t="n">
@@ -4741,12 +4567,12 @@
       <c r="A119" s="3" t="inlineStr"/>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D119" s="3" t="n">
@@ -4768,7 +4594,7 @@
       <c r="A120" s="3" t="inlineStr"/>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -4795,12 +4621,12 @@
       <c r="A121" s="3" t="inlineStr"/>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D121" s="3" t="n">
@@ -4822,7 +4648,7 @@
       <c r="A122" s="3" t="inlineStr"/>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -4849,7 +4675,7 @@
       <c r="A123" s="3" t="inlineStr"/>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -4873,10 +4699,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="inlineStr"/>
+      <c r="A124" s="3" t="inlineStr"/>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -4892,7 +4718,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F124" s="0" t="inlineStr"/>
+      <c r="F124" s="3" t="inlineStr"/>
       <c r="G124" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4903,16 +4729,16 @@
       <c r="A125" s="3" t="inlineStr"/>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D125" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
@@ -4930,16 +4756,16 @@
       <c r="A126" s="3" t="inlineStr"/>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D126" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
@@ -4954,19 +4780,19 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="inlineStr"/>
+      <c r="A127" s="3" t="inlineStr"/>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D127" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
@@ -4981,26 +4807,26 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr"/>
+      <c r="A128" s="0" t="inlineStr"/>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D128" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr"/>
+      <c r="F128" s="0" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5011,12 +4837,12 @@
       <c r="A129" s="3" t="inlineStr"/>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D129" s="3" t="n">
@@ -5034,10 +4860,118 @@
         </is>
       </c>
     </row>
-    <row r="130"/>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr"/>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="inlineStr"/>
+      <c r="G130" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr"/>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>🔵ICHIJIKU</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr"/>
+      <c r="G131" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr"/>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="inlineStr"/>
+      <c r="G132" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr"/>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="inlineStr"/>
+      <c r="G133" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="134"/>
   </sheetData>
   <autoFilter ref="A1:G120">
-    <sortState ref="A2:G129">
+    <sortState ref="A2:G133">
       <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
@@ -5052,7 +4986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -5086,6 +5020,48 @@
           <t>コート</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7020,11 +6996,11 @@
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -7059,8 +7035,8 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AC11:AD11"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -74,12 +74,6 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="6">
@@ -196,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -256,14 +247,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -751,12 +742,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -766,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>1</v>
@@ -789,16 +780,16 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
@@ -827,12 +818,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -865,7 +856,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -903,12 +894,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -941,16 +932,16 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵吉野</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -979,16 +970,16 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -1012,112 +1003,346 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="0" t="n"/>
-      <c r="C10" s="0" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="0" t="n"/>
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>🔵きなり</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="0" t="n"/>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="0" t="n"/>
+      <c r="A11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>🔴なるみ</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="0" t="n"/>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="0" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>🔵西郷</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="0" t="n"/>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="0" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>🔴ゆきえ</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="0" t="n"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="0" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔴美玖</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="0" t="n"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="0" t="n"/>
+      <c r="A15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>🔴森</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="0" t="n"/>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="0" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>🔴あすか</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="0" t="n"/>
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>🔵津島</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="0" t="n"/>
-      <c r="C18" s="0" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="0" t="n"/>
+      <c r="A18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>🔴せぶん</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -1299,20 +1524,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="13.59765625" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.59765625" customWidth="1" style="2" min="2" max="7"/>
+    <col width="13.59765625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.59765625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.59765625" customWidth="1" style="6" min="3" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>参加</t>
         </is>
@@ -1337,12 +1563,12 @@
           <t>ダブルス</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>シングルス</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>ミックス</t>
         </is>
@@ -1391,12 +1617,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -1407,11 +1633,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1426,16 +1648,16 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -1457,12 +1679,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -1488,7 +1710,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1504,7 +1726,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1519,12 +1741,12 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -1535,7 +1757,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1550,23 +1772,23 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵吉野</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1581,23 +1803,23 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1605,15 +1827,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -1632,26 +1858,30 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1659,15 +1889,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -1686,19 +1920,23 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1713,15 +1951,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
-      <c r="B14" s="19" t="inlineStr">
-        <is>
-          <t>🔵すぐる</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>🔴美玖</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -1732,7 +1974,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
+      <c r="F14" s="0" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1740,10 +1982,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴いっちゃん</t>
+          <t>🔴森</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1767,15 +2013,19 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔵うっしー</t>
+          <t>🔴あすか</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -1786,7 +2036,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr"/>
+      <c r="F16" s="0" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1794,15 +2044,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵津島</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -1813,7 +2067,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
+      <c r="F17" s="0" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1821,19 +2075,23 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔴せぶん</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>4</v>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>3.5</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -1851,7 +2109,7 @@
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1860,14 +2118,18 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1875,10 +2137,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr"/>
+      <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵キタ</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1894,7 +2156,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F20" s="0" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1905,7 +2167,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵よっしー</t>
+          <t>🔵吉野</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1913,15 +2175,15 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n">
-        <v>3.5</v>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F21" s="0" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1932,16 +2194,16 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
@@ -1959,23 +2221,23 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1986,7 +2248,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2010,19 +2272,19 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr"/>
-      <c r="B25" s="19" t="inlineStr">
-        <is>
-          <t>🔴しゅり</t>
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -2038,9 +2300,9 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr"/>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>🔵安田たかひろ</t>
+      <c r="B26" s="18" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2067,7 +2329,7 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2094,16 +2356,16 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵うっしー</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2121,7 +2383,7 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2146,9 +2408,9 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr"/>
-      <c r="B30" s="20" t="inlineStr">
-        <is>
-          <t>🔵ゆーみ</t>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2157,7 +2419,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
@@ -2175,7 +2437,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2184,7 +2446,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
@@ -2199,10 +2461,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr"/>
+      <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵小出直人</t>
+          <t>🔵キタ</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2218,11 +2480,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F32" s="3" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2230,10 +2488,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr"/>
+      <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうや</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2241,7 +2499,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2257,15 +2515,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr"/>
+      <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔴ともだ</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -2276,7 +2534,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F34" s="0" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2284,10 +2542,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr"/>
+      <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴はるか</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2303,7 +2561,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F35" s="0" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2312,9 +2570,9 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr"/>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>🔴hama</t>
+      <c r="B36" s="18" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2323,7 +2581,7 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2341,7 +2599,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2365,26 +2623,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr"/>
+      <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵たつや</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F38" s="0" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2395,16 +2653,16 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2420,9 +2678,9 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr"/>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>🔵なお</t>
+      <c r="B40" s="19" t="inlineStr">
+        <is>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2431,14 +2689,14 @@
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F40" s="0" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2449,7 +2707,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2458,18 +2716,14 @@
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2480,7 +2734,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔵小出直人</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2496,7 +2750,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2507,12 +2765,12 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔵ゆうや</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2534,7 +2792,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2561,7 +2819,7 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2588,23 +2846,23 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F46" s="0" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2612,15 +2870,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr"/>
+      <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -2631,7 +2889,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F47" s="0" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2639,26 +2897,26 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr"/>
+      <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F48" s="0" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2669,7 +2927,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2693,10 +2951,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr"/>
+      <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2705,14 +2963,14 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F50" s="0" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2723,7 +2981,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2734,8 +2992,16 @@
       <c r="D51" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2746,7 +3012,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2755,18 +3021,14 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F52" s="3" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2777,16 +3039,16 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
@@ -2804,23 +3066,23 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F54" s="0" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2831,23 +3093,23 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F55" s="0" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2855,26 +3117,26 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr"/>
+      <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F56" s="0" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2885,7 +3147,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2894,7 +3156,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
@@ -2912,7 +3174,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2921,18 +3183,14 @@
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F58" s="3" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2943,16 +3201,16 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
@@ -2970,7 +3228,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2981,11 +3239,7 @@
       <c r="D60" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="E60" s="3" t="inlineStr"/>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
@@ -2997,7 +3251,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3013,7 +3267,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3024,7 +3282,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3051,7 +3309,7 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3078,7 +3336,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3105,7 +3363,7 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3132,12 +3390,12 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
@@ -3159,7 +3417,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3175,7 +3433,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3183,10 +3445,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="inlineStr"/>
+      <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3195,7 +3457,7 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
@@ -3213,23 +3475,23 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F69" s="0" t="inlineStr"/>
+      <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3237,26 +3499,26 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="inlineStr"/>
+      <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F70" s="0" t="inlineStr"/>
+      <c r="F70" s="3" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3267,7 +3529,7 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3276,14 +3538,14 @@
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F71" s="0" t="inlineStr"/>
+      <c r="F71" s="3" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3294,23 +3556,23 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F72" s="0" t="inlineStr"/>
+      <c r="F72" s="3" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3318,10 +3580,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="inlineStr"/>
+      <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴すわめん</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -3330,14 +3592,14 @@
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F73" s="0" t="inlineStr"/>
+      <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3348,7 +3610,7 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵山口</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -3357,7 +3619,7 @@
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
@@ -3375,7 +3637,7 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵天野</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -3384,7 +3646,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
@@ -3399,15 +3661,15 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="inlineStr"/>
+      <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
@@ -3418,7 +3680,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F76" s="0" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3426,10 +3688,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="inlineStr"/>
+      <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3445,7 +3707,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F77" s="0" t="inlineStr"/>
+      <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3453,15 +3715,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="inlineStr"/>
+      <c r="A78" s="3" t="inlineStr"/>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3472,7 +3734,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F78" s="0" t="inlineStr"/>
+      <c r="F78" s="3" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3480,10 +3742,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="inlineStr"/>
+      <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -3499,7 +3761,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F79" s="0" t="inlineStr"/>
+      <c r="F79" s="3" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3510,12 +3772,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3526,11 +3788,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F80" s="3" t="inlineStr"/>
       <c r="G80" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3538,15 +3796,15 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="inlineStr"/>
+      <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3568,7 +3826,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3595,12 +3853,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3622,12 +3880,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -3649,7 +3907,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3676,12 +3934,12 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -3703,12 +3961,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3719,7 +3977,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr"/>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3730,12 +3992,12 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
@@ -3757,7 +4019,7 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -3784,12 +4046,12 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
@@ -3811,12 +4073,12 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
@@ -3838,12 +4100,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -3865,7 +4127,7 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -3892,12 +4154,12 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -3919,7 +4181,7 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -3944,9 +4206,9 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr"/>
-      <c r="B96" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3971,9 +4233,9 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr"/>
-      <c r="B97" s="20" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4000,12 +4262,12 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
@@ -4027,12 +4289,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4054,7 +4316,7 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4063,7 +4325,7 @@
         </is>
       </c>
       <c r="D100" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
@@ -4078,10 +4340,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="inlineStr"/>
+      <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵にわ</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4090,14 +4352,14 @@
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F101" s="0" t="inlineStr"/>
+      <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4105,10 +4367,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="inlineStr"/>
+      <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -4117,14 +4379,14 @@
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F102" s="0" t="inlineStr"/>
+      <c r="F102" s="3" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4135,16 +4397,16 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="19" t="inlineStr">
         <is>
-          <t>🔴えりんご</t>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
@@ -4160,9 +4422,9 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr"/>
-      <c r="B104" s="0" t="inlineStr">
-        <is>
-          <t>🔵shunpon</t>
+      <c r="B104" s="19" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -4171,7 +4433,7 @@
         </is>
       </c>
       <c r="D104" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
@@ -4186,26 +4448,26 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="inlineStr"/>
+      <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F105" s="0" t="inlineStr"/>
+      <c r="F105" s="3" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4216,16 +4478,16 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D106" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
@@ -4243,7 +4505,7 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -4270,7 +4532,7 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -4295,9 +4557,9 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr"/>
-      <c r="B109" s="0" t="inlineStr">
-        <is>
-          <t>🔴ゆきえ</t>
+      <c r="B109" s="18" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -4324,7 +4586,7 @@
       <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4351,12 +4613,12 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
@@ -4378,12 +4640,12 @@
       <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D112" s="3" t="n">
@@ -4405,12 +4667,12 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D113" s="3" t="n">
@@ -4432,12 +4694,12 @@
       <c r="A114" s="3" t="inlineStr"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D114" s="3" t="n">
@@ -4459,7 +4721,7 @@
       <c r="A115" s="3" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4486,12 +4748,12 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D116" s="3" t="n">
@@ -4513,12 +4775,12 @@
       <c r="A117" s="3" t="inlineStr"/>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D117" s="3" t="n">
@@ -4540,12 +4802,12 @@
       <c r="A118" s="3" t="inlineStr"/>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D118" s="3" t="n">
@@ -4567,12 +4829,12 @@
       <c r="A119" s="3" t="inlineStr"/>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D119" s="3" t="n">
@@ -4594,12 +4856,12 @@
       <c r="A120" s="3" t="inlineStr"/>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D120" s="3" t="n">
@@ -4621,12 +4883,12 @@
       <c r="A121" s="3" t="inlineStr"/>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D121" s="3" t="n">
@@ -4648,12 +4910,12 @@
       <c r="A122" s="3" t="inlineStr"/>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D122" s="3" t="n">
@@ -4675,12 +4937,12 @@
       <c r="A123" s="3" t="inlineStr"/>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D123" s="3" t="n">
@@ -4702,12 +4964,12 @@
       <c r="A124" s="3" t="inlineStr"/>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D124" s="3" t="n">
@@ -4729,12 +4991,12 @@
       <c r="A125" s="3" t="inlineStr"/>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D125" s="3" t="n">
@@ -4756,7 +5018,7 @@
       <c r="A126" s="3" t="inlineStr"/>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -4783,7 +5045,7 @@
       <c r="A127" s="3" t="inlineStr"/>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -4807,10 +5069,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="inlineStr"/>
+      <c r="A128" s="3" t="inlineStr"/>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -4826,7 +5088,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F128" s="0" t="inlineStr"/>
+      <c r="F128" s="3" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4837,7 +5099,7 @@
       <c r="A129" s="3" t="inlineStr"/>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -4846,7 +5108,7 @@
         </is>
       </c>
       <c r="D129" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
@@ -4864,7 +5126,7 @@
       <c r="A130" s="3" t="inlineStr"/>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -4873,7 +5135,7 @@
         </is>
       </c>
       <c r="D130" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
@@ -4888,19 +5150,19 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0" t="inlineStr"/>
+      <c r="A131" s="3" t="inlineStr"/>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D131" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
@@ -4918,16 +5180,16 @@
       <c r="A132" s="3" t="inlineStr"/>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D132" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
@@ -4945,16 +5207,16 @@
       <c r="A133" s="3" t="inlineStr"/>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D133" s="3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
@@ -4968,10 +5230,145 @@
         </is>
       </c>
     </row>
-    <row r="134"/>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr"/>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>🔴シャンシャン</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="inlineStr"/>
+      <c r="G134" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr"/>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>🔵スシャント</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr"/>
+      <c r="G135" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr"/>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>🔵ICHIJIKU</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr"/>
+      <c r="G136" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr"/>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>🔵はしば</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr"/>
+      <c r="G137" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr"/>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>🔵せいたろう</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="inlineStr"/>
+      <c r="G138" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="139"/>
   </sheetData>
   <autoFilter ref="A1:G120">
-    <sortState ref="A2:G133">
+    <sortState ref="A2:G138">
       <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
@@ -4986,7 +5383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -5020,48 +5417,6 @@
           <t>コート</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n"/>
-      <c r="B2" s="0" t="n"/>
-      <c r="C2" s="0" t="n"/>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
-      <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n"/>
-      <c r="B4" s="0" t="n"/>
-      <c r="C4" s="0" t="n"/>
-      <c r="D4" s="0" t="n"/>
-      <c r="E4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n"/>
-      <c r="B5" s="0" t="n"/>
-      <c r="C5" s="0" t="n"/>
-      <c r="D5" s="0" t="n"/>
-      <c r="E5" s="0" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n"/>
-      <c r="B6" s="0" t="n"/>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
-      <c r="E6" s="0" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n"/>
-      <c r="B7" s="0" t="n"/>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
-      <c r="E7" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5092,32 +5447,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>勝者A</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Aコート</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>勝者B</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Bコート</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>勝者C</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Cコート</t>
         </is>
@@ -5184,319 +5539,319 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="n"/>
-      <c r="B1" s="14" t="n"/>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>上級</t>
         </is>
       </c>
-      <c r="D1" s="22" t="n"/>
-      <c r="E1" s="22" t="n"/>
-      <c r="F1" s="23" t="n"/>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="D1" s="23" t="n"/>
+      <c r="E1" s="23" t="n"/>
+      <c r="F1" s="21" t="n"/>
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>中/上級</t>
         </is>
       </c>
-      <c r="H1" s="22" t="n"/>
-      <c r="I1" s="22" t="n"/>
-      <c r="J1" s="23" t="n"/>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="H1" s="23" t="n"/>
+      <c r="I1" s="23" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="22" t="inlineStr">
         <is>
           <t>中級</t>
         </is>
       </c>
-      <c r="L1" s="22" t="n"/>
-      <c r="M1" s="22" t="n"/>
-      <c r="N1" s="23" t="n"/>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="L1" s="23" t="n"/>
+      <c r="M1" s="23" t="n"/>
+      <c r="N1" s="21" t="n"/>
+      <c r="O1" s="22" t="inlineStr">
         <is>
           <t>初/中級</t>
         </is>
       </c>
-      <c r="P1" s="22" t="n"/>
-      <c r="Q1" s="22" t="n"/>
-      <c r="R1" s="23" t="n"/>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="P1" s="23" t="n"/>
+      <c r="Q1" s="23" t="n"/>
+      <c r="R1" s="21" t="n"/>
+      <c r="S1" s="22" t="inlineStr">
         <is>
           <t>初級</t>
         </is>
       </c>
-      <c r="T1" s="22" t="n"/>
-      <c r="U1" s="22" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="T1" s="23" t="n"/>
+      <c r="U1" s="23" t="n"/>
+      <c r="V1" s="21" t="n"/>
+      <c r="W1" s="22" t="inlineStr">
         <is>
           <t>初/初級者</t>
         </is>
       </c>
-      <c r="X1" s="22" t="n"/>
-      <c r="Y1" s="22" t="n"/>
-      <c r="Z1" s="23" t="n"/>
-      <c r="AA1" s="25" t="inlineStr">
+      <c r="X1" s="23" t="n"/>
+      <c r="Y1" s="23" t="n"/>
+      <c r="Z1" s="21" t="n"/>
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>全体</t>
         </is>
       </c>
-      <c r="AB1" s="22" t="n"/>
-      <c r="AC1" s="22" t="n"/>
-      <c r="AD1" s="22" t="n"/>
-      <c r="AE1" s="22" t="n"/>
-      <c r="AF1" s="23" t="n"/>
-      <c r="AG1" s="21" t="inlineStr">
+      <c r="AB1" s="23" t="n"/>
+      <c r="AC1" s="23" t="n"/>
+      <c r="AD1" s="23" t="n"/>
+      <c r="AE1" s="23" t="n"/>
+      <c r="AF1" s="21" t="n"/>
+      <c r="AG1" s="22" t="inlineStr">
         <is>
           <t>初心者</t>
         </is>
       </c>
-      <c r="AH1" s="22" t="n"/>
-      <c r="AI1" s="22" t="n"/>
-      <c r="AJ1" s="22" t="n"/>
-      <c r="AK1" s="23" t="n"/>
+      <c r="AH1" s="23" t="n"/>
+      <c r="AI1" s="23" t="n"/>
+      <c r="AJ1" s="23" t="n"/>
+      <c r="AK1" s="21" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="n"/>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>傾斜</t>
         </is>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="23" t="n"/>
-      <c r="G2" s="21" t="n">
+      <c r="D2" s="23" t="n"/>
+      <c r="E2" s="23" t="n"/>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="23" t="n"/>
-      <c r="K2" s="21" t="n">
+      <c r="H2" s="23" t="n"/>
+      <c r="I2" s="23" t="n"/>
+      <c r="J2" s="21" t="n"/>
+      <c r="K2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="23" t="n"/>
-      <c r="O2" s="21" t="n">
+      <c r="L2" s="23" t="n"/>
+      <c r="M2" s="23" t="n"/>
+      <c r="N2" s="21" t="n"/>
+      <c r="O2" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="23" t="n"/>
-      <c r="S2" s="21" t="n">
+      <c r="P2" s="23" t="n"/>
+      <c r="Q2" s="23" t="n"/>
+      <c r="R2" s="21" t="n"/>
+      <c r="S2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="23" t="n"/>
-      <c r="W2" s="21" t="n">
+      <c r="T2" s="23" t="n"/>
+      <c r="U2" s="23" t="n"/>
+      <c r="V2" s="21" t="n"/>
+      <c r="W2" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="23" t="n"/>
-      <c r="AA2" s="25" t="n">
+      <c r="X2" s="23" t="n"/>
+      <c r="Y2" s="23" t="n"/>
+      <c r="Z2" s="21" t="n"/>
+      <c r="AA2" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AB2" s="23" t="n"/>
-      <c r="AC2" s="25" t="n">
+      <c r="AB2" s="21" t="n"/>
+      <c r="AC2" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AD2" s="23" t="n"/>
-      <c r="AE2" s="25" t="n">
+      <c r="AD2" s="21" t="n"/>
+      <c r="AE2" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="AF2" s="23" t="n"/>
-      <c r="AG2" s="21" t="n">
+      <c r="AF2" s="21" t="n"/>
+      <c r="AG2" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="22" t="n"/>
-      <c r="AI2" s="22" t="n"/>
-      <c r="AJ2" s="23" t="n"/>
-      <c r="AK2" s="21" t="n">
+      <c r="AH2" s="23" t="n"/>
+      <c r="AI2" s="23" t="n"/>
+      <c r="AJ2" s="21" t="n"/>
+      <c r="AK2" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="A3" s="13" t="n"/>
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>レベル</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="I3" s="14" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="J3" s="14" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="K3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="L3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M3" s="14" t="inlineStr">
+      <c r="K3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="L3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="N3" s="14" t="inlineStr">
+      <c r="N3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="O3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="P3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="Q3" s="14" t="inlineStr">
+      <c r="O3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="P3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="Q3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="R3" s="14" t="inlineStr">
+      <c r="R3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="S3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="T3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="U3" s="14" t="inlineStr">
+      <c r="S3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="T3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="U3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="V3" s="14" t="inlineStr">
+      <c r="V3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="W3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="X3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="Y3" s="14" t="inlineStr">
+      <c r="W3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="Y3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="Z3" s="14" t="inlineStr">
+      <c r="Z3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="AA3" s="17" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AB3" s="17" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="AC3" s="17" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AD3" s="17" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="AE3" s="17" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AF3" s="17" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="AG3" s="14" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="AH3" s="14" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="AI3" s="14" t="inlineStr">
+      <c r="AA3" s="16" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AB3" s="16" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AC3" s="16" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AD3" s="16" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AE3" s="16" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AF3" s="16" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AG3" s="13" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="AH3" s="13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="AI3" s="13" t="inlineStr">
         <is>
           <t>混合</t>
         </is>
       </c>
-      <c r="AJ3" s="14" t="inlineStr">
+      <c r="AJ3" s="13" t="inlineStr">
         <is>
           <t>単</t>
         </is>
       </c>
-      <c r="AK3" s="14" t="inlineStr">
+      <c r="AK3" s="13" t="inlineStr">
         <is>
           <t>指</t>
         </is>
@@ -5508,45 +5863,45 @@
           <t>上級</t>
         </is>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J4" s="24" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5567,20 +5922,20 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB4" s="23" t="n"/>
+      <c r="AA4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB4" s="21" t="n"/>
       <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="23" t="n"/>
-      <c r="AE4" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF4" s="23" t="n"/>
+      <c r="AD4" s="21" t="n"/>
+      <c r="AE4" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF4" s="21" t="n"/>
       <c r="AG4" s="1" t="n"/>
       <c r="AH4" s="1" t="n"/>
       <c r="AI4" s="1" t="n"/>
@@ -5592,42 +5947,42 @@
       <c r="B5" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="C5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J5" s="24" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J5" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5648,20 +6003,20 @@
       <c r="X5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
-      <c r="AA5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB5" s="23" t="n"/>
+      <c r="AA5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB5" s="21" t="n"/>
       <c r="AC5" s="1" t="n"/>
-      <c r="AD5" s="23" t="n"/>
-      <c r="AE5" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF5" s="23" t="n"/>
+      <c r="AD5" s="21" t="n"/>
+      <c r="AE5" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF5" s="21" t="n"/>
       <c r="AG5" s="1" t="n"/>
       <c r="AH5" s="1" t="n"/>
       <c r="AI5" s="1" t="n"/>
@@ -5673,42 +6028,42 @@
       <c r="B6" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="G6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J6" s="24" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5729,20 +6084,20 @@
       <c r="X6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n"/>
-      <c r="AA6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB6" s="23" t="n"/>
+      <c r="AA6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB6" s="21" t="n"/>
       <c r="AC6" s="1" t="n"/>
-      <c r="AD6" s="23" t="n"/>
-      <c r="AE6" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF6" s="23" t="n"/>
+      <c r="AD6" s="21" t="n"/>
+      <c r="AE6" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF6" s="21" t="n"/>
       <c r="AG6" s="1" t="n"/>
       <c r="AH6" s="1" t="n"/>
       <c r="AI6" s="1" t="n"/>
@@ -5754,66 +6109,66 @@
       <c r="B7" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="C7" s="8" t="n"/>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R7" s="24" t="inlineStr">
+      <c r="G7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R7" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5826,29 +6181,29 @@
       <c r="X7" s="1" t="n"/>
       <c r="Y7" s="1" t="n"/>
       <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB7" s="23" t="n"/>
-      <c r="AC7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD7" s="23" t="n"/>
-      <c r="AE7" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF7" s="23" t="n"/>
+      <c r="AA7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB7" s="21" t="n"/>
+      <c r="AC7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD7" s="21" t="n"/>
+      <c r="AE7" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF7" s="21" t="n"/>
       <c r="AG7" s="1" t="n"/>
       <c r="AH7" s="1" t="n"/>
       <c r="AI7" s="1" t="n"/>
       <c r="AJ7" s="1" t="n"/>
-      <c r="AK7" s="24" t="inlineStr">
+      <c r="AK7" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5859,66 +6214,66 @@
       <c r="B8" s="1" t="n">
         <v>3.6</v>
       </c>
-      <c r="C8" s="8" t="n"/>
+      <c r="C8" s="7" t="n"/>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R8" s="24" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R8" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5931,29 +6286,29 @@
       <c r="X8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB8" s="23" t="n"/>
-      <c r="AC8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD8" s="23" t="n"/>
-      <c r="AE8" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF8" s="23" t="n"/>
+      <c r="AA8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB8" s="21" t="n"/>
+      <c r="AC8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD8" s="21" t="n"/>
+      <c r="AE8" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF8" s="21" t="n"/>
       <c r="AG8" s="1" t="n"/>
       <c r="AH8" s="1" t="n"/>
       <c r="AI8" s="1" t="n"/>
       <c r="AJ8" s="1" t="n"/>
-      <c r="AK8" s="24" t="inlineStr">
+      <c r="AK8" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -5965,69 +6320,69 @@
           <t>中級</t>
         </is>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="8" t="n"/>
+      <c r="B9" s="12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="7" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R9" s="24" t="inlineStr">
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R9" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6040,29 +6395,29 @@
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB9" s="23" t="n"/>
-      <c r="AC9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD9" s="23" t="n"/>
-      <c r="AE9" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF9" s="23" t="n"/>
+      <c r="AA9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB9" s="21" t="n"/>
+      <c r="AC9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD9" s="21" t="n"/>
+      <c r="AE9" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF9" s="21" t="n"/>
       <c r="AG9" s="1" t="n"/>
       <c r="AH9" s="1" t="n"/>
       <c r="AI9" s="1" t="n"/>
       <c r="AJ9" s="1" t="n"/>
-      <c r="AK9" s="24" t="inlineStr">
+      <c r="AK9" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6073,66 +6428,66 @@
       <c r="B10" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="C10" s="8" t="n"/>
+      <c r="C10" s="7" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R10" s="24" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R10" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6145,29 +6500,29 @@
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
       <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB10" s="23" t="n"/>
-      <c r="AC10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD10" s="23" t="n"/>
-      <c r="AE10" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF10" s="23" t="n"/>
+      <c r="AA10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB10" s="21" t="n"/>
+      <c r="AC10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD10" s="21" t="n"/>
+      <c r="AE10" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF10" s="21" t="n"/>
       <c r="AG10" s="1" t="n"/>
       <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
       <c r="AJ10" s="1" t="n"/>
-      <c r="AK10" s="24" t="inlineStr">
+      <c r="AK10" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6178,66 +6533,66 @@
       <c r="B11" s="1" t="n">
         <v>3.3</v>
       </c>
-      <c r="C11" s="8" t="n"/>
+      <c r="C11" s="7" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="I11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="J11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="K11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="L11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="N11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="O11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R11" s="24" t="inlineStr">
+      <c r="G11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="H11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="I11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="J11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="K11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="L11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="M11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="N11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="O11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R11" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6250,29 +6605,29 @@
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
       <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB11" s="23" t="n"/>
-      <c r="AC11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD11" s="23" t="n"/>
-      <c r="AE11" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF11" s="23" t="n"/>
+      <c r="AA11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB11" s="21" t="n"/>
+      <c r="AC11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD11" s="21" t="n"/>
+      <c r="AE11" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF11" s="21" t="n"/>
       <c r="AG11" s="1" t="n"/>
       <c r="AH11" s="1" t="n"/>
       <c r="AI11" s="1" t="n"/>
       <c r="AJ11" s="1" t="n"/>
-      <c r="AK11" s="24" t="inlineStr">
+      <c r="AK11" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6283,92 +6638,92 @@
       <c r="B12" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="C12" s="8" t="n"/>
+      <c r="C12" s="7" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="G12" s="7" t="n"/>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
-      <c r="K12" s="8" t="n"/>
+      <c r="K12" s="7" t="n"/>
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y12" s="24" t="inlineStr">
+      <c r="O12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y12" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB12" s="23" t="n"/>
-      <c r="AC12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD12" s="23" t="n"/>
-      <c r="AE12" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF12" s="23" t="n"/>
+      <c r="AA12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB12" s="21" t="n"/>
+      <c r="AC12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD12" s="21" t="n"/>
+      <c r="AE12" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF12" s="21" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
       <c r="AI12" s="1" t="n"/>
@@ -6380,92 +6735,92 @@
       <c r="B13" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="C13" s="8" t="n"/>
+      <c r="C13" s="7" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="G13" s="7" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
-      <c r="K13" s="8" t="n"/>
+      <c r="K13" s="7" t="n"/>
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
-      <c r="O13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y13" s="24" t="inlineStr">
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y13" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB13" s="23" t="n"/>
-      <c r="AC13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD13" s="23" t="n"/>
-      <c r="AE13" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF13" s="23" t="n"/>
+      <c r="AA13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB13" s="21" t="n"/>
+      <c r="AC13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD13" s="21" t="n"/>
+      <c r="AE13" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF13" s="21" t="n"/>
       <c r="AG13" s="1" t="n"/>
       <c r="AH13" s="1" t="n"/>
       <c r="AI13" s="1" t="n"/>
@@ -6478,95 +6833,95 @@
           <t>初級</t>
         </is>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="8" t="n"/>
+      <c r="C14" s="7" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="G14" s="7" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
-      <c r="K14" s="8" t="n"/>
+      <c r="K14" s="7" t="n"/>
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y14" s="24" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y14" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB14" s="23" t="n"/>
-      <c r="AC14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD14" s="23" t="n"/>
-      <c r="AE14" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF14" s="23" t="n"/>
+      <c r="AA14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB14" s="21" t="n"/>
+      <c r="AC14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD14" s="21" t="n"/>
+      <c r="AE14" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF14" s="21" t="n"/>
       <c r="AG14" s="1" t="n"/>
       <c r="AH14" s="1" t="n"/>
       <c r="AI14" s="1" t="n"/>
@@ -6578,92 +6933,92 @@
       <c r="B15" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="C15" s="8" t="n"/>
+      <c r="C15" s="7" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
-      <c r="G15" s="8" t="n"/>
+      <c r="G15" s="7" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="8" t="n"/>
+      <c r="K15" s="7" t="n"/>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y15" s="24" t="inlineStr">
+      <c r="O15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y15" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB15" s="23" t="n"/>
-      <c r="AC15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD15" s="23" t="n"/>
-      <c r="AE15" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF15" s="23" t="n"/>
+      <c r="AA15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB15" s="21" t="n"/>
+      <c r="AC15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD15" s="21" t="n"/>
+      <c r="AE15" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF15" s="21" t="n"/>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
@@ -6675,92 +7030,92 @@
       <c r="B16" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="C16" s="8" t="n"/>
+      <c r="C16" s="7" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
-      <c r="G16" s="8" t="n"/>
+      <c r="G16" s="7" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
-      <c r="K16" s="8" t="n"/>
+      <c r="K16" s="7" t="n"/>
       <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Q16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="R16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="T16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="W16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y16" s="24" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="P16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Q16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="R16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="S16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="T16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="U16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="V16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="W16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y16" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
       <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB16" s="23" t="n"/>
-      <c r="AC16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD16" s="23" t="n"/>
-      <c r="AE16" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF16" s="23" t="n"/>
+      <c r="AA16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AB16" s="21" t="n"/>
+      <c r="AC16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD16" s="21" t="n"/>
+      <c r="AE16" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF16" s="21" t="n"/>
       <c r="AG16" s="1" t="n"/>
       <c r="AH16" s="1" t="n"/>
       <c r="AI16" s="1" t="n"/>
@@ -6772,37 +7127,37 @@
       <c r="B17" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="C17" s="8" t="n"/>
+      <c r="C17" s="7" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
-      <c r="G17" s="8" t="n"/>
+      <c r="G17" s="7" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
-      <c r="K17" s="8" t="n"/>
+      <c r="K17" s="7" t="n"/>
       <c r="L17" s="1" t="n"/>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
-      <c r="O17" s="8" t="n"/>
+      <c r="O17" s="7" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
-      <c r="S17" s="8" t="n"/>
+      <c r="S17" s="7" t="n"/>
       <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
-      <c r="W17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y17" s="24" t="inlineStr">
+      <c r="W17" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X17" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y17" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6810,27 +7165,27 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD17" s="23" t="n"/>
-      <c r="AE17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF17" s="23" t="n"/>
-      <c r="AG17" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH17" s="23" t="n"/>
+      <c r="AC17" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD17" s="21" t="n"/>
+      <c r="AE17" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF17" s="21" t="n"/>
+      <c r="AG17" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH17" s="21" t="n"/>
       <c r="AI17" s="1" t="n"/>
       <c r="AJ17" s="1" t="n"/>
-      <c r="AK17" s="24" t="inlineStr">
+      <c r="AK17" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6841,37 +7196,37 @@
       <c r="B18" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="C18" s="8" t="n"/>
+      <c r="C18" s="7" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
-      <c r="G18" s="8" t="n"/>
+      <c r="G18" s="7" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
-      <c r="K18" s="8" t="n"/>
+      <c r="K18" s="7" t="n"/>
       <c r="L18" s="1" t="n"/>
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
-      <c r="O18" s="8" t="n"/>
+      <c r="O18" s="7" t="n"/>
       <c r="P18" s="1" t="n"/>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
-      <c r="S18" s="8" t="n"/>
+      <c r="S18" s="7" t="n"/>
       <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="V18" s="1" t="n"/>
-      <c r="W18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y18" s="24" t="inlineStr">
+      <c r="W18" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X18" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y18" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6879,27 +7234,27 @@
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD18" s="23" t="n"/>
-      <c r="AE18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF18" s="23" t="n"/>
-      <c r="AG18" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH18" s="23" t="n"/>
+      <c r="AC18" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD18" s="21" t="n"/>
+      <c r="AE18" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF18" s="21" t="n"/>
+      <c r="AG18" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH18" s="21" t="n"/>
       <c r="AI18" s="1" t="n"/>
       <c r="AJ18" s="1" t="n"/>
-      <c r="AK18" s="24" t="inlineStr">
+      <c r="AK18" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6911,40 +7266,40 @@
           <t>初心者</t>
         </is>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="12" t="n">
         <v>2.5</v>
       </c>
-      <c r="C19" s="8" t="n"/>
+      <c r="C19" s="7" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
-      <c r="G19" s="8" t="n"/>
+      <c r="G19" s="7" t="n"/>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
-      <c r="K19" s="8" t="n"/>
+      <c r="K19" s="7" t="n"/>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
-      <c r="O19" s="8" t="n"/>
+      <c r="O19" s="7" t="n"/>
       <c r="P19" s="1" t="n"/>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
-      <c r="S19" s="8" t="n"/>
+      <c r="S19" s="7" t="n"/>
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
-      <c r="W19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="X19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y19" s="24" t="inlineStr">
+      <c r="W19" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="X19" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="Y19" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
@@ -6952,34 +7307,34 @@
       <c r="Z19" s="1" t="n"/>
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
-      <c r="AC19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AD19" s="23" t="n"/>
-      <c r="AE19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AF19" s="23" t="n"/>
-      <c r="AG19" s="24" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH19" s="23" t="n"/>
+      <c r="AC19" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AD19" s="21" t="n"/>
+      <c r="AE19" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AF19" s="21" t="n"/>
+      <c r="AG19" s="20" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="AH19" s="21" t="n"/>
       <c r="AI19" s="1" t="n"/>
       <c r="AJ19" s="1" t="n"/>
-      <c r="AK19" s="24" t="inlineStr">
+      <c r="AK19" s="20" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="AD21" s="18" t="n"/>
+      <c r="AD21" s="17" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -6995,12 +7350,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -7013,9 +7368,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -7044,7 +7399,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
     <sheet name="level" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_parameter'!$A$1:$G$119</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -704,22 +704,22 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -780,16 +780,16 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -856,16 +856,16 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -894,22 +894,22 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
@@ -932,16 +932,16 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -970,16 +970,16 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -1008,16 +1008,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>1</v>
@@ -1046,16 +1046,16 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵すぐる</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>1</v>
@@ -1084,16 +1084,16 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>1</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>1</v>
@@ -1160,16 +1160,16 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴美玖</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>1</v>
@@ -1198,16 +1198,16 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴森</t>
+          <t>🔵松平</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>1</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔴あすか</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1</v>
@@ -1269,80 +1269,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>🔵津島</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="0" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>🔴せぶん</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>待機</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="0" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -1524,10 +1472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1582,27 +1530,23 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>3.5</v>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>1.5</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F2" s="0" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1617,7 +1561,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1625,15 +1569,15 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>3.5</v>
+      <c r="D3" s="6" t="n">
+        <v>1.5</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="F3" s="0" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1648,23 +1592,23 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>3.5</v>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1.5</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
+      <c r="F4" s="0" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1679,7 +1623,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1710,16 +1654,16 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
@@ -1741,23 +1685,27 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1772,16 +1720,16 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔵てぃの</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
@@ -1803,16 +1751,16 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
@@ -1834,16 +1782,16 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1863,18 +1811,18 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>🔴なるみ</t>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1896,16 +1844,16 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1927,7 +1875,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1936,7 +1884,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1958,23 +1906,23 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔴美玖</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -1989,16 +1937,16 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔴森</t>
+          <t>🔵松平</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>3.5</v>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -2020,7 +1968,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔴あすか</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2028,15 +1976,15 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>3.5</v>
+      <c r="D16" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F16" s="0" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2044,30 +1992,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔵津島</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F17" s="0" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2075,14 +2019,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔴せぶん</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2090,8 +2030,8 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>3.5</v>
+      <c r="D18" s="3" t="n">
+        <v>2.5</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -2109,7 +2049,7 @@
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -2118,18 +2058,14 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2140,7 +2076,7 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2149,7 +2085,7 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -2167,7 +2103,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵吉野</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2176,7 +2112,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
@@ -2194,12 +2130,12 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵せいたろう</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -2221,7 +2157,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵こうじ</t>
+          <t>🔵吉野</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2230,14 +2166,14 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2246,18 +2182,18 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr"/>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>🔴えりな</t>
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
@@ -2275,7 +2211,7 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>🔵前田</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -2284,7 +2220,7 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
@@ -2300,18 +2236,18 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr"/>
-      <c r="B26" s="18" t="inlineStr">
-        <is>
-          <t>🔵すぐる</t>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
@@ -2329,16 +2265,16 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔴いっちゃん</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
@@ -2356,7 +2292,7 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵うっしー</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2365,7 +2301,7 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
@@ -2383,16 +2319,16 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
@@ -2410,7 +2346,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵落合</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2419,7 +2355,7 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
@@ -2437,7 +2373,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵望月</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2446,7 +2382,7 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
@@ -2464,7 +2400,7 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵キタ</t>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2473,7 +2409,7 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2489,18 +2425,18 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>🔵よっしー</t>
+      <c r="B33" s="18" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>3.5</v>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
@@ -2518,7 +2454,7 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2527,7 +2463,7 @@
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
@@ -2545,16 +2481,16 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
@@ -2570,18 +2506,18 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr"/>
-      <c r="B36" s="18" t="inlineStr">
-        <is>
-          <t>🔴しゅり</t>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2599,7 +2535,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵安田たかひろ</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2608,7 +2544,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2626,16 +2562,16 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
@@ -2653,7 +2589,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2662,7 +2598,7 @@
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -2678,14 +2614,14 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr"/>
-      <c r="B40" s="19" t="inlineStr">
-        <is>
-          <t>🔵ゆーみ</t>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
@@ -2707,12 +2643,12 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔵リョウ</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -2734,27 +2670,23 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔵小出直人</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F42" s="3" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -2765,7 +2697,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうや</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2774,7 +2706,7 @@
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -2792,16 +2724,16 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔴ともだ</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -2819,16 +2751,16 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔴はるか</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
@@ -2846,12 +2778,12 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
@@ -2873,7 +2805,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2882,7 +2814,7 @@
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
@@ -2900,12 +2832,12 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔵たつや</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2927,12 +2859,12 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -2954,16 +2886,16 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
@@ -2981,27 +2913,23 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうた</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F51" s="3" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3012,7 +2940,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -3021,7 +2949,7 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
@@ -3039,16 +2967,16 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
@@ -3066,7 +2994,7 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3075,7 +3003,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
@@ -3093,16 +3021,16 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
@@ -3120,7 +3048,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3129,7 +3057,7 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
@@ -3147,7 +3075,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3174,16 +3102,16 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
@@ -3201,7 +3129,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3210,7 +3138,7 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
@@ -3228,7 +3156,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵今枝</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3237,9 +3165,13 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
@@ -3251,7 +3183,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔴もーちゃん</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3260,18 +3192,14 @@
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3282,7 +3210,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵しんげん</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3291,7 +3219,7 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
@@ -3309,16 +3237,16 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔵渡邊</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
@@ -3336,7 +3264,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴よこゆか</t>
+          <t>🔴美玖</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3345,14 +3273,14 @@
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr"/>
+      <c r="F64" s="0" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3363,23 +3291,23 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔵三田</t>
+          <t>🔴森</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr"/>
+      <c r="F65" s="0" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3390,7 +3318,7 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴まひろ</t>
+          <t>🔴あすか</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3399,14 +3327,14 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr"/>
+      <c r="F66" s="0" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3417,7 +3345,7 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵こばやし</t>
+          <t>🔵津島</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -3426,18 +3354,14 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F67" s="0" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3448,7 +3372,7 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴小熊</t>
+          <t>🔴せぶん</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -3456,8 +3380,8 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D68" s="3" t="n">
-        <v>4</v>
+      <c r="D68" s="6" t="n">
+        <v>3.5</v>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
@@ -3475,7 +3399,7 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵秋山</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -3484,14 +3408,18 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr"/>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3502,16 +3430,16 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔴石川</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
@@ -3529,16 +3457,16 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔵野澤</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
@@ -3556,16 +3484,16 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔵根津</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
@@ -3583,16 +3511,16 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔴すわめん</t>
+          <t>🔵うっしー</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
@@ -3610,16 +3538,16 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔵山口</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
@@ -3637,7 +3565,7 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵天野</t>
+          <t>🔵キタ</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -3646,7 +3574,7 @@
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
@@ -3664,15 +3592,15 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="n">
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -3691,7 +3619,7 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3716,14 +3644,14 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr"/>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>🔵かずま</t>
+      <c r="B78" s="18" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3745,12 +3673,12 @@
       <c r="A79" s="3" t="inlineStr"/>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
@@ -3772,7 +3700,7 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -3799,7 +3727,7 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵小出直人</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -3815,7 +3743,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr"/>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G81" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3826,7 +3758,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔵ゆうや</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3853,12 +3785,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3880,7 +3812,7 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -3907,12 +3839,12 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
@@ -3934,7 +3866,7 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -3961,12 +3893,12 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
@@ -3977,11 +3909,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F87" s="3" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3992,12 +3920,12 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
@@ -4019,12 +3947,12 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
@@ -4046,7 +3974,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -4073,7 +4001,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4100,12 +4028,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -4127,7 +4055,7 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -4154,7 +4082,7 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴せーな</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -4181,12 +4109,12 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔵桐下</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
@@ -4208,7 +4136,7 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵さいとう</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -4235,7 +4163,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔵サトシ</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4262,7 +4190,7 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵谷村</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -4289,12 +4217,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔵にっしー</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4316,12 +4244,12 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔵はしもと</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
@@ -4343,7 +4271,7 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵ひろき</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -4359,7 +4287,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr"/>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4370,12 +4302,12 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆう</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
@@ -4395,9 +4327,9 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr"/>
-      <c r="B103" s="19" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -4422,14 +4354,14 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr"/>
-      <c r="B104" s="19" t="inlineStr">
-        <is>
-          <t>🔵[FREE_中]</t>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4451,7 +4383,7 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4478,7 +4410,7 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴[FREE_中]</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4505,7 +4437,7 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵にわ</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -4514,7 +4446,7 @@
         </is>
       </c>
       <c r="D107" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
@@ -4532,16 +4464,16 @@
       <c r="A108" s="3" t="inlineStr"/>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔴せーな</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D108" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
@@ -4557,18 +4489,18 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr"/>
-      <c r="B109" s="18" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>🔵桐下</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
@@ -4586,7 +4518,7 @@
       <c r="A110" s="3" t="inlineStr"/>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔵さいとう</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -4595,7 +4527,7 @@
         </is>
       </c>
       <c r="D110" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
@@ -4613,7 +4545,7 @@
       <c r="A111" s="3" t="inlineStr"/>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>🔵そう</t>
+          <t>🔵サトシ</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -4622,7 +4554,7 @@
         </is>
       </c>
       <c r="D111" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
@@ -4640,7 +4572,7 @@
       <c r="A112" s="3" t="inlineStr"/>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵谷村</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -4649,7 +4581,7 @@
         </is>
       </c>
       <c r="D112" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
@@ -4667,7 +4599,7 @@
       <c r="A113" s="3" t="inlineStr"/>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵にっしー</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -4676,7 +4608,7 @@
         </is>
       </c>
       <c r="D113" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
@@ -4694,7 +4626,7 @@
       <c r="A114" s="3" t="inlineStr"/>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵はしもと</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -4703,7 +4635,7 @@
         </is>
       </c>
       <c r="D114" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
@@ -4721,7 +4653,7 @@
       <c r="A115" s="3" t="inlineStr"/>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵ひろき</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -4730,7 +4662,7 @@
         </is>
       </c>
       <c r="D115" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
@@ -4748,16 +4680,16 @@
       <c r="A116" s="3" t="inlineStr"/>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵ゆう</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D116" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
@@ -4773,18 +4705,18 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr"/>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>🔴さとみ</t>
+      <c r="B117" s="19" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D117" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
@@ -4800,18 +4732,18 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr"/>
-      <c r="B118" s="0" t="inlineStr">
-        <is>
-          <t>🔴朋子</t>
+      <c r="B118" s="19" t="inlineStr">
+        <is>
+          <t>🔵[FREE_中]</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D118" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
@@ -4829,7 +4761,7 @@
       <c r="A119" s="3" t="inlineStr"/>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -4838,7 +4770,7 @@
         </is>
       </c>
       <c r="D119" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
@@ -4856,16 +4788,16 @@
       <c r="A120" s="3" t="inlineStr"/>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴[FREE_中]</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D120" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
@@ -4883,7 +4815,7 @@
       <c r="A121" s="3" t="inlineStr"/>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵こうじ</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -4892,14 +4824,14 @@
         </is>
       </c>
       <c r="D121" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="F121" s="3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E121" s="3" t="inlineStr"/>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G121" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4910,7 +4842,7 @@
       <c r="A122" s="3" t="inlineStr"/>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵前田</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -4919,7 +4851,7 @@
         </is>
       </c>
       <c r="D122" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
@@ -4937,7 +4869,7 @@
       <c r="A123" s="3" t="inlineStr"/>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵落合</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -4946,7 +4878,7 @@
         </is>
       </c>
       <c r="D123" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
@@ -4964,7 +4896,7 @@
       <c r="A124" s="3" t="inlineStr"/>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵望月</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -4973,7 +4905,7 @@
         </is>
       </c>
       <c r="D124" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
@@ -4991,23 +4923,27 @@
       <c r="A125" s="3" t="inlineStr"/>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵ゆうた</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D125" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F125" s="3" t="inlineStr"/>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5018,22 +4954,18 @@
       <c r="A126" s="3" t="inlineStr"/>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵今枝</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D126" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
@@ -5045,7 +4977,7 @@
       <c r="A127" s="3" t="inlineStr"/>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴もーちゃん</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -5054,14 +4986,18 @@
         </is>
       </c>
       <c r="D127" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F127" s="3" t="inlineStr"/>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G127" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5072,16 +5008,16 @@
       <c r="A128" s="3" t="inlineStr"/>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔵しんげん</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D128" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
@@ -5099,16 +5035,16 @@
       <c r="A129" s="3" t="inlineStr"/>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔵渡邊</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D129" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129" s="3" t="inlineStr">
         <is>
@@ -5126,16 +5062,16 @@
       <c r="A130" s="3" t="inlineStr"/>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴よこゆか</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D130" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
@@ -5153,16 +5089,16 @@
       <c r="A131" s="3" t="inlineStr"/>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵三田</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D131" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131" s="3" t="inlineStr">
         <is>
@@ -5180,7 +5116,7 @@
       <c r="A132" s="3" t="inlineStr"/>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴まひろ</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -5189,7 +5125,7 @@
         </is>
       </c>
       <c r="D132" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
@@ -5207,23 +5143,27 @@
       <c r="A133" s="3" t="inlineStr"/>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵こばやし</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D133" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" s="3" t="inlineStr">
         <is>
           <t>〇</t>
         </is>
       </c>
-      <c r="F133" s="3" t="inlineStr"/>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G133" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -5234,7 +5174,7 @@
       <c r="A134" s="3" t="inlineStr"/>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴小熊</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -5243,7 +5183,7 @@
         </is>
       </c>
       <c r="D134" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
@@ -5261,7 +5201,7 @@
       <c r="A135" s="3" t="inlineStr"/>
       <c r="B135" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔵秋山</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -5270,7 +5210,7 @@
         </is>
       </c>
       <c r="D135" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
@@ -5288,16 +5228,16 @@
       <c r="A136" s="3" t="inlineStr"/>
       <c r="B136" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔴石川</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D136" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
@@ -5315,7 +5255,7 @@
       <c r="A137" s="3" t="inlineStr"/>
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔵野澤</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -5324,7 +5264,7 @@
         </is>
       </c>
       <c r="D137" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
@@ -5342,7 +5282,7 @@
       <c r="A138" s="3" t="inlineStr"/>
       <c r="B138" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵根津</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -5351,7 +5291,7 @@
         </is>
       </c>
       <c r="D138" s="3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
@@ -5365,11 +5305,92 @@
         </is>
       </c>
     </row>
-    <row r="139"/>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr"/>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>🔴すわめん</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="inlineStr"/>
+      <c r="G139" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr"/>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>🔵山口</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F140" s="3" t="inlineStr"/>
+      <c r="G140" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr"/>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>🔵天野</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="inlineStr"/>
+      <c r="G141" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
+    </row>
+    <row r="142"/>
   </sheetData>
-  <autoFilter ref="A1:G120">
-    <sortState ref="A2:G138">
-      <sortCondition ref="A1:A120"/>
+  <autoFilter ref="A1:G119">
+    <sortState ref="A2:G141">
+      <sortCondition ref="A1:A119"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5383,7 +5404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -5417,6 +5438,251 @@
           <t>コート</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="E16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="0" t="n"/>
+      <c r="E18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
+      <c r="E19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n"/>
+      <c r="B20" s="0" t="n"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="0" t="n"/>
+      <c r="E20" s="0" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n"/>
+      <c r="B21" s="0" t="n"/>
+      <c r="C21" s="0" t="n"/>
+      <c r="D21" s="0" t="n"/>
+      <c r="E21" s="0" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n"/>
+      <c r="B22" s="0" t="n"/>
+      <c r="C22" s="0" t="n"/>
+      <c r="D22" s="0" t="n"/>
+      <c r="E22" s="0" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n"/>
+      <c r="B23" s="0" t="n"/>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="0" t="n"/>
+      <c r="E23" s="0" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n"/>
+      <c r="B24" s="0" t="n"/>
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="0" t="n"/>
+      <c r="E24" s="0" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n"/>
+      <c r="B25" s="0" t="n"/>
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="0" t="n"/>
+      <c r="E25" s="0" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n"/>
+      <c r="B26" s="0" t="n"/>
+      <c r="C26" s="0" t="n"/>
+      <c r="D26" s="0" t="n"/>
+      <c r="E26" s="0" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n"/>
+      <c r="B27" s="0" t="n"/>
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="0" t="n"/>
+      <c r="E27" s="0" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n"/>
+      <c r="B28" s="0" t="n"/>
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="0" t="n"/>
+      <c r="E28" s="0" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n"/>
+      <c r="B29" s="0" t="n"/>
+      <c r="C29" s="0" t="n"/>
+      <c r="D29" s="0" t="n"/>
+      <c r="E29" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n"/>
+      <c r="B30" s="0" t="n"/>
+      <c r="C30" s="0" t="n"/>
+      <c r="D30" s="0" t="n"/>
+      <c r="E30" s="0" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n"/>
+      <c r="B31" s="0" t="n"/>
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="0" t="n"/>
+      <c r="E31" s="0" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n"/>
+      <c r="B32" s="0" t="n"/>
+      <c r="C32" s="0" t="n"/>
+      <c r="D32" s="0" t="n"/>
+      <c r="E32" s="0" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n"/>
+      <c r="B33" s="0" t="n"/>
+      <c r="C33" s="0" t="n"/>
+      <c r="D33" s="0" t="n"/>
+      <c r="E33" s="0" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n"/>
+      <c r="B34" s="0" t="n"/>
+      <c r="C34" s="0" t="n"/>
+      <c r="D34" s="0" t="n"/>
+      <c r="E34" s="0" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="n"/>
+      <c r="B35" s="0" t="n"/>
+      <c r="C35" s="0" t="n"/>
+      <c r="D35" s="0" t="n"/>
+      <c r="E35" s="0" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="n"/>
+      <c r="B36" s="0" t="n"/>
+      <c r="C36" s="0" t="n"/>
+      <c r="D36" s="0" t="n"/>
+      <c r="E36" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -641,7 +641,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -704,16 +704,16 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔴しゅり</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
@@ -726,14 +726,14 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -742,16 +742,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵すぐる</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -764,14 +764,14 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -780,36 +780,36 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔴まや</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -840,14 +840,14 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -856,16 +856,16 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -878,14 +878,14 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Aコート</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>2.814285714285714</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -894,36 +894,36 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -932,16 +932,16 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>🔵てぃの</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>1</v>
@@ -954,14 +954,14 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +970,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>🔴ひろみ</t>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
@@ -992,14 +992,14 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>待機</t>
+          <t>Bコート</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>🔴かえで</t>
+          <t>🔴ひろみ</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>🔵すぐる</t>
+          <t>🔴かえで</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>🔴ななこ</t>
+          <t>🔴ともだ</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴ななこ</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>🔵かいと</t>
+          <t>🔵松平</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>🔵松平</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0</v>
+        <v>3.86875</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>🔴ともだ</t>
+          <t>🔵かいと</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -1262,23 +1262,49 @@
         </is>
       </c>
       <c r="I16" s="3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>🔵てぃの</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="0" t="n"/>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -1288,7 +1314,11 @@
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>待機</t>
+        </is>
+      </c>
       <c r="I18" s="3" t="n"/>
       <c r="J18" s="0" t="n"/>
     </row>
@@ -1472,13 +1502,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="13.59765625" customWidth="1" style="6" min="1" max="1"/>
     <col width="13.59765625" customWidth="1" style="2" min="2" max="2"/>
@@ -1992,19 +2022,23 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵なんば</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>2.5</v>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -2022,7 +2056,7 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>🔴シャンシャン</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2049,12 +2083,12 @@
       <c r="A19" s="3" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>🔵スシャント</t>
+          <t>🔴シャンシャン</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -2076,7 +2110,7 @@
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>🔵ICHIJIKU</t>
+          <t>🔵スシャント</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2103,7 +2137,7 @@
       <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>🔵はしば</t>
+          <t>🔵ICHIJIKU</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2130,7 +2164,7 @@
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>🔵せいたろう</t>
+          <t>🔵はしば</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2157,7 +2191,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>🔵吉野</t>
+          <t>🔵せいたろう</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2166,7 +2200,7 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
@@ -2182,9 +2216,9 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr"/>
-      <c r="B24" s="19" t="inlineStr">
-        <is>
-          <t>🔵ゆーみ</t>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>🔵吉野</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -2209,9 +2243,9 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr"/>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>🔵リョウ</t>
+      <c r="B25" s="19" t="inlineStr">
+        <is>
+          <t>🔵ゆーみ</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -2238,12 +2272,12 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>🔴hama</t>
+          <t>🔵リョウ</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -2265,12 +2299,12 @@
       <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>🔵たつや</t>
+          <t>🔴hama</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -2292,7 +2326,7 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>🔵Gen</t>
+          <t>🔵たつや</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2319,7 +2353,7 @@
       <c r="A29" s="3" t="inlineStr"/>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>🔵金カツ</t>
+          <t>🔵Gen</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2346,7 +2380,7 @@
       <c r="A30" s="3" t="inlineStr"/>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔵金カツ</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2373,7 +2407,7 @@
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>🔵にわ</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2400,7 +2434,7 @@
       <c r="A32" s="3" t="inlineStr"/>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>🔵のっぽ</t>
+          <t>🔵にわ</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2425,14 +2459,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="18" t="inlineStr">
-        <is>
-          <t>🔴えりんご</t>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>🔵のっぽ</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -2452,14 +2486,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>🔵そう</t>
+      <c r="B34" s="18" t="inlineStr">
+        <is>
+          <t>🔴えりんご</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
@@ -2481,7 +2515,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>🔵かつき</t>
+          <t>🔵そう</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2508,7 +2542,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>🔵加地</t>
+          <t>🔵かつき</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2535,7 +2569,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>🔵臼井</t>
+          <t>🔵加地</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2562,7 +2596,7 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>🔵柴田_</t>
+          <t>🔵臼井</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2589,12 +2623,12 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>🔴綾香</t>
+          <t>🔵柴田_</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -2616,7 +2650,7 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>🔴さとみ</t>
+          <t>🔴綾香</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2643,7 +2677,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>🔴朋子</t>
+          <t>🔴さとみ</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2670,7 +2704,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆき</t>
+          <t>🔴朋子</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2697,12 +2731,12 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>🔵金子</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -2724,7 +2758,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>🔵しばた</t>
+          <t>🔵金子</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2751,7 +2785,7 @@
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>🔵下田</t>
+          <t>🔵しばた</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2778,7 +2812,7 @@
       <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>🔵山田</t>
+          <t>🔵下田</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2805,7 +2839,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>🔵りょうすけ</t>
+          <t>🔵山田</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2832,12 +2866,12 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>🔴あすみ</t>
+          <t>🔵りょうすけ</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
@@ -2859,7 +2893,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴あすみ</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -2886,7 +2920,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>🔴はまぐち_</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2913,7 +2947,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>🔴chika</t>
+          <t>🔴はまぐち_</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2940,7 +2974,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>🔴ななみ</t>
+          <t>🔴chika</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2967,12 +3001,12 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>🔵チンシケツ</t>
+          <t>🔴ななみ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -2994,12 +3028,12 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>🔴まき</t>
+          <t>🔵チンシケツ</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
@@ -3021,7 +3055,7 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>🔴わかな</t>
+          <t>🔴まき</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -3048,7 +3082,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔴わかな</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3075,7 +3109,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆい</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3084,7 +3118,7 @@
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
@@ -3102,7 +3136,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>🔴たぬき</t>
+          <t>🔴ゆい</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3129,12 +3163,12 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>🔵またがわ</t>
+          <t>🔴たぬき</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
@@ -3156,7 +3190,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>🔵きなり</t>
+          <t>🔵またがわ</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3183,12 +3217,12 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>🔴なるみ</t>
+          <t>🔵きなり</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -3210,12 +3244,12 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>🔵西郷</t>
+          <t>🔴なるみ</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
@@ -3237,12 +3271,12 @@
       <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>🔴ゆきえ</t>
+          <t>🔵西郷</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
@@ -3264,7 +3298,7 @@
       <c r="A64" s="3" t="inlineStr"/>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>🔴美玖</t>
+          <t>🔴ゆきえ</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3280,7 +3314,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F64" s="0" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3291,7 +3325,7 @@
       <c r="A65" s="3" t="inlineStr"/>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>🔴森</t>
+          <t>🔴美玖</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -3318,7 +3352,7 @@
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>🔴あすか</t>
+          <t>🔴森</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -3345,12 +3379,12 @@
       <c r="A67" s="3" t="inlineStr"/>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>🔵津島</t>
+          <t>🔴あすか</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
@@ -3372,15 +3406,15 @@
       <c r="A68" s="3" t="inlineStr"/>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>🔴せぶん</t>
+          <t>🔵津島</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="D68" s="6" t="n">
+          <t>男</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3388,7 +3422,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr"/>
+      <c r="F68" s="0" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3399,15 +3433,15 @@
       <c r="A69" s="3" t="inlineStr"/>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>🔵古澤哲</t>
+          <t>🔴せぶん</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="n">
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -3415,11 +3449,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F69" s="3" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3430,7 +3460,7 @@
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>🔵林</t>
+          <t>🔵古澤哲</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -3446,7 +3476,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F70" s="3" t="inlineStr"/>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3457,12 +3491,12 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>🔴えりな</t>
+          <t>🔵林</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -3484,7 +3518,7 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>🔴いっちゃん</t>
+          <t>🔴えりな</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -3511,12 +3545,12 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>🔵うっしー</t>
+          <t>🔴いっちゃん</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -3538,12 +3572,12 @@
       <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>🔴未来</t>
+          <t>🔵うっしー</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -3565,12 +3599,12 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>🔵キタ</t>
+          <t>🔴未来</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -3592,7 +3626,7 @@
       <c r="A76" s="3" t="inlineStr"/>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>🔵よっしー</t>
+          <t>🔵キタ</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3600,7 +3634,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="3" t="n">
         <v>3.5</v>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -3619,7 +3653,7 @@
       <c r="A77" s="3" t="inlineStr"/>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>🔵ならい</t>
+          <t>🔵よっしー</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3627,7 +3661,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="D77" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -3644,14 +3678,14 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr"/>
-      <c r="B78" s="18" t="inlineStr">
-        <is>
-          <t>🔴しゅり</t>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>🔵ならい</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
@@ -3671,14 +3705,14 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr"/>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>🔵安田たかひろ</t>
+      <c r="B79" s="18" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
@@ -3700,12 +3734,12 @@
       <c r="A80" s="3" t="inlineStr"/>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>🔴ともね</t>
+          <t>🔵安田たかひろ</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
@@ -3727,12 +3761,12 @@
       <c r="A81" s="3" t="inlineStr"/>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>🔵小出直人</t>
+          <t>🔴ともね</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
@@ -3743,11 +3777,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F81" s="3" t="inlineStr"/>
       <c r="G81" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3758,7 +3788,7 @@
       <c r="A82" s="3" t="inlineStr"/>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>🔵ゆうや</t>
+          <t>🔵小出直人</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -3774,7 +3804,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G82" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -3785,12 +3819,12 @@
       <c r="A83" s="3" t="inlineStr"/>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>🔴はるか</t>
+          <t>🔵ゆうや</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
@@ -3812,12 +3846,12 @@
       <c r="A84" s="3" t="inlineStr"/>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>🔵ぐっぴー</t>
+          <t>🔴はるか</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
@@ -3839,7 +3873,7 @@
       <c r="A85" s="3" t="inlineStr"/>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>🔵なお</t>
+          <t>🔵ぐっぴー</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -3866,12 +3900,12 @@
       <c r="A86" s="3" t="inlineStr"/>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>🔴れいか</t>
+          <t>🔵なお</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
@@ -3893,7 +3927,7 @@
       <c r="A87" s="3" t="inlineStr"/>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>🔴ともみ</t>
+          <t>🔴れいか</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -3920,12 +3954,12 @@
       <c r="A88" s="3" t="inlineStr"/>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>🔵石上</t>
+          <t>🔴ともみ</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
@@ -3947,12 +3981,12 @@
       <c r="A89" s="3" t="inlineStr"/>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>🔴西尾</t>
+          <t>🔵石上</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
@@ -3974,7 +4008,7 @@
       <c r="A90" s="3" t="inlineStr"/>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>🔴中瀬</t>
+          <t>🔴西尾</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -4001,7 +4035,7 @@
       <c r="A91" s="3" t="inlineStr"/>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>🔴ののの_</t>
+          <t>🔴中瀬</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -4028,12 +4062,12 @@
       <c r="A92" s="3" t="inlineStr"/>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>🔵ぴー</t>
+          <t>🔴ののの_</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
@@ -4055,7 +4089,7 @@
       <c r="A93" s="3" t="inlineStr"/>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>🔵かずま</t>
+          <t>🔵ぴー</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -4082,12 +4116,12 @@
       <c r="A94" s="3" t="inlineStr"/>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>🔴かつまた</t>
+          <t>🔵かずま</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
@@ -4109,7 +4143,7 @@
       <c r="A95" s="3" t="inlineStr"/>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>🔴なお</t>
+          <t>🔴かつまた</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -4136,12 +4170,12 @@
       <c r="A96" s="3" t="inlineStr"/>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>🔵そーま</t>
+          <t>🔴なお</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
@@ -4163,7 +4197,7 @@
       <c r="A97" s="3" t="inlineStr"/>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>🔵こしいし</t>
+          <t>🔵そーま</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -4190,7 +4224,7 @@
       <c r="A98" s="3" t="inlineStr"/>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>🔵格之進</t>
+          <t>🔵こしいし</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -4217,12 +4251,12 @@
       <c r="A99" s="3" t="inlineStr"/>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>🔴友田</t>
+          <t>🔵格之進</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
@@ -4244,7 +4278,7 @@
       <c r="A100" s="3" t="inlineStr"/>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>🔴よう</t>
+          <t>🔴友田</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -4271,12 +4305,12 @@
       <c r="A101" s="3" t="inlineStr"/>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>🔵むね</t>
+          <t>🔴よう</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
@@ -4287,11 +4321,7 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
+      <c r="F101" s="3" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4302,12 +4332,12 @@
       <c r="A102" s="3" t="inlineStr"/>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>🔴小林友人</t>
+          <t>🔵むね</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
@@ -4318,7 +4348,11 @@
           <t>〇</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr"/>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>〇</t>
+        </is>
+      </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
           <t>〇</t>
@@ -4329,12 +4363,12 @@
       <c r="A103" s="3" t="inlineStr"/>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>🔵平山</t>
+          <t>🔴小林友人</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
@@ -4356,12 +4390,12 @@
       <c r="A104" s="3" t="inlineStr"/>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>🔴そが</t>
+          <t>🔵平山</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
@@ -4383,7 +4417,7 @@
       <c r="A105" s="3" t="inlineStr"/>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>🔴柴田</t>
+          <t>🔴そが</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -4410,7 +4444,7 @@
       <c r="A106" s="3" t="inlineStr"/>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>🔴chie</t>
+          <t>🔴柴田</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -4437,12 +4471,12 @@
       <c r="A107" s="3" t="inlineStr"/>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>🔵なんば</t>
+          <t>🔴chie</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
@@ -5386,7 +5420,6 @@
         </is>
       </c>
     </row>
-    <row r="142"/>
   </sheetData>
   <autoFilter ref="A1:G119">
     <sortState ref="A2:G141">
@@ -5404,7 +5437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -5440,249 +5473,274 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n"/>
-      <c r="B2" s="0" t="n"/>
-      <c r="C2" s="0" t="n"/>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="0" t="n"/>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>🔵てぃの</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>🔵かいと</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n"/>
-      <c r="B3" s="0" t="n"/>
-      <c r="C3" s="0" t="n"/>
-      <c r="D3" s="0" t="n"/>
-      <c r="E3" s="0" t="n"/>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>🔴ひろみ</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>🔴ななこ</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>🔴まや</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Bコート</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="n"/>
-      <c r="B4" s="0" t="n"/>
-      <c r="C4" s="0" t="n"/>
-      <c r="D4" s="0" t="n"/>
-      <c r="E4" s="0" t="n"/>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>🔴ありさ</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>🔵松平</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>🔴ともだ</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>🔵なんば</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n"/>
-      <c r="B5" s="0" t="n"/>
-      <c r="C5" s="0" t="n"/>
-      <c r="D5" s="0" t="n"/>
-      <c r="E5" s="0" t="n"/>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>🔴さき</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>🔴ゆき</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>🔵shunpon</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Bコート</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n"/>
-      <c r="B6" s="0" t="n"/>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
-      <c r="E6" s="0" t="n"/>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>🔵松平</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>🔴ともだ</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>🔵なんば</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>🔴まや</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n"/>
-      <c r="B7" s="0" t="n"/>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
-      <c r="E7" s="0" t="n"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>🔵かいと</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>🔵てぃの</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Bコート</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n"/>
-      <c r="B8" s="0" t="n"/>
-      <c r="C8" s="0" t="n"/>
-      <c r="D8" s="0" t="n"/>
-      <c r="E8" s="0" t="n"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>🔴ひろみ</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>🔴ななこ</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>🔴ありさ</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n"/>
-      <c r="B9" s="0" t="n"/>
-      <c r="C9" s="0" t="n"/>
-      <c r="D9" s="0" t="n"/>
-      <c r="E9" s="0" t="n"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>🔵shunpon</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>🔴さき</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>🔴ゆき</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Bコート</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n"/>
-      <c r="B10" s="0" t="n"/>
-      <c r="C10" s="0" t="n"/>
-      <c r="D10" s="0" t="n"/>
-      <c r="E10" s="0" t="n"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>🔴ひろみ</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>🔴かえで</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>🔴ななこ</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>🔴ともだ</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Aコート</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n"/>
-      <c r="B11" s="0" t="n"/>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="0" t="n"/>
-      <c r="E11" s="0" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n"/>
-      <c r="B12" s="0" t="n"/>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="0" t="n"/>
-      <c r="E12" s="0" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n"/>
-      <c r="B13" s="0" t="n"/>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="0" t="n"/>
-      <c r="E13" s="0" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n"/>
-      <c r="B14" s="0" t="n"/>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="0" t="n"/>
-      <c r="E14" s="0" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n"/>
-      <c r="B15" s="0" t="n"/>
-      <c r="C15" s="0" t="n"/>
-      <c r="D15" s="0" t="n"/>
-      <c r="E15" s="0" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n"/>
-      <c r="B16" s="0" t="n"/>
-      <c r="C16" s="0" t="n"/>
-      <c r="D16" s="0" t="n"/>
-      <c r="E16" s="0" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n"/>
-      <c r="B17" s="0" t="n"/>
-      <c r="C17" s="0" t="n"/>
-      <c r="D17" s="0" t="n"/>
-      <c r="E17" s="0" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="n"/>
-      <c r="B18" s="0" t="n"/>
-      <c r="C18" s="0" t="n"/>
-      <c r="D18" s="0" t="n"/>
-      <c r="E18" s="0" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n"/>
-      <c r="B19" s="0" t="n"/>
-      <c r="C19" s="0" t="n"/>
-      <c r="D19" s="0" t="n"/>
-      <c r="E19" s="0" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n"/>
-      <c r="B20" s="0" t="n"/>
-      <c r="C20" s="0" t="n"/>
-      <c r="D20" s="0" t="n"/>
-      <c r="E20" s="0" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="n"/>
-      <c r="B21" s="0" t="n"/>
-      <c r="C21" s="0" t="n"/>
-      <c r="D21" s="0" t="n"/>
-      <c r="E21" s="0" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="n"/>
-      <c r="B22" s="0" t="n"/>
-      <c r="C22" s="0" t="n"/>
-      <c r="D22" s="0" t="n"/>
-      <c r="E22" s="0" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="n"/>
-      <c r="B23" s="0" t="n"/>
-      <c r="C23" s="0" t="n"/>
-      <c r="D23" s="0" t="n"/>
-      <c r="E23" s="0" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="n"/>
-      <c r="B24" s="0" t="n"/>
-      <c r="C24" s="0" t="n"/>
-      <c r="D24" s="0" t="n"/>
-      <c r="E24" s="0" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="n"/>
-      <c r="B25" s="0" t="n"/>
-      <c r="C25" s="0" t="n"/>
-      <c r="D25" s="0" t="n"/>
-      <c r="E25" s="0" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="n"/>
-      <c r="B26" s="0" t="n"/>
-      <c r="C26" s="0" t="n"/>
-      <c r="D26" s="0" t="n"/>
-      <c r="E26" s="0" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="n"/>
-      <c r="B27" s="0" t="n"/>
-      <c r="C27" s="0" t="n"/>
-      <c r="D27" s="0" t="n"/>
-      <c r="E27" s="0" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="n"/>
-      <c r="B28" s="0" t="n"/>
-      <c r="C28" s="0" t="n"/>
-      <c r="D28" s="0" t="n"/>
-      <c r="E28" s="0" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="n"/>
-      <c r="B29" s="0" t="n"/>
-      <c r="C29" s="0" t="n"/>
-      <c r="D29" s="0" t="n"/>
-      <c r="E29" s="0" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="n"/>
-      <c r="B30" s="0" t="n"/>
-      <c r="C30" s="0" t="n"/>
-      <c r="D30" s="0" t="n"/>
-      <c r="E30" s="0" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="n"/>
-      <c r="B31" s="0" t="n"/>
-      <c r="C31" s="0" t="n"/>
-      <c r="D31" s="0" t="n"/>
-      <c r="E31" s="0" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="n"/>
-      <c r="B32" s="0" t="n"/>
-      <c r="C32" s="0" t="n"/>
-      <c r="D32" s="0" t="n"/>
-      <c r="E32" s="0" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="n"/>
-      <c r="B33" s="0" t="n"/>
-      <c r="C33" s="0" t="n"/>
-      <c r="D33" s="0" t="n"/>
-      <c r="E33" s="0" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="n"/>
-      <c r="B34" s="0" t="n"/>
-      <c r="C34" s="0" t="n"/>
-      <c r="D34" s="0" t="n"/>
-      <c r="E34" s="0" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="n"/>
-      <c r="B35" s="0" t="n"/>
-      <c r="C35" s="0" t="n"/>
-      <c r="D35" s="0" t="n"/>
-      <c r="E35" s="0" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="n"/>
-      <c r="B36" s="0" t="n"/>
-      <c r="C36" s="0" t="n"/>
-      <c r="D36" s="0" t="n"/>
-      <c r="E36" s="0" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>🔵なんば</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>🔵松平</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>🔵てぃの</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>🔵かいと</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bコート</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5702,7 +5760,7 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="7.59765625" customWidth="1" style="2" min="1" max="1"/>
     <col width="14.5" customWidth="1" style="2" min="2" max="2"/>
@@ -5745,35 +5803,91 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>🔵すぐる</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>🔵shunpon</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="A3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>🔵とも</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>🔴さき</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>🔴まや</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>🔴ゆき</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>🔴ありさ</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>🔴しゅり</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
@@ -5798,7 +5912,7 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
     <col width="6.796875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="4.19921875" customWidth="1" style="2" min="3" max="37"/>
@@ -7616,12 +7730,12 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AA6:AB6"/>
@@ -7634,9 +7748,9 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="S2:V2"/>
@@ -7665,7 +7779,7 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA8:AB8"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -641,7 +641,7 @@
       <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="13.69921875" customWidth="1" style="2" min="1" max="10"/>
   </cols>
@@ -704,16 +704,16 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>🔵shunpon</t>
+          <t>🔴しゅり</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
@@ -726,14 +726,14 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -742,16 +742,16 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>🔵すぐる</t>
+          <t>🔴さき</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -764,14 +764,14 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -780,36 +780,36 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>🔵とも</t>
+          <t>🔴ゆき</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>🔴まや</t>
+          <t>🔴ありさ</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
@@ -840,14 +840,14 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -856,16 +856,16 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>🔴ありさ</t>
+          <t>🔵shunpon</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>1</v>
@@ -878,14 +878,14 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Aコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2.814285714285714</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -894,36 +894,36 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>🔴さき</t>
+          <t>🔵とも</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Bコート</t>
+          <t>待機</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -932,16 +932,16 @@
       </c>
       <c r="B8" s="0" t